--- a/Transcom-Tagamo3-DataBase/ReadyToSend/Daily_Schedule/Dec-2025/جدول التجمع يوم 21-12-2025.xlsx
+++ b/Transcom-Tagamo3-DataBase/ReadyToSend/Daily_Schedule/Dec-2025/جدول التجمع يوم 21-12-2025.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Daily Report Data" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Report Data'!$A$1:$H$534</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Report Data'!$A$1:$H$536</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="489">
   <si>
     <t>بدايةالشيفت</t>
   </si>
@@ -784,661 +784,688 @@
     <t>آمنة مأمون</t>
   </si>
   <si>
+    <t>فاطمة الزهراء</t>
+  </si>
+  <si>
+    <t>1044758200 / 249904396614</t>
+  </si>
+  <si>
+    <t>عبدالله اشرف</t>
+  </si>
+  <si>
+    <t>طارق نصر محمد</t>
+  </si>
+  <si>
+    <t>اية الحج</t>
+  </si>
+  <si>
+    <t>عبد الله أحمد فتح الله</t>
+  </si>
+  <si>
+    <t>مريم رشوان</t>
+  </si>
+  <si>
+    <t>أحمد محمد سمير محمد</t>
+  </si>
+  <si>
+    <t>مصطفى حازم</t>
+  </si>
+  <si>
+    <t>من 9 م</t>
+  </si>
+  <si>
+    <t>بشار محمد البشير حمزة</t>
+  </si>
+  <si>
+    <t>من 4 م</t>
+  </si>
+  <si>
+    <t>يمنى صلاح</t>
+  </si>
+  <si>
+    <t>احمد قرضاوي</t>
+  </si>
+  <si>
+    <t>عمر سيف</t>
+  </si>
+  <si>
+    <t>هايبر 1</t>
+  </si>
+  <si>
+    <t>عبدالله محمد</t>
+  </si>
+  <si>
+    <t>فودافون</t>
+  </si>
+  <si>
+    <t>حمزة وليد</t>
+  </si>
+  <si>
+    <t>معتصم احمد</t>
+  </si>
+  <si>
+    <t>هليوبليس</t>
+  </si>
+  <si>
+    <t>محمد عمر احمد</t>
+  </si>
+  <si>
+    <t>ألفريد ألبينو مايكل</t>
+  </si>
+  <si>
+    <t>نديم خالد</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>يارا عماد</t>
+  </si>
+  <si>
+    <t>حسن أسامة</t>
+  </si>
+  <si>
+    <t>اشرقت نشأت</t>
+  </si>
+  <si>
+    <t>ميدان العباسة</t>
+  </si>
+  <si>
+    <t>محمد احمد</t>
+  </si>
+  <si>
+    <t>محمود احمد</t>
+  </si>
+  <si>
+    <t>ساندرا ممدوح</t>
+  </si>
+  <si>
+    <t>نورهان رفيق</t>
+  </si>
+  <si>
+    <t>بسنت سليم</t>
+  </si>
+  <si>
+    <t>حبيبة خالد</t>
+  </si>
+  <si>
+    <t>وليد محمد</t>
+  </si>
+  <si>
+    <t>احمد موسى</t>
+  </si>
+  <si>
+    <t>1125736852 / 249903138792</t>
+  </si>
+  <si>
+    <t>محمد الهادي</t>
+  </si>
+  <si>
+    <t>أحمد محمد عبد الرحمن محمد</t>
+  </si>
+  <si>
+    <t>الفردوس</t>
+  </si>
+  <si>
+    <t>هاجر محمد فكري</t>
+  </si>
+  <si>
+    <t>الروماني</t>
+  </si>
+  <si>
+    <t>يوسف طارق زين</t>
+  </si>
+  <si>
+    <t>محمد اسامة</t>
+  </si>
+  <si>
+    <t>علي عبد النبي</t>
+  </si>
+  <si>
+    <t>1116381472 / 249115567003</t>
+  </si>
+  <si>
+    <t>لجين عبد المنعم</t>
+  </si>
+  <si>
+    <t>أحمد عبد العظيم</t>
+  </si>
+  <si>
+    <t>مدخل حلوان الاتوستراد</t>
+  </si>
+  <si>
+    <t>محمد فتح الرحمن ابراهيم</t>
+  </si>
+  <si>
+    <t>حسن عرفة</t>
+  </si>
+  <si>
+    <t>فاطمة فوزي</t>
+  </si>
+  <si>
+    <t>عبدالرحمن ايهاب</t>
+  </si>
+  <si>
+    <t>طلعة قليوب</t>
+  </si>
+  <si>
+    <t>خان ستيف</t>
+  </si>
+  <si>
+    <t>دائري المرج</t>
+  </si>
+  <si>
+    <t>لوجينا أحمد كامل</t>
+  </si>
+  <si>
+    <t>منى صلاح</t>
+  </si>
+  <si>
+    <t>رزان محمد</t>
+  </si>
+  <si>
+    <t>الطوابق</t>
+  </si>
+  <si>
+    <t>مجذوب عوض</t>
+  </si>
+  <si>
+    <t>عمر مدبولي</t>
+  </si>
+  <si>
+    <t>رحمة مدثر</t>
+  </si>
+  <si>
+    <t>طالبية</t>
+  </si>
+  <si>
+    <t>مينا كارل</t>
+  </si>
+  <si>
+    <t>يحيى أحمد محمد طلب</t>
+  </si>
+  <si>
+    <t>محمد حامد</t>
+  </si>
+  <si>
+    <t>مراد مصطفى كمال</t>
+  </si>
+  <si>
+    <t>محمود مصطفى</t>
+  </si>
+  <si>
+    <t>منة الله أحمد</t>
+  </si>
+  <si>
+    <t>عز الدين اشرف</t>
+  </si>
+  <si>
+    <t>مصطفى فقيه</t>
+  </si>
+  <si>
+    <t>1102758757 / 249965681031</t>
+  </si>
+  <si>
+    <t>أحمد الفاتح</t>
+  </si>
+  <si>
+    <t>أسامة رمضان</t>
+  </si>
+  <si>
+    <t>عبد العزيز مجدي</t>
+  </si>
+  <si>
+    <t>هبة علي</t>
+  </si>
+  <si>
+    <t>ندى أحمد جاسم</t>
+  </si>
+  <si>
+    <t>كشك اللحمه</t>
+  </si>
+  <si>
+    <t>يوسف حسن</t>
+  </si>
+  <si>
+    <t>رانيا عبد الرحمن</t>
+  </si>
+  <si>
+    <t>كريم حسن</t>
+  </si>
+  <si>
+    <t>ي - المعادى</t>
+  </si>
+  <si>
+    <t>مجدي منديل</t>
+  </si>
+  <si>
+    <t>1021011962/ 1505614990</t>
+  </si>
+  <si>
+    <t>حسين جمعة</t>
+  </si>
+  <si>
+    <t>حسن السيد</t>
+  </si>
+  <si>
+    <t>ي - بدر</t>
+  </si>
+  <si>
+    <t>مدخل بدر</t>
+  </si>
+  <si>
+    <t>تيموثي مودي</t>
+  </si>
+  <si>
+    <t>محمد احمد اسماعيل</t>
+  </si>
+  <si>
+    <t>هادية وحيد</t>
+  </si>
+  <si>
+    <t>احمد حسين</t>
+  </si>
+  <si>
+    <t>زياد ثابت</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>هرم ستي</t>
+  </si>
+  <si>
+    <t>اسلام وسام</t>
+  </si>
+  <si>
+    <t>دنيا سمير</t>
+  </si>
+  <si>
+    <t>سينيت تسفاي</t>
+  </si>
+  <si>
+    <t>من 3 م</t>
+  </si>
+  <si>
+    <t>عبدالله طارق</t>
+  </si>
+  <si>
+    <t>يارا ايهاب</t>
+  </si>
+  <si>
+    <t>يوسف سيف</t>
+  </si>
+  <si>
+    <t>هدى عز</t>
+  </si>
+  <si>
+    <t>علي ابراهيم علي</t>
+  </si>
+  <si>
+    <t>صلاح حسن صلاح</t>
+  </si>
+  <si>
+    <t>إسراء سامي</t>
+  </si>
+  <si>
+    <t>اكرم محمد حسن</t>
+  </si>
+  <si>
+    <t>سهيلة هاني</t>
+  </si>
+  <si>
+    <t>اسلام الغمري</t>
+  </si>
+  <si>
+    <t>دعاء دسوقى</t>
+  </si>
+  <si>
+    <t>دنيا جابر</t>
+  </si>
+  <si>
+    <t>عبد الرحمن محمد</t>
+  </si>
+  <si>
+    <t>1128109338_00249901091101</t>
+  </si>
+  <si>
+    <t>كريم الدين امير صلاح</t>
+  </si>
+  <si>
+    <t>كريم محمد علي عبد الجواد</t>
+  </si>
+  <si>
+    <t>سهيلة عاطف</t>
+  </si>
+  <si>
+    <t>1229990859/ WP: 1064377632</t>
+  </si>
+  <si>
+    <t>علي البشير</t>
+  </si>
+  <si>
+    <t>بوابه1</t>
+  </si>
+  <si>
+    <t>من 2 م</t>
+  </si>
+  <si>
+    <t>هشام حسن</t>
+  </si>
+  <si>
+    <t>زياد احمد</t>
+  </si>
+  <si>
+    <t>احمد داوود</t>
+  </si>
+  <si>
+    <t>محمد عبد الباسط</t>
+  </si>
+  <si>
+    <t>1069935066 / 1282029756</t>
+  </si>
+  <si>
+    <t>نور هشام</t>
+  </si>
+  <si>
+    <t>1222484297/61478776673</t>
+  </si>
+  <si>
+    <t>سليم عطا</t>
+  </si>
+  <si>
+    <t>رحيم مصطفى</t>
+  </si>
+  <si>
+    <t>1559889751/249901586173</t>
+  </si>
+  <si>
+    <t>احمد البدري</t>
+  </si>
+  <si>
+    <t>محمود البنداري</t>
+  </si>
+  <si>
+    <t>ملاك معتصم</t>
+  </si>
+  <si>
+    <t>من 11 م</t>
+  </si>
+  <si>
+    <t>1090273995/1277222890</t>
+  </si>
+  <si>
+    <t>أمينة النيال</t>
+  </si>
+  <si>
+    <t>1126814125/1105829206</t>
+  </si>
+  <si>
+    <t>بوليس سانتينو بول</t>
+  </si>
+  <si>
+    <t>عمر عادل</t>
+  </si>
+  <si>
+    <t>عمر بدوي</t>
+  </si>
+  <si>
+    <t>خطاب بشير محمد أحمد</t>
+  </si>
+  <si>
+    <t>دان أحمد</t>
+  </si>
+  <si>
+    <t>روان عيسى</t>
+  </si>
+  <si>
+    <t>سارة عشماوي</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>800 فدان</t>
+  </si>
+  <si>
+    <t>حباب خالد</t>
+  </si>
+  <si>
+    <t>حازم دياب</t>
+  </si>
+  <si>
+    <t>أحمد أسامة صلاح</t>
+  </si>
+  <si>
+    <t>خالد الهادي سعيد</t>
+  </si>
+  <si>
+    <t>إياد ياسر</t>
+  </si>
+  <si>
+    <t>لمى كرم</t>
+  </si>
+  <si>
+    <t>الطاهر شمس الدين</t>
+  </si>
+  <si>
+    <t>آية عاطف</t>
+  </si>
+  <si>
+    <t>منيبة كرار</t>
+  </si>
+  <si>
+    <t>يوسف عبد الله</t>
+  </si>
+  <si>
+    <t>آية محمد الصديق</t>
+  </si>
+  <si>
+    <t>المجداد احمد</t>
+  </si>
+  <si>
+    <t>عمر اشرف</t>
+  </si>
+  <si>
+    <t>1017891283/1022577394</t>
+  </si>
+  <si>
+    <t>خالد محمد نور علي</t>
+  </si>
+  <si>
+    <t>ياسين عمرو</t>
+  </si>
+  <si>
+    <t>سيف وائل</t>
+  </si>
+  <si>
+    <t>لوكا اميل</t>
+  </si>
+  <si>
+    <t>احمد محمد مصطفى</t>
+  </si>
+  <si>
+    <t>عبد الرحمن ابراهيم</t>
+  </si>
+  <si>
+    <t>ليلى حمدي</t>
+  </si>
+  <si>
+    <t>حبيبة خالد سلامة</t>
+  </si>
+  <si>
+    <t>حسام الدين وليد مصطفى</t>
+  </si>
+  <si>
+    <t>ممدوح تبدي</t>
+  </si>
+  <si>
+    <t>فياض حمدي</t>
+  </si>
+  <si>
+    <t>يوسف صديق</t>
+  </si>
+  <si>
+    <t>حسام محمد نبيل حمدي</t>
+  </si>
+  <si>
+    <t>عبد الله جمال</t>
+  </si>
+  <si>
+    <t>محمد ابوبكر</t>
+  </si>
+  <si>
+    <t>ولي العهد</t>
+  </si>
+  <si>
+    <t>مازن اشرف</t>
+  </si>
+  <si>
+    <t>مازن الباجوري</t>
+  </si>
+  <si>
+    <t>محمد مصطفى</t>
+  </si>
+  <si>
+    <t>أحمد مصطفى كامل</t>
+  </si>
+  <si>
+    <t>سعيد الليثي</t>
+  </si>
+  <si>
+    <t>الحي العاشر</t>
+  </si>
+  <si>
     <t>ياسين صبري</t>
   </si>
   <si>
-    <t>فاطمة الزهراء</t>
-  </si>
-  <si>
-    <t>1044758200 / 249904396614</t>
-  </si>
-  <si>
-    <t>عبدالله اشرف</t>
-  </si>
-  <si>
-    <t>طارق نصر محمد</t>
-  </si>
-  <si>
-    <t>اية الحج</t>
-  </si>
-  <si>
-    <t>عبد الله أحمد فتح الله</t>
-  </si>
-  <si>
-    <t>مريم رشوان</t>
-  </si>
-  <si>
-    <t>أحمد محمد سمير محمد</t>
-  </si>
-  <si>
-    <t>يمنى صلاح</t>
-  </si>
-  <si>
-    <t>1229990859/ WP: 1064377632</t>
-  </si>
-  <si>
-    <t>علي البشير</t>
-  </si>
-  <si>
-    <t>بوابه1</t>
-  </si>
-  <si>
-    <t>احمد قرضاوي</t>
-  </si>
-  <si>
-    <t>عمر سيف</t>
-  </si>
-  <si>
-    <t>هايبر 1</t>
-  </si>
-  <si>
-    <t>عبدالله محمد</t>
-  </si>
-  <si>
-    <t>فودافون</t>
-  </si>
-  <si>
-    <t>حمزة وليد</t>
-  </si>
-  <si>
-    <t>معتصم احمد</t>
-  </si>
-  <si>
-    <t>هليوبليس</t>
-  </si>
-  <si>
-    <t>محمد عمر احمد</t>
-  </si>
-  <si>
-    <t>ألفريد ألبينو مايكل</t>
-  </si>
-  <si>
-    <t>نديم خالد</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>يارا عماد</t>
-  </si>
-  <si>
-    <t>حسن أسامة</t>
-  </si>
-  <si>
-    <t>اشرقت نشأت</t>
-  </si>
-  <si>
-    <t>ميدان العباسة</t>
-  </si>
-  <si>
-    <t>محمد احمد</t>
-  </si>
-  <si>
-    <t>محمود احمد</t>
-  </si>
-  <si>
-    <t>ساندرا ممدوح</t>
-  </si>
-  <si>
-    <t>نورهان رفيق</t>
-  </si>
-  <si>
-    <t>بسنت سليم</t>
-  </si>
-  <si>
-    <t>حبيبة خالد</t>
-  </si>
-  <si>
-    <t>وليد محمد</t>
-  </si>
-  <si>
-    <t>احمد موسى</t>
-  </si>
-  <si>
-    <t>1125736852 / 249903138792</t>
-  </si>
-  <si>
-    <t>محمد الهادي</t>
-  </si>
-  <si>
-    <t>أحمد محمد عبد الرحمن محمد</t>
-  </si>
-  <si>
-    <t>الفردوس</t>
-  </si>
-  <si>
-    <t>هاجر محمد فكري</t>
-  </si>
-  <si>
-    <t>الروماني</t>
-  </si>
-  <si>
-    <t>يوسف طارق زين</t>
-  </si>
-  <si>
-    <t>محمد اسامة</t>
-  </si>
-  <si>
-    <t>علي عبد النبي</t>
-  </si>
-  <si>
-    <t>1116381472 / 249115567003</t>
-  </si>
-  <si>
-    <t>لجين عبد المنعم</t>
-  </si>
-  <si>
-    <t>أحمد عبد العظيم</t>
-  </si>
-  <si>
-    <t>مدخل حلوان الاتوستراد</t>
-  </si>
-  <si>
-    <t>سينيت تسفاي</t>
-  </si>
-  <si>
-    <t>محمد فتح الرحمن ابراهيم</t>
-  </si>
-  <si>
-    <t>حسن عرفة</t>
-  </si>
-  <si>
-    <t>فاطمة فوزي</t>
-  </si>
-  <si>
-    <t>عبدالرحمن ايهاب</t>
-  </si>
-  <si>
-    <t>طلعة قليوب</t>
-  </si>
-  <si>
-    <t>خان ستيف</t>
-  </si>
-  <si>
-    <t>دائري المرج</t>
-  </si>
-  <si>
-    <t>لوجينا أحمد كامل</t>
-  </si>
-  <si>
-    <t>منى صلاح</t>
-  </si>
-  <si>
-    <t>رزان محمد</t>
-  </si>
-  <si>
-    <t>الطوابق</t>
-  </si>
-  <si>
-    <t>مجذوب عوض</t>
-  </si>
-  <si>
-    <t>عمر مدبولي</t>
-  </si>
-  <si>
-    <t>رحمة مدثر</t>
-  </si>
-  <si>
-    <t>طالبية</t>
-  </si>
-  <si>
-    <t>مينا كارل</t>
-  </si>
-  <si>
-    <t>يحيى أحمد محمد طلب</t>
-  </si>
-  <si>
-    <t>محمد حامد</t>
-  </si>
-  <si>
-    <t>محمود مصطفى</t>
-  </si>
-  <si>
-    <t>منة الله أحمد</t>
-  </si>
-  <si>
-    <t>عز الدين اشرف</t>
-  </si>
-  <si>
-    <t>مصطفى فقيه</t>
-  </si>
-  <si>
-    <t>1102758757 / 249965681031</t>
-  </si>
-  <si>
-    <t>أحمد الفاتح</t>
-  </si>
-  <si>
-    <t>أسامة رمضان</t>
-  </si>
-  <si>
-    <t>عبد العزيز مجدي</t>
-  </si>
-  <si>
-    <t>هبة علي</t>
-  </si>
-  <si>
-    <t>ندى أحمد جاسم</t>
-  </si>
-  <si>
-    <t>كشك اللحمه</t>
-  </si>
-  <si>
-    <t>يوسف حسن</t>
-  </si>
-  <si>
-    <t>رانيا عبد الرحمن</t>
-  </si>
-  <si>
-    <t>كريم حسن</t>
-  </si>
-  <si>
-    <t>ي - المعادى</t>
-  </si>
-  <si>
-    <t>مجدي منديل</t>
-  </si>
-  <si>
-    <t>1021011962/ 1505614990</t>
-  </si>
-  <si>
-    <t>حسين جمعة</t>
-  </si>
-  <si>
-    <t>حسن السيد</t>
-  </si>
-  <si>
-    <t>ي - بدر</t>
-  </si>
-  <si>
-    <t>مدخل بدر</t>
-  </si>
-  <si>
-    <t>تيموثي مودي</t>
-  </si>
-  <si>
-    <t>محمد احمد اسماعيل</t>
-  </si>
-  <si>
-    <t>هادية وحيد</t>
-  </si>
-  <si>
-    <t>احمد حسين</t>
-  </si>
-  <si>
-    <t>زياد ثابت</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>هرم ستي</t>
-  </si>
-  <si>
-    <t>اسلام وسام</t>
-  </si>
-  <si>
-    <t>دنيا سمير</t>
-  </si>
-  <si>
-    <t>عبدالله طارق</t>
-  </si>
-  <si>
-    <t>يارا ايهاب</t>
-  </si>
-  <si>
-    <t>يوسف سيف</t>
-  </si>
-  <si>
-    <t>هدى عز</t>
-  </si>
-  <si>
-    <t>علي ابراهيم علي</t>
-  </si>
-  <si>
-    <t>صلاح حسن صلاح</t>
-  </si>
-  <si>
-    <t>إسراء سامي</t>
-  </si>
-  <si>
-    <t>اكرم محمد حسن</t>
-  </si>
-  <si>
-    <t>سهيلة هاني</t>
-  </si>
-  <si>
-    <t>اسلام الغمري</t>
-  </si>
-  <si>
-    <t>دعاء دسوقى</t>
-  </si>
-  <si>
-    <t>بشار محمد البشير حمزة</t>
-  </si>
-  <si>
-    <t>دنيا جابر</t>
+    <t>محمد علاء</t>
+  </si>
+  <si>
+    <t>1557655853 / 249965691878</t>
+  </si>
+  <si>
+    <t>عبد المنعم خالد</t>
+  </si>
+  <si>
+    <t>مصطفى محمد</t>
+  </si>
+  <si>
+    <t>فارس عصام الدين حسن خليفة</t>
+  </si>
+  <si>
+    <t>إياد محمد</t>
+  </si>
+  <si>
+    <t>من 5 م</t>
+  </si>
+  <si>
+    <t>أندرو عادل إسحاق</t>
+  </si>
+  <si>
+    <t>1149653302 / 1068289251</t>
+  </si>
+  <si>
+    <t>حسن عامر</t>
+  </si>
+  <si>
+    <t>باسل خالد</t>
+  </si>
+  <si>
+    <t>احمد فهمى</t>
+  </si>
+  <si>
+    <t>باسل هشام</t>
+  </si>
+  <si>
+    <t>عبد الرحمن وليد</t>
+  </si>
+  <si>
+    <t>عبد الرؤوف محمود</t>
+  </si>
+  <si>
+    <t>من 6 م</t>
+  </si>
+  <si>
+    <t>عمرو تامر</t>
+  </si>
+  <si>
+    <t>دانيا ياسر</t>
+  </si>
+  <si>
+    <t>مدثر أسامة</t>
+  </si>
+  <si>
+    <t>ندى سعد</t>
+  </si>
+  <si>
+    <t>احمد المنياوي</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>1080766074 / 249920520446</t>
+  </si>
+  <si>
+    <t>جعفر منهل</t>
+  </si>
+  <si>
+    <t>محمود حسن</t>
+  </si>
+  <si>
+    <t>زينب عبدالله محمدالحسن</t>
+  </si>
+  <si>
+    <t>1101101665/1555121109</t>
+  </si>
+  <si>
+    <t>دانيا خالد يوسف</t>
+  </si>
+  <si>
+    <t>عبدالله أيمن</t>
+  </si>
+  <si>
+    <t>محمود عاطف</t>
+  </si>
+  <si>
+    <t>عبدالعزيز ابراهيم</t>
+  </si>
+  <si>
+    <t>الابيض اول فيصل</t>
+  </si>
+  <si>
+    <t>محمد أيمن</t>
+  </si>
+  <si>
+    <t>نور الدين محمود</t>
+  </si>
+  <si>
+    <t>مصعب عمر</t>
+  </si>
+  <si>
+    <t>حازم حسام</t>
+  </si>
+  <si>
+    <t>خالد عبد القادر</t>
+  </si>
+  <si>
+    <t>كشرى هند الحي العاشر</t>
+  </si>
+  <si>
+    <t>صالح عبد القادر عمر محمد</t>
+  </si>
+  <si>
+    <t>مارتن ناير</t>
+  </si>
+  <si>
+    <t>1552409918 / +249966293122</t>
+  </si>
+  <si>
+    <t>منذر بابكر</t>
   </si>
   <si>
     <t>ليال عادل خالد الأمين</t>
-  </si>
-  <si>
-    <t>عبد الرحمن محمد</t>
-  </si>
-  <si>
-    <t>1128109338_00249901091101</t>
-  </si>
-  <si>
-    <t>كريم الدين امير صلاح</t>
-  </si>
-  <si>
-    <t>كريم محمد علي عبد الجواد</t>
-  </si>
-  <si>
-    <t>سهيلة عاطف</t>
-  </si>
-  <si>
-    <t>هشام حسن</t>
-  </si>
-  <si>
-    <t>زياد احمد</t>
-  </si>
-  <si>
-    <t>احمد داوود</t>
-  </si>
-  <si>
-    <t>محمد عبد الباسط</t>
-  </si>
-  <si>
-    <t>1069935066 / 1282029756</t>
-  </si>
-  <si>
-    <t>نور هشام</t>
-  </si>
-  <si>
-    <t>1222484297/61478776673</t>
-  </si>
-  <si>
-    <t>سليم عطا</t>
-  </si>
-  <si>
-    <t>رحيم مصطفى</t>
-  </si>
-  <si>
-    <t>1559889751/249901586173</t>
-  </si>
-  <si>
-    <t>احمد البدري</t>
-  </si>
-  <si>
-    <t>محمود البنداري</t>
-  </si>
-  <si>
-    <t>1090273995/1277222890</t>
-  </si>
-  <si>
-    <t>أمينة النيال</t>
-  </si>
-  <si>
-    <t>1126814125/1105829206</t>
-  </si>
-  <si>
-    <t>بوليس سانتينو بول</t>
-  </si>
-  <si>
-    <t>إياد محمد</t>
-  </si>
-  <si>
-    <t>عمر بدوي</t>
-  </si>
-  <si>
-    <t>خطاب بشير محمد أحمد</t>
-  </si>
-  <si>
-    <t>دان أحمد</t>
-  </si>
-  <si>
-    <t>روان عيسى</t>
-  </si>
-  <si>
-    <t>سارة عشماوي</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>800 فدان</t>
-  </si>
-  <si>
-    <t>حباب خالد</t>
-  </si>
-  <si>
-    <t>حازم دياب</t>
-  </si>
-  <si>
-    <t>أحمد أسامة صلاح</t>
-  </si>
-  <si>
-    <t>خالد الهادي سعيد</t>
-  </si>
-  <si>
-    <t>حازم حسام</t>
-  </si>
-  <si>
-    <t>إياد ياسر</t>
-  </si>
-  <si>
-    <t>عبد الرؤوف محمود</t>
-  </si>
-  <si>
-    <t>لمى كرم</t>
-  </si>
-  <si>
-    <t>الطاهر شمس الدين</t>
-  </si>
-  <si>
-    <t>آية عاطف</t>
-  </si>
-  <si>
-    <t>منيبة كرار</t>
-  </si>
-  <si>
-    <t>آية محمد الصديق</t>
-  </si>
-  <si>
-    <t>المجداد احمد</t>
-  </si>
-  <si>
-    <t>عمر اشرف</t>
-  </si>
-  <si>
-    <t>ياسين عمرو</t>
-  </si>
-  <si>
-    <t>سيف وائل</t>
-  </si>
-  <si>
-    <t>لوكا اميل</t>
-  </si>
-  <si>
-    <t>احمد محمد مصطفى</t>
-  </si>
-  <si>
-    <t>عبد الرحمن ابراهيم</t>
-  </si>
-  <si>
-    <t>ليلى حمدي</t>
-  </si>
-  <si>
-    <t>حبيبة خالد سلامة</t>
-  </si>
-  <si>
-    <t>حسام الدين وليد مصطفى</t>
-  </si>
-  <si>
-    <t>ممدوح تبدي</t>
-  </si>
-  <si>
-    <t>فياض حمدي</t>
-  </si>
-  <si>
-    <t>يوسف صديق</t>
-  </si>
-  <si>
-    <t>حسام محمد نبيل حمدي</t>
-  </si>
-  <si>
-    <t>عبد الله جمال</t>
-  </si>
-  <si>
-    <t>محمد ابوبكر</t>
-  </si>
-  <si>
-    <t>ولي العهد</t>
-  </si>
-  <si>
-    <t>مازن اشرف</t>
-  </si>
-  <si>
-    <t>مراد مصطفى كمال</t>
-  </si>
-  <si>
-    <t>مازن الباجوري</t>
-  </si>
-  <si>
-    <t>محمد مصطفى</t>
-  </si>
-  <si>
-    <t>أحمد مصطفى كامل</t>
-  </si>
-  <si>
-    <t>مصطفى حازم</t>
-  </si>
-  <si>
-    <t>سعيد الليثي</t>
-  </si>
-  <si>
-    <t>الحي العاشر</t>
-  </si>
-  <si>
-    <t>محمد علاء</t>
-  </si>
-  <si>
-    <t>1557655853 / 249965691878</t>
-  </si>
-  <si>
-    <t>عبد المنعم خالد</t>
-  </si>
-  <si>
-    <t>مصطفى محمد</t>
-  </si>
-  <si>
-    <t>فارس عصام الدين حسن خليفة</t>
-  </si>
-  <si>
-    <t>عمر عادل</t>
-  </si>
-  <si>
-    <t>أندرو عادل إسحاق</t>
-  </si>
-  <si>
-    <t>1149653302 / 1068289251</t>
-  </si>
-  <si>
-    <t>حسن عامر</t>
-  </si>
-  <si>
-    <t>باسل خالد</t>
-  </si>
-  <si>
-    <t>احمد فهمى</t>
-  </si>
-  <si>
-    <t>باسل هشام</t>
-  </si>
-  <si>
-    <t>عبد الرحمن وليد</t>
-  </si>
-  <si>
-    <t>عمرو تامر</t>
-  </si>
-  <si>
-    <t>دانيا ياسر</t>
-  </si>
-  <si>
-    <t>مدثر أسامة</t>
-  </si>
-  <si>
-    <t>ندى سعد</t>
-  </si>
-  <si>
-    <t>احمد المنياوي</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>1080766074 / 249920520446</t>
-  </si>
-  <si>
-    <t>جعفر منهل</t>
-  </si>
-  <si>
-    <t>محمود حسن</t>
-  </si>
-  <si>
-    <t>زينب عبدالله محمدالحسن</t>
-  </si>
-  <si>
-    <t>1101101665/1555121109</t>
-  </si>
-  <si>
-    <t>دانيا خالد يوسف</t>
-  </si>
-  <si>
-    <t>عبدالله أيمن</t>
-  </si>
-  <si>
-    <t>محمود عاطف</t>
-  </si>
-  <si>
-    <t>عبدالعزيز ابراهيم</t>
-  </si>
-  <si>
-    <t>الابيض اول فيصل</t>
-  </si>
-  <si>
-    <t>محمد أيمن</t>
-  </si>
-  <si>
-    <t>نور الدين محمود</t>
-  </si>
-  <si>
-    <t>مصعب عمر</t>
-  </si>
-  <si>
-    <t>خالد عبد القادر</t>
-  </si>
-  <si>
-    <t>كشرى هند الحي العاشر</t>
-  </si>
-  <si>
-    <t>صالح عبد القادر عمر محمد</t>
-  </si>
-  <si>
-    <t>ملاك معتصم</t>
-  </si>
-  <si>
-    <t>يوسف عبد الله</t>
-  </si>
-  <si>
-    <t>مارتن ناير</t>
-  </si>
-  <si>
-    <t>1552409918 / +249966293122</t>
-  </si>
-  <si>
-    <t>منذر بابكر</t>
   </si>
   <si>
     <t>سامح رمزي</t>
@@ -1722,7 +1749,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1744,6 +1771,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2091,7 +2124,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2115,16 +2148,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2133,85 +2166,85 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
@@ -2225,7 +2258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2293,6 +2326,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2305,16 +2347,13 @@
     <xf numFmtId="179" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4814,611 +4853,611 @@
     </dxf>
   </dxfs>
   <tableStyles count="152" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{FC8DFAA0-A98D-43DA-83D4-0F44C747D716}">
+    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{B0ABBF20-8EA3-4357-B75F-56F4DA27862A}">
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{8DD40B0B-6B92-4AE8-AC36-338C97217DAA}">
+    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{15138E7F-2DA8-43B8-96E9-28582CA4167D}">
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{4E5C5306-0A17-4CBE-85B1-83A4CDD8B4BA}">
+    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{6B2F7C5F-B23D-475D-A1D8-C63F8359E5BC}">
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{513E3848-92EE-43E1-81F3-1D4835E4A019}">
+    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{ACCB063A-B744-4F62-A7DA-69EA2A423DB6}">
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
       <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{0B4CBF15-7C5E-4AA3-AA3E-2D39CB150983}">
+    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{F0A91844-FF77-48EC-95AD-A61566C3BA07}">
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
       <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{34A0D057-7E01-49F2-8F8E-89B9DC2AA53A}">
+    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{CE55BAE7-7244-4D82-B9B8-6406CC4F530B}">
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{6244E251-7A39-4263-9CA1-B8869BEB6F1D}">
+    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{C5838D6C-8CE9-47BE-9A3E-04E8A14D98F3}">
       <tableStyleElement type="firstRowStripe" dxfId="13"/>
       <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{3D9A93C9-B2E6-4398-92E0-AE6CCB4406B6}">
+    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{75AF24E7-1E8B-47F9-B9F7-C0CA73F9547F}">
       <tableStyleElement type="firstRowStripe" dxfId="15"/>
       <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{F4573102-FB38-4587-B1A9-F27B0FF3A6FD}">
+    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{9A005CD6-01DF-4355-943E-6DC28E8F991D}">
       <tableStyleElement type="firstRowStripe" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{2589A99B-B025-4FAD-881F-BAC13655DD19}">
+    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{AB05F976-AC89-45D6-8446-9F6D659609EF}">
       <tableStyleElement type="firstRowStripe" dxfId="19"/>
       <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{2CA9FF24-3815-4848-A060-5756DBDA59A7}">
+    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{768C30F3-77FB-426E-ACA4-374C44FD2D88}">
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
       <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{D87779BC-2274-4605-AF16-CFC20A10936C}">
+    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{68135DA3-C737-48AA-8FC8-5F5C36DFC645}">
       <tableStyleElement type="firstRowStripe" dxfId="23"/>
       <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{3A83388E-3606-46D6-B67C-92406F8F37A4}">
+    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{2470C017-7515-498C-91E5-288F81E48C60}">
       <tableStyleElement type="firstRowStripe" dxfId="25"/>
       <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{0CB00A2E-7640-43FD-A28E-F4009A4152CB}">
+    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{6C1B3A9F-B9DB-4D7A-AC4B-F844038058AC}">
       <tableStyleElement type="firstRowStripe" dxfId="27"/>
       <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{F5E1E9EC-809F-4B26-9B6A-884EC0A358FD}">
+    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{8C050542-E3A5-4787-91BA-4A245EF497AC}">
       <tableStyleElement type="firstRowStripe" dxfId="29"/>
       <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{E99AE538-63A8-495E-B6B2-46ADCE816415}">
+    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{623CB2DE-D4F4-4E1E-89CA-E6ADA73D956F}">
       <tableStyleElement type="firstRowStripe" dxfId="31"/>
       <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{6F5E1E45-1A00-4F5E-A518-F83B3C4D6B44}">
+    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{B89A59F6-0952-42A4-AC75-E84C21964BDC}">
       <tableStyleElement type="firstRowStripe" dxfId="33"/>
       <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{E55B96C7-2279-4B1A-B52E-0E41F1F516A9}">
+    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{D22A557A-54A2-4EFC-9C44-05780245FBCE}">
       <tableStyleElement type="firstRowStripe" dxfId="35"/>
       <tableStyleElement type="secondRowStripe" dxfId="34"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{3D6F84E8-EB41-412C-9C4C-5E2456DD51BD}">
+    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{F3AAD7C5-2EA8-4DB5-ABBE-185711B62FE3}">
       <tableStyleElement type="firstRowStripe" dxfId="37"/>
       <tableStyleElement type="secondRowStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{03D2F079-5A14-4920-A57F-1ABF4BA53E8D}">
+    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{BE0E12D9-0432-4C04-B9C8-BE62C586D5EB}">
       <tableStyleElement type="firstRowStripe" dxfId="39"/>
       <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{A8CE22AD-5056-48EA-9772-5749385ABD7F}">
+    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{8C86EB38-3BED-44A6-8A42-27ECFB452E9C}">
       <tableStyleElement type="firstRowStripe" dxfId="41"/>
       <tableStyleElement type="secondRowStripe" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{D2EDCF01-8EF9-4F47-82FB-267C145FBF80}">
+    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{585ED44D-B13E-4FF3-ACD2-B54058FA041E}">
       <tableStyleElement type="firstRowStripe" dxfId="43"/>
       <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{6B686591-E6D5-4B25-9719-274F68BE42B8}">
+    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{A619D5F2-F480-467C-A195-9C242498310E}">
       <tableStyleElement type="firstRowStripe" dxfId="45"/>
       <tableStyleElement type="secondRowStripe" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{6F7974AD-766A-42B7-BD7A-888C50A53801}">
+    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{ED004600-52E1-42CA-B5B3-DF9F6EE83EA5}">
       <tableStyleElement type="firstRowStripe" dxfId="47"/>
       <tableStyleElement type="secondRowStripe" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{F8DECA6B-54FF-47C8-9D9B-B2F0D95B4D47}">
+    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{CD33DF93-61BB-41DB-8865-7D8FA4CB59AE}">
       <tableStyleElement type="firstRowStripe" dxfId="49"/>
       <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{001A39CB-7EFF-4AC5-B8F2-6A8F7183A973}">
+    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{B8B70496-49B9-4FDE-8463-C0DEC8FD6B3C}">
       <tableStyleElement type="firstRowStripe" dxfId="51"/>
       <tableStyleElement type="secondRowStripe" dxfId="50"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{F8DF4AFF-8433-48FC-BACD-C4BAC5F95B19}">
+    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{AB89EE88-24F0-42A4-99BA-890045A15B5D}">
       <tableStyleElement type="firstRowStripe" dxfId="53"/>
       <tableStyleElement type="secondRowStripe" dxfId="52"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{9B0A59E9-B5DE-480C-9159-BD8D9508DD37}">
+    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{311139D5-0D8B-4261-B734-0CA9FDA4EA7A}">
       <tableStyleElement type="firstRowStripe" dxfId="55"/>
       <tableStyleElement type="secondRowStripe" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{C439A3D4-43B6-4599-9BC1-E697A9443C67}">
+    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{300C07E7-FE4B-4C37-9D16-DA37E9BECE33}">
       <tableStyleElement type="firstRowStripe" dxfId="57"/>
       <tableStyleElement type="secondRowStripe" dxfId="56"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{8B1A8298-284A-4816-B3B1-A5A0B58ADD54}">
+    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{7D753EAB-8287-4B09-9B49-BC5980B52786}">
       <tableStyleElement type="firstRowStripe" dxfId="59"/>
       <tableStyleElement type="secondRowStripe" dxfId="58"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{BCBAF8E5-F2D1-4E64-A02E-B7CC317CB2B2}">
+    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{461F29A1-67D3-41E4-A482-790432885DF0}">
       <tableStyleElement type="firstRowStripe" dxfId="61"/>
       <tableStyleElement type="secondRowStripe" dxfId="60"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{29B4D554-A286-4DC0-9585-F070054EA2D9}">
+    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{E61AA17A-B53D-441D-881E-06467406A314}">
       <tableStyleElement type="firstRowStripe" dxfId="63"/>
       <tableStyleElement type="secondRowStripe" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{41E6D2FA-1530-485C-A5F6-349F7D056252}">
+    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{308288AC-D457-4DD0-99A9-79EC9762BF8E}">
       <tableStyleElement type="firstRowStripe" dxfId="65"/>
       <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{D87F06AD-1763-4882-BF31-F8E22B51578F}">
+    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{BD5C0EAB-BC65-4011-ADC9-B9ABDDB449A1}">
       <tableStyleElement type="firstRowStripe" dxfId="67"/>
       <tableStyleElement type="secondRowStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{F6C754AA-D6C0-46C2-A8C7-E4BE652CF30F}">
+    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{D790ED1D-927B-4B9E-BA17-0329854D3E5F}">
       <tableStyleElement type="firstRowStripe" dxfId="69"/>
       <tableStyleElement type="secondRowStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{B680F179-0B10-4518-8F17-234523C0971F}">
+    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{01C4A73D-5598-4E1D-B7AB-E51707F8874A}">
       <tableStyleElement type="firstRowStripe" dxfId="71"/>
       <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{5E54E22D-EB1C-4532-9DA3-DECE7B33E244}">
+    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{18791F20-FB88-428F-A73A-73AC2EFB0359}">
       <tableStyleElement type="firstRowStripe" dxfId="73"/>
       <tableStyleElement type="secondRowStripe" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{23B4DB58-9D58-46E0-824B-82B4AF1519C3}">
+    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{865A674C-8686-46D5-9FDD-5AF665D0858B}">
       <tableStyleElement type="firstRowStripe" dxfId="75"/>
       <tableStyleElement type="secondRowStripe" dxfId="74"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{81CC2502-D0FA-44AC-80A7-C6DE75939D2E}">
+    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{766147D7-7D9B-4C89-BA78-673FE3E2B5D5}">
       <tableStyleElement type="firstRowStripe" dxfId="77"/>
       <tableStyleElement type="secondRowStripe" dxfId="76"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{165D5939-9C4F-4596-B8B1-ACDF4F389153}">
+    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{79FDF1CA-B6FA-43D7-BB5F-5984E0DE9EC9}">
       <tableStyleElement type="firstRowStripe" dxfId="79"/>
       <tableStyleElement type="secondRowStripe" dxfId="78"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{90EB8072-7550-4313-B97E-3AADBE487599}">
+    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{3061422D-E1E7-43E4-81F1-91E6D89811DD}">
       <tableStyleElement type="firstRowStripe" dxfId="81"/>
       <tableStyleElement type="secondRowStripe" dxfId="80"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{AD01FD8A-10B1-4226-8569-7DBA2D397CCA}">
+    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{7A5F2E9F-07BB-46DD-8F0A-6E05ED03F702}">
       <tableStyleElement type="firstRowStripe" dxfId="83"/>
       <tableStyleElement type="secondRowStripe" dxfId="82"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{2BB52A7A-3505-459E-B37B-8CB7EC35351F}">
+    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{3759C52B-D597-436F-9597-C845370E9300}">
       <tableStyleElement type="firstRowStripe" dxfId="85"/>
       <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{EBAC45E4-68A9-47AE-BC5D-26D9F582E80A}">
+    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{6435405E-6788-46AD-BBCA-11771B004C4E}">
       <tableStyleElement type="firstRowStripe" dxfId="87"/>
       <tableStyleElement type="secondRowStripe" dxfId="86"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{3770E471-E3ED-496A-8A97-6E3FD09B0901}">
+    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{F8CFEA69-C2FC-4201-BC0D-6B7D9DB0A92A}">
       <tableStyleElement type="firstRowStripe" dxfId="89"/>
       <tableStyleElement type="secondRowStripe" dxfId="88"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{4381B185-ADE4-4D72-B69B-14BE49237F0D}">
+    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{54911602-676F-4412-AF10-269B219E57E6}">
       <tableStyleElement type="firstRowStripe" dxfId="91"/>
       <tableStyleElement type="secondRowStripe" dxfId="90"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{0DAEF35F-1133-4644-8B62-49832A81A627}">
+    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{08BEEBED-3AAF-431E-A3DE-70B4D52D9B2D}">
       <tableStyleElement type="firstRowStripe" dxfId="93"/>
       <tableStyleElement type="secondRowStripe" dxfId="92"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{29E85A53-5B7D-4A72-B14E-E6324A7BEE44}">
+    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{1CCDA878-E399-427F-929C-0EF56EF2F8F9}">
       <tableStyleElement type="firstRowStripe" dxfId="95"/>
       <tableStyleElement type="secondRowStripe" dxfId="94"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{472A0E55-27CD-4B21-A3A3-F7F304299252}">
+    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{72E7C50B-2B6F-4604-B3B5-30C22C8FA88B}">
       <tableStyleElement type="firstRowStripe" dxfId="97"/>
       <tableStyleElement type="secondRowStripe" dxfId="96"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{CE8318F4-832A-406F-ADBF-CD91844FBCB6}">
+    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{B7E048F8-82D6-47B6-9AFF-948278DDC76F}">
       <tableStyleElement type="firstRowStripe" dxfId="99"/>
       <tableStyleElement type="secondRowStripe" dxfId="98"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{1CABD2DE-F289-46B8-8847-A2A8862F62E2}">
+    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{D916051B-B247-47A4-8249-C8A201E8DBEE}">
       <tableStyleElement type="firstRowStripe" dxfId="101"/>
       <tableStyleElement type="secondRowStripe" dxfId="100"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{AF19EE06-46BB-4E36-AD42-738522BEBC73}">
+    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{3CDE2E62-C1AE-4EF9-9878-755DA5796DD1}">
       <tableStyleElement type="firstRowStripe" dxfId="103"/>
       <tableStyleElement type="secondRowStripe" dxfId="102"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{F132C7AB-E995-40EC-A12F-367A145CB691}">
+    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{984EA36D-1302-4121-B340-5DA25D4667F7}">
       <tableStyleElement type="firstRowStripe" dxfId="105"/>
       <tableStyleElement type="secondRowStripe" dxfId="104"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{AC2497C9-BE75-4104-B166-CCC3FE7336D4}">
+    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{9AE2B5C3-E70B-4E55-89A0-5A9FC912F7BF}">
       <tableStyleElement type="firstRowStripe" dxfId="107"/>
       <tableStyleElement type="secondRowStripe" dxfId="106"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{695FDD82-647C-4AD4-92EB-C4DA656456DC}">
+    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{8433D0D8-EF6B-44BB-B46D-67CD2D9371CB}">
       <tableStyleElement type="firstRowStripe" dxfId="109"/>
       <tableStyleElement type="secondRowStripe" dxfId="108"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{289145A5-F879-4AC1-A1AF-1791EF07D459}">
+    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{E9D7B360-F7CA-4239-9342-CEE9A53477D6}">
       <tableStyleElement type="firstRowStripe" dxfId="111"/>
       <tableStyleElement type="secondRowStripe" dxfId="110"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{F8B14024-6C34-4CEE-A4E1-834E1E7BDD9E}">
+    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{E84A5C4C-385D-4EFC-9F49-8DEECAA7FE6E}">
       <tableStyleElement type="firstRowStripe" dxfId="113"/>
       <tableStyleElement type="secondRowStripe" dxfId="112"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{A7EDC969-FDCC-4F54-980D-E19D357016E1}">
+    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{4C35D750-3589-4C2A-A968-D1420408DD64}">
       <tableStyleElement type="firstRowStripe" dxfId="115"/>
       <tableStyleElement type="secondRowStripe" dxfId="114"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{D89E2125-1075-4406-9C99-C4BF67322623}">
+    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{AA2283DB-A8FA-47CF-B27C-5AA671A44A52}">
       <tableStyleElement type="firstRowStripe" dxfId="117"/>
       <tableStyleElement type="secondRowStripe" dxfId="116"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{0CA9EB7D-C39D-433B-98D6-82C6F0D9E7F9}">
+    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{C8E2FC58-BCAB-46CE-ADCE-341394DC5816}">
       <tableStyleElement type="firstRowStripe" dxfId="119"/>
       <tableStyleElement type="secondRowStripe" dxfId="118"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{74E99100-555E-4A6A-ABF4-F3B12052D863}">
+    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{CF014E2A-617A-4546-8E71-41556F0234C3}">
       <tableStyleElement type="firstRowStripe" dxfId="121"/>
       <tableStyleElement type="secondRowStripe" dxfId="120"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{88A28F61-43DE-490B-9869-F09CF5756600}">
+    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{4507FE7C-7C18-4265-AEFA-BD5F9220756E}">
       <tableStyleElement type="firstRowStripe" dxfId="123"/>
       <tableStyleElement type="secondRowStripe" dxfId="122"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{FD3DFA52-82D2-4CFD-8E00-7D3A737CB5EC}">
+    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{428B3C59-7DC7-4E06-BC48-FA685EFDCDDB}">
       <tableStyleElement type="firstRowStripe" dxfId="125"/>
       <tableStyleElement type="secondRowStripe" dxfId="124"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{6CE69B32-9837-4BBA-883A-941FC71048CF}">
+    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{D39F48CA-5F0A-4DB1-A905-11DE43CB13AC}">
       <tableStyleElement type="firstRowStripe" dxfId="127"/>
       <tableStyleElement type="secondRowStripe" dxfId="126"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{9199B155-EE9D-4CE9-AC1B-3CACBE4FD60A}">
+    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{C9F1EA17-7239-4C3C-AEBA-28950AB4CE0C}">
       <tableStyleElement type="firstRowStripe" dxfId="129"/>
       <tableStyleElement type="secondRowStripe" dxfId="128"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{4A2063C4-9D44-493A-8443-5B6C8FDC8F11}">
+    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{C71A0BF3-B16F-43A9-BD0E-F560F2A5572B}">
       <tableStyleElement type="firstRowStripe" dxfId="131"/>
       <tableStyleElement type="secondRowStripe" dxfId="130"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{BD0BF920-1752-434A-B567-4DA060CBC611}">
+    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{0827BCA6-3BB7-4174-AF5E-BBF577BF6665}">
       <tableStyleElement type="firstRowStripe" dxfId="133"/>
       <tableStyleElement type="secondRowStripe" dxfId="132"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{77257C32-94A9-4C11-B295-5F0864796427}">
+    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{C6A1531F-3CE5-4E88-BF07-CEC1B54BD2D8}">
       <tableStyleElement type="firstRowStripe" dxfId="135"/>
       <tableStyleElement type="secondRowStripe" dxfId="134"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{82954AB2-5BA1-4B2D-90A0-89D1113CE537}">
+    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{8189BC41-9F82-4D4E-B222-7DE8373E81F7}">
       <tableStyleElement type="firstRowStripe" dxfId="137"/>
       <tableStyleElement type="secondRowStripe" dxfId="136"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{2548D428-FD1B-47D8-998F-729C0754C88F}">
+    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{3D6B24E0-6991-4B2A-AFDF-1FF2F1167434}">
       <tableStyleElement type="firstRowStripe" dxfId="139"/>
       <tableStyleElement type="secondRowStripe" dxfId="138"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{35B6677F-D136-4AD2-903F-737375374E9D}">
+    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{4B9FEC37-D932-4EBE-9117-53C5D05E2FB0}">
       <tableStyleElement type="firstRowStripe" dxfId="141"/>
       <tableStyleElement type="secondRowStripe" dxfId="140"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{E16CE997-598E-48D0-9D3E-8A29FAD88CF7}">
+    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{C82170EA-0CDE-45D8-AA95-C0BB5D4EFC9E}">
       <tableStyleElement type="firstRowStripe" dxfId="143"/>
       <tableStyleElement type="secondRowStripe" dxfId="142"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{22C0556B-7471-4C36-9803-D25FF94DE920}">
+    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{11C57F52-1C09-4CBE-939F-BAF55DEB37F4}">
       <tableStyleElement type="firstRowStripe" dxfId="145"/>
       <tableStyleElement type="secondRowStripe" dxfId="144"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{592F1197-1F11-49F0-8765-7DB98F433B17}">
+    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{A8DF07CD-527B-4D32-BA34-B54BF043A09E}">
       <tableStyleElement type="firstRowStripe" dxfId="147"/>
       <tableStyleElement type="secondRowStripe" dxfId="146"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{997AD780-A03B-42C2-933E-091A37D9E11C}">
+    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{B9B44774-BB2C-4007-BD93-C8AFC21E3E48}">
       <tableStyleElement type="firstRowStripe" dxfId="149"/>
       <tableStyleElement type="secondRowStripe" dxfId="148"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{3EDAC86F-2415-464C-B872-112824019ABB}">
+    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{F64C8D12-5165-4602-81E2-71EA8E36B8F1}">
       <tableStyleElement type="firstRowStripe" dxfId="151"/>
       <tableStyleElement type="secondRowStripe" dxfId="150"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{3D56D840-5A31-47DE-AB4C-8054A0C8E493}">
+    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{9E45823E-4631-46DC-9329-5CF320EAF46A}">
       <tableStyleElement type="firstRowStripe" dxfId="153"/>
       <tableStyleElement type="secondRowStripe" dxfId="152"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{DBEF13D7-7039-42D2-AD8C-3351AD4B7B03}">
+    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{51A5D50B-F179-4069-A735-86DCE14A60A6}">
       <tableStyleElement type="firstRowStripe" dxfId="155"/>
       <tableStyleElement type="secondRowStripe" dxfId="154"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{82C140F6-0D78-4D0A-A656-BCC413E87B0C}">
+    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{9BBE97BF-4137-4CB3-96F2-E7A9D89A746D}">
       <tableStyleElement type="firstRowStripe" dxfId="157"/>
       <tableStyleElement type="secondRowStripe" dxfId="156"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{1D9D9C75-04D2-4BC4-8E3A-A25386085B66}">
+    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{5A34B918-2DBD-496B-93E9-C53C66E840E5}">
       <tableStyleElement type="firstRowStripe" dxfId="159"/>
       <tableStyleElement type="secondRowStripe" dxfId="158"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{254144A5-3833-46AF-9F13-CDF264AD0A4D}">
+    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{069E1AD2-B1B0-49F8-B8B3-BAB3E76BC50E}">
       <tableStyleElement type="firstRowStripe" dxfId="161"/>
       <tableStyleElement type="secondRowStripe" dxfId="160"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{E7F8A6D3-7F20-4361-A2A1-1209435CDC2B}">
+    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{7DBB8D5F-D0C5-4585-B10C-A2EFF37AF223}">
       <tableStyleElement type="firstRowStripe" dxfId="163"/>
       <tableStyleElement type="secondRowStripe" dxfId="162"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{15439C43-F443-4688-BC7E-C516B1A9B622}">
+    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{018532A4-3EB5-41D6-A54A-12D96DD0AE88}">
       <tableStyleElement type="firstRowStripe" dxfId="165"/>
       <tableStyleElement type="secondRowStripe" dxfId="164"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{7B06E796-1B1F-4305-B702-BE5CDD77AAB0}">
+    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{90C10030-107D-4F13-A812-B1E0C8141071}">
       <tableStyleElement type="firstRowStripe" dxfId="167"/>
       <tableStyleElement type="secondRowStripe" dxfId="166"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{CEE11271-6691-482E-98C2-9BFD62CFC31B}">
+    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{3C32076E-13EB-4DF3-928E-C3F21944014A}">
       <tableStyleElement type="firstRowStripe" dxfId="169"/>
       <tableStyleElement type="secondRowStripe" dxfId="168"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{23D75DB4-E7DC-4042-A687-32D1DD9AE012}">
+    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{515809B6-5235-4829-B2E1-264056E7151C}">
       <tableStyleElement type="firstRowStripe" dxfId="171"/>
       <tableStyleElement type="secondRowStripe" dxfId="170"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{980752D2-4F80-441B-9061-642D8EE8E1BD}">
+    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{BFDDFB1A-03D8-4226-AC5F-44B99716EB92}">
       <tableStyleElement type="firstRowStripe" dxfId="173"/>
       <tableStyleElement type="secondRowStripe" dxfId="172"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{3F8D0701-4622-48D9-B97E-7F3622DF722E}">
+    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{6F997FA3-F65F-4685-9FEF-FFFDA6EBE9A5}">
       <tableStyleElement type="firstRowStripe" dxfId="175"/>
       <tableStyleElement type="secondRowStripe" dxfId="174"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{F9C4D00E-417D-4099-9AC2-0AA665698107}">
+    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{CF577CD8-B1E7-4761-A23C-3D9F64ED9C2A}">
       <tableStyleElement type="firstRowStripe" dxfId="177"/>
       <tableStyleElement type="secondRowStripe" dxfId="176"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{15B91354-5813-41BB-8D86-FA1E6924211B}">
+    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{A0E52AA9-38AD-44C0-A238-84357E8901FF}">
       <tableStyleElement type="firstRowStripe" dxfId="179"/>
       <tableStyleElement type="secondRowStripe" dxfId="178"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{743ACE70-7E4E-454F-8F36-5C7E6DA932FA}">
+    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{C652C27F-90F0-444E-B291-03D6E71A21B8}">
       <tableStyleElement type="firstRowStripe" dxfId="181"/>
       <tableStyleElement type="secondRowStripe" dxfId="180"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{0AD5F3EA-9948-4F14-A19B-94C1138BE90B}">
+    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{F8488A0D-829D-46C5-9992-E4E0BF782F57}">
       <tableStyleElement type="firstRowStripe" dxfId="183"/>
       <tableStyleElement type="secondRowStripe" dxfId="182"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{D2DA5356-2C72-4EB1-9CBC-6CC1DEA18F8B}">
+    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{23ABC3C0-136A-42A7-8D73-87C61C9DA2B9}">
       <tableStyleElement type="firstRowStripe" dxfId="185"/>
       <tableStyleElement type="secondRowStripe" dxfId="184"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{047BDF4D-1969-41FB-AAC5-EFC302171997}">
+    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{47306BC2-4EB7-4359-9984-0756DB2A8BF1}">
       <tableStyleElement type="firstRowStripe" dxfId="187"/>
       <tableStyleElement type="secondRowStripe" dxfId="186"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{7188366D-B52D-48C0-AA66-56E5FFBD8E67}">
+    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{5B704A2E-B2F1-4273-ABA1-F781C9E1AB2F}">
       <tableStyleElement type="firstRowStripe" dxfId="189"/>
       <tableStyleElement type="secondRowStripe" dxfId="188"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{8C856FB1-DEEC-4EDA-AE14-45558FE7FCF9}">
+    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{48A6B179-EF7B-4838-B2AA-2811CFAC12EB}">
       <tableStyleElement type="firstRowStripe" dxfId="191"/>
       <tableStyleElement type="secondRowStripe" dxfId="190"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{530593B1-8F76-4B63-8C99-18A081DBD475}">
+    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{536A6FB2-A3FD-434D-9101-34D8A716BEC7}">
       <tableStyleElement type="firstRowStripe" dxfId="193"/>
       <tableStyleElement type="secondRowStripe" dxfId="192"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{B9BED78D-C67F-48EF-8439-0C8D08D7F44D}">
+    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{B349A2CE-AEB4-4233-A0A1-5AC221F61539}">
       <tableStyleElement type="firstRowStripe" dxfId="195"/>
       <tableStyleElement type="secondRowStripe" dxfId="194"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{049077CA-B0CC-4343-A63A-695D84B2FB7A}">
+    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{8C372647-4E18-411C-AD8A-55950BA5593E}">
       <tableStyleElement type="firstRowStripe" dxfId="197"/>
       <tableStyleElement type="secondRowStripe" dxfId="196"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{8F2BF47B-0535-4C41-8397-C2B5A670275A}">
+    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{FC12C3A4-D48E-4C81-8BFD-8AB2C86E29B5}">
       <tableStyleElement type="firstRowStripe" dxfId="199"/>
       <tableStyleElement type="secondRowStripe" dxfId="198"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{A2692039-3541-4BFC-A511-B01BD6746AC1}">
+    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{EEC32D7B-8A95-4FCA-9120-A225F42A7732}">
       <tableStyleElement type="firstRowStripe" dxfId="201"/>
       <tableStyleElement type="secondRowStripe" dxfId="200"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{0C22381B-3915-4CBA-825A-55B4E693B503}">
+    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{EF3A7E59-97CE-4854-B5AD-A59F8424AAAD}">
       <tableStyleElement type="firstRowStripe" dxfId="203"/>
       <tableStyleElement type="secondRowStripe" dxfId="202"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{3487FB61-3EC9-4AB7-8DBA-4D4238D0EC21}">
+    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{2AD38C6E-62CA-4510-AE30-2637478E1D1B}">
       <tableStyleElement type="firstRowStripe" dxfId="205"/>
       <tableStyleElement type="secondRowStripe" dxfId="204"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{728EDB69-1E2B-415A-8918-131CC04438DC}">
+    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{720F6C45-1B93-45FB-96C8-7308445E594C}">
       <tableStyleElement type="firstRowStripe" dxfId="207"/>
       <tableStyleElement type="secondRowStripe" dxfId="206"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{D64B11D0-4C8E-471F-AE24-99CA4DEBE49C}">
+    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{ACC2023A-D5AD-432E-B110-F7E22004FDB0}">
       <tableStyleElement type="firstRowStripe" dxfId="209"/>
       <tableStyleElement type="secondRowStripe" dxfId="208"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{C38EC72D-BFD8-48A9-B852-028B093B06F6}">
+    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{4B33F3BF-F496-480E-9BA2-6AC7A57543BD}">
       <tableStyleElement type="firstRowStripe" dxfId="211"/>
       <tableStyleElement type="secondRowStripe" dxfId="210"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{6DD2F549-EE8F-44A8-8250-B729C3114BED}">
+    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{1AAE1F12-FC74-465B-9316-E17CADE4E7AC}">
       <tableStyleElement type="firstRowStripe" dxfId="213"/>
       <tableStyleElement type="secondRowStripe" dxfId="212"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{73FC3A5F-E81D-429D-ADCD-D2D981799C01}">
+    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{14B999CB-8C36-43AF-9AF5-10FC21109F84}">
       <tableStyleElement type="firstRowStripe" dxfId="215"/>
       <tableStyleElement type="secondRowStripe" dxfId="214"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{C8374A98-C0A8-4EED-8DC6-830344FE77F0}">
+    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{AA87EEC6-656D-4848-8ED4-A4F49D250E7B}">
       <tableStyleElement type="firstRowStripe" dxfId="217"/>
       <tableStyleElement type="secondRowStripe" dxfId="216"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{9169EE6A-DFF3-467F-8B87-11C24448B05C}">
+    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{A1DE00B6-4DCD-4DB8-91F4-D44FEEC13DD9}">
       <tableStyleElement type="firstRowStripe" dxfId="219"/>
       <tableStyleElement type="secondRowStripe" dxfId="218"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{0C14FD4C-4202-4932-AD1A-C5CE591622C6}">
+    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{AD673C7D-9D8A-42E0-8F38-88461B0CA0E3}">
       <tableStyleElement type="firstRowStripe" dxfId="221"/>
       <tableStyleElement type="secondRowStripe" dxfId="220"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{DBB2BC88-40F7-42D8-B799-53941D12386C}">
+    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{F970D934-643E-4C8E-B8D7-FB824B5501FA}">
       <tableStyleElement type="firstRowStripe" dxfId="223"/>
       <tableStyleElement type="secondRowStripe" dxfId="222"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{13036A65-C975-4523-8818-1DC5FA1C43E2}">
+    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{52C19ECB-7CCC-49EE-8EEB-E5A499EC6702}">
       <tableStyleElement type="firstRowStripe" dxfId="225"/>
       <tableStyleElement type="secondRowStripe" dxfId="224"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{54A9974C-B4E4-4A66-9F5D-9953D403E02A}">
+    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{3336784C-C743-4EB0-B72F-F957EFAA341A}">
       <tableStyleElement type="firstRowStripe" dxfId="227"/>
       <tableStyleElement type="secondRowStripe" dxfId="226"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{565E277A-B851-4B0A-8612-9CBF6EEF2F08}">
+    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{373FCBF9-CD95-451C-A883-263A4B6576D9}">
       <tableStyleElement type="firstRowStripe" dxfId="229"/>
       <tableStyleElement type="secondRowStripe" dxfId="228"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{15BF102C-973A-45B7-B49B-62CA302B5896}">
+    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{74D61F46-13D5-4EE6-86E5-8CFEAB5233F0}">
       <tableStyleElement type="firstRowStripe" dxfId="231"/>
       <tableStyleElement type="secondRowStripe" dxfId="230"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{62502C03-C41F-42CD-95B8-21465F06E88B}">
+    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{7BD680E0-C02C-46C1-9B0E-BB7D8FFC14B2}">
       <tableStyleElement type="firstRowStripe" dxfId="233"/>
       <tableStyleElement type="secondRowStripe" dxfId="232"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{CC8D3AA9-128A-42BB-AC8C-0D82E27BB0A7}">
+    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{FE7D0C4F-A78C-451A-91B9-EC8F4AD2DACF}">
       <tableStyleElement type="firstRowStripe" dxfId="235"/>
       <tableStyleElement type="secondRowStripe" dxfId="234"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{10285594-8500-4A78-AFC0-C449CA587402}">
+    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{4B6E850D-C5A0-4BA7-89DA-4D6DFCCE3458}">
       <tableStyleElement type="firstRowStripe" dxfId="237"/>
       <tableStyleElement type="secondRowStripe" dxfId="236"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{6F0D1478-F23C-4005-8C11-B6EE06C1B271}">
+    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{34042BF5-CEC3-488E-A2F7-8B41BD6F866C}">
       <tableStyleElement type="firstRowStripe" dxfId="239"/>
       <tableStyleElement type="secondRowStripe" dxfId="238"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{7594AE4E-8F35-451B-846D-DDEC22C84849}">
+    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{D6065EAF-66D1-4944-BD39-26428982095B}">
       <tableStyleElement type="firstRowStripe" dxfId="241"/>
       <tableStyleElement type="secondRowStripe" dxfId="240"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{8FC64806-175C-4C72-9316-185EBFA75D7C}">
+    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{F8C2A630-848C-4941-8EC0-5102B1FA5AA7}">
       <tableStyleElement type="firstRowStripe" dxfId="243"/>
       <tableStyleElement type="secondRowStripe" dxfId="242"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{93E5CEB1-3C8F-496B-9E12-ABCC71A06B07}">
+    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{78FB864E-D2DD-406B-92EF-D9339FD751FB}">
       <tableStyleElement type="firstRowStripe" dxfId="245"/>
       <tableStyleElement type="secondRowStripe" dxfId="244"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{A1A8B575-DC0B-4809-87E2-F55A58F0F250}">
+    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{4461723D-ED04-45FA-B7C1-C84CB0433C85}">
       <tableStyleElement type="firstRowStripe" dxfId="247"/>
       <tableStyleElement type="secondRowStripe" dxfId="246"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{7583B3EF-B19C-4A05-AA8A-04A79CF216DB}">
+    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{A796A350-41EC-4788-9A66-908BA208733F}">
       <tableStyleElement type="firstRowStripe" dxfId="249"/>
       <tableStyleElement type="secondRowStripe" dxfId="248"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{E4D97323-3608-43E6-9D33-CBABD3F5EBF6}">
+    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{2F661F7A-4EFA-49F3-9186-0EA2ED232193}">
       <tableStyleElement type="firstRowStripe" dxfId="251"/>
       <tableStyleElement type="secondRowStripe" dxfId="250"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{DAEB56B6-A926-432C-B614-D5349EE294F4}">
+    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{5F0BC695-FED2-42EE-B926-8C212C376FED}">
       <tableStyleElement type="firstRowStripe" dxfId="253"/>
       <tableStyleElement type="secondRowStripe" dxfId="252"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{3385534F-BAF4-4CE5-BC81-FD0FA82DCF28}">
+    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{E0175FD6-73C7-4E38-BCAD-DA9EF65846A6}">
       <tableStyleElement type="firstRowStripe" dxfId="255"/>
       <tableStyleElement type="secondRowStripe" dxfId="254"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{DF5D346B-B45C-480A-9DAE-6B4749339E5F}">
+    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{04A44D49-9878-4434-A749-BF6DF802AAC4}">
       <tableStyleElement type="firstRowStripe" dxfId="257"/>
       <tableStyleElement type="secondRowStripe" dxfId="256"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{0827D93A-0CDE-46A7-9703-D38D1AC04C80}">
+    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{A63879B8-8EBC-4D0C-B8CC-C48824C4FB59}">
       <tableStyleElement type="firstRowStripe" dxfId="259"/>
       <tableStyleElement type="secondRowStripe" dxfId="258"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{EFE5012E-A83C-45DD-B5C6-8D7344A76BD7}">
+    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{8F246123-EAE8-4ADD-9A57-223F0E5516D9}">
       <tableStyleElement type="firstRowStripe" dxfId="261"/>
       <tableStyleElement type="secondRowStripe" dxfId="260"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{8F15B6CD-066E-4E5C-B591-4CEFCF00CD62}">
+    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{1B3A449A-AA0B-4CE4-A8F9-37A0BC9475EC}">
       <tableStyleElement type="firstRowStripe" dxfId="263"/>
       <tableStyleElement type="secondRowStripe" dxfId="262"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{29F12347-0B34-4B5A-AB16-AF18A702A04B}">
+    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{1E54021E-DE00-4FAE-B17B-236136F2FDD4}">
       <tableStyleElement type="firstRowStripe" dxfId="265"/>
       <tableStyleElement type="secondRowStripe" dxfId="264"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{C227FA54-8E42-4463-AA86-C5BC59BBCC5C}">
+    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{C1ED1735-B891-4BFF-8A2F-8BE7F514AFDD}">
       <tableStyleElement type="firstRowStripe" dxfId="267"/>
       <tableStyleElement type="secondRowStripe" dxfId="266"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{F1D660D5-021B-4540-BD8F-2E86756E5BCA}">
+    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{4954AF58-8EF3-4583-A591-743B3F412257}">
       <tableStyleElement type="firstRowStripe" dxfId="269"/>
       <tableStyleElement type="secondRowStripe" dxfId="268"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{B5194CE1-26F8-4959-AC82-777B2AF9C61E}">
+    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{3CBEA6C6-32AE-42A6-83DA-6B798A1396AF}">
       <tableStyleElement type="firstRowStripe" dxfId="271"/>
       <tableStyleElement type="secondRowStripe" dxfId="270"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{DD36C6DC-1E41-4392-824E-2FC0EC8F3643}">
+    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{4B93EEDA-49E7-4F9A-8611-054B53AD0F05}">
       <tableStyleElement type="firstRowStripe" dxfId="273"/>
       <tableStyleElement type="secondRowStripe" dxfId="272"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{20E206B2-8AAA-4CB9-BEC0-F8ABAA9653D5}">
+    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{7494F6E3-83E9-4AFD-8F05-B93A6DCDCBD7}">
       <tableStyleElement type="firstRowStripe" dxfId="275"/>
       <tableStyleElement type="secondRowStripe" dxfId="274"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{668C8FD8-B6F6-47A9-83A3-916D7C685430}">
+    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{466AB9A3-A7EE-45CC-BA81-087E817FFC96}">
       <tableStyleElement type="firstRowStripe" dxfId="277"/>
       <tableStyleElement type="secondRowStripe" dxfId="276"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{3D1A6B7D-8D11-4323-AD08-A8E237E45AED}">
+    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{0D47AA80-EC51-4F2C-B61E-AC4268C5D406}">
       <tableStyleElement type="firstRowStripe" dxfId="279"/>
       <tableStyleElement type="secondRowStripe" dxfId="278"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{46C3D5BC-C551-42F7-9EC8-4E0C0D81B39E}">
+    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{11AE5742-B55B-4C73-BABC-655255B633A8}">
       <tableStyleElement type="firstRowStripe" dxfId="281"/>
       <tableStyleElement type="secondRowStripe" dxfId="280"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{6B5D7CED-6230-4859-9C63-DE8041CB737C}">
+    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{E3837C4E-43DC-4C9F-8918-AC54299357E2}">
       <tableStyleElement type="firstRowStripe" dxfId="283"/>
       <tableStyleElement type="secondRowStripe" dxfId="282"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{0974A53C-ED5C-497C-BD0A-50401F5CC9E1}">
+    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{DE1567A6-9551-4451-AA80-EEED91BE022E}">
       <tableStyleElement type="firstRowStripe" dxfId="285"/>
       <tableStyleElement type="secondRowStripe" dxfId="284"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{5890FDDB-00DB-47FE-A40F-DBA268EB68CB}">
+    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{10864C55-CD67-4F79-BC92-2981F73C083F}">
       <tableStyleElement type="firstRowStripe" dxfId="287"/>
       <tableStyleElement type="secondRowStripe" dxfId="286"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{E74B875F-898D-4359-BC74-DC9E0EAD01C7}">
+    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{3B7C1F31-8953-4439-BA99-7D0E6A6C856F}">
       <tableStyleElement type="firstRowStripe" dxfId="289"/>
       <tableStyleElement type="secondRowStripe" dxfId="288"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{9B6D9A6E-2642-40F5-A059-BCB591763A2D}">
+    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{9CC995F8-765C-430D-B0D9-AA763854FD69}">
       <tableStyleElement type="firstRowStripe" dxfId="291"/>
       <tableStyleElement type="secondRowStripe" dxfId="290"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{F39376AC-E8D4-4F25-89C8-8ADE0F63BAEB}">
+    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{CCACD5D8-A357-4443-9F51-27D4B77B2091}">
       <tableStyleElement type="firstRowStripe" dxfId="293"/>
       <tableStyleElement type="secondRowStripe" dxfId="292"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{C1550BE5-2052-4A70-B421-55D0C9D9A4EE}">
+    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{318B7D4E-6716-4588-9BAE-F512ECEBEA28}">
       <tableStyleElement type="firstRowStripe" dxfId="295"/>
       <tableStyleElement type="secondRowStripe" dxfId="294"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{D1A14E10-2D33-4759-8280-2C54E02FC152}">
+    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{23F8215F-E216-4276-AB43-B137DC4716A7}">
       <tableStyleElement type="firstRowStripe" dxfId="297"/>
       <tableStyleElement type="secondRowStripe" dxfId="296"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{8BB2083B-CBFD-45BB-B552-D7D3E85A6371}">
+    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{33FD8DB9-6924-4087-9632-C700025E7A11}">
       <tableStyleElement type="firstRowStripe" dxfId="299"/>
       <tableStyleElement type="secondRowStripe" dxfId="298"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{DA2A82B0-7750-4AD9-BC1D-CD2C656FB7EC}">
+    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{2FB98FA6-E8C9-4A7D-82FA-9E7EF1FF37E1}">
       <tableStyleElement type="firstRowStripe" dxfId="301"/>
       <tableStyleElement type="secondRowStripe" dxfId="300"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{2D732900-8BF8-4246-88F0-6867E4470816}">
+    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{9D8DED9F-0A71-4575-A2F9-897C2EC0FD7B}">
       <tableStyleElement type="firstRowStripe" dxfId="303"/>
       <tableStyleElement type="secondRowStripe" dxfId="302"/>
     </tableStyle>
@@ -5689,7 +5728,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG534"/>
+  <dimension ref="A1:AG536"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
@@ -16224,13 +16263,13 @@
         <v>0.583333333333333</v>
       </c>
       <c r="C239" s="14">
-        <v>1</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="D239" s="15">
-        <v>1050623708</v>
+        <v>1555097529</v>
       </c>
       <c r="E239" s="16">
-        <v>10306605</v>
+        <v>10344175</v>
       </c>
       <c r="F239" s="15" t="s">
         <v>248</v>
@@ -16239,7 +16278,7 @@
         <v>15</v>
       </c>
       <c r="H239" s="15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I239" s="20"/>
       <c r="J239" s="19"/>
@@ -16275,20 +16314,20 @@
       <c r="C240" s="14">
         <v>0.958333333333333</v>
       </c>
-      <c r="D240" s="15">
-        <v>1555097529</v>
+      <c r="D240" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="E240" s="16">
-        <v>10344175</v>
+        <v>10344192</v>
       </c>
       <c r="F240" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G240" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H240" s="15" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="I240" s="20"/>
       <c r="J240" s="19"/>
@@ -16324,11 +16363,11 @@
       <c r="C241" s="14">
         <v>0.958333333333333</v>
       </c>
-      <c r="D241" s="15" t="s">
-        <v>250</v>
+      <c r="D241" s="15">
+        <v>1121899603</v>
       </c>
       <c r="E241" s="16">
-        <v>10344192</v>
+        <v>10344278</v>
       </c>
       <c r="F241" s="15" t="s">
         <v>251</v>
@@ -16374,10 +16413,10 @@
         <v>0.958333333333333</v>
       </c>
       <c r="D242" s="15">
-        <v>1121899603</v>
+        <v>1153210480</v>
       </c>
       <c r="E242" s="16">
-        <v>10344278</v>
+        <v>10344865</v>
       </c>
       <c r="F242" s="15" t="s">
         <v>252</v>
@@ -16386,7 +16425,7 @@
         <v>15</v>
       </c>
       <c r="H242" s="15" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="I242" s="20"/>
       <c r="J242" s="19"/>
@@ -16423,10 +16462,10 @@
         <v>0.958333333333333</v>
       </c>
       <c r="D243" s="15">
-        <v>1153210480</v>
+        <v>1143585920</v>
       </c>
       <c r="E243" s="16">
-        <v>10344865</v>
+        <v>10346011</v>
       </c>
       <c r="F243" s="15" t="s">
         <v>253</v>
@@ -16435,7 +16474,7 @@
         <v>15</v>
       </c>
       <c r="H243" s="15" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="I243" s="20"/>
       <c r="J243" s="19"/>
@@ -16472,10 +16511,10 @@
         <v>0.958333333333333</v>
       </c>
       <c r="D244" s="15">
-        <v>1143585920</v>
+        <v>1005741195</v>
       </c>
       <c r="E244" s="16">
-        <v>10346011</v>
+        <v>10335060</v>
       </c>
       <c r="F244" s="15" t="s">
         <v>254</v>
@@ -16484,7 +16523,7 @@
         <v>15</v>
       </c>
       <c r="H244" s="15" t="s">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="I244" s="20"/>
       <c r="J244" s="19"/>
@@ -16521,10 +16560,10 @@
         <v>0.958333333333333</v>
       </c>
       <c r="D245" s="15">
-        <v>1005741195</v>
+        <v>1090188323</v>
       </c>
       <c r="E245" s="16">
-        <v>10335060</v>
+        <v>10312258</v>
       </c>
       <c r="F245" s="15" t="s">
         <v>255</v>
@@ -16561,7 +16600,7 @@
       <c r="AF245" s="18"/>
       <c r="AG245" s="18"/>
     </row>
-    <row r="246" ht="42" customHeight="1" spans="1:33">
+    <row r="246" ht="47.25" customHeight="1" spans="1:33">
       <c r="A246" s="6"/>
       <c r="B246" s="14">
         <v>0.583333333333333</v>
@@ -16570,10 +16609,10 @@
         <v>0.958333333333333</v>
       </c>
       <c r="D246" s="15">
-        <v>1090188323</v>
+        <v>1228798735</v>
       </c>
       <c r="E246" s="16">
-        <v>10312258</v>
+        <v>10347758</v>
       </c>
       <c r="F246" s="15" t="s">
         <v>256</v>
@@ -16581,11 +16620,13 @@
       <c r="G246" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H246" s="15" t="s">
-        <v>42</v>
+      <c r="H246" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="I246" s="20"/>
-      <c r="J246" s="19"/>
+      <c r="J246" s="19" t="s">
+        <v>257</v>
+      </c>
       <c r="K246" s="18"/>
       <c r="L246" s="18"/>
       <c r="M246" s="18"/>
@@ -16610,17 +16651,33 @@
       <c r="AF246" s="18"/>
       <c r="AG246" s="18"/>
     </row>
-    <row r="247" ht="42" customHeight="1" spans="1:33">
+    <row r="247" ht="48.75" customHeight="1" spans="1:33">
       <c r="A247" s="6"/>
-      <c r="B247" s="14"/>
-      <c r="C247" s="14"/>
-      <c r="D247" s="15"/>
-      <c r="E247" s="16"/>
-      <c r="F247" s="15"/>
-      <c r="G247" s="15"/>
-      <c r="H247" s="15"/>
+      <c r="B247" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C247" s="24">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D247" s="25">
+        <v>0</v>
+      </c>
+      <c r="E247" s="16">
+        <v>10341599</v>
+      </c>
+      <c r="F247" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="G247" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H247" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="I247" s="20"/>
-      <c r="J247" s="19"/>
+      <c r="J247" s="19" t="s">
+        <v>259</v>
+      </c>
       <c r="K247" s="18"/>
       <c r="L247" s="18"/>
       <c r="M247" s="18"/>
@@ -16647,27 +16704,13 @@
     </row>
     <row r="248" ht="42" customHeight="1" spans="1:33">
       <c r="A248" s="6"/>
-      <c r="B248" s="14">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C248" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D248" s="15">
-        <v>1207828449</v>
-      </c>
-      <c r="E248" s="16">
-        <v>10316242</v>
-      </c>
-      <c r="F248" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="G248" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H248" s="15" t="s">
-        <v>107</v>
-      </c>
+      <c r="B248" s="14"/>
+      <c r="C248" s="14"/>
+      <c r="D248" s="15"/>
+      <c r="E248" s="16"/>
+      <c r="F248" s="15"/>
+      <c r="G248" s="15"/>
+      <c r="H248" s="15"/>
       <c r="I248" s="20"/>
       <c r="J248" s="19"/>
       <c r="K248" s="18"/>
@@ -16702,20 +16745,20 @@
       <c r="C249" s="14">
         <v>0.958333333333333</v>
       </c>
-      <c r="D249" s="15" t="s">
-        <v>258</v>
+      <c r="D249" s="15">
+        <v>1207828449</v>
       </c>
       <c r="E249" s="16">
-        <v>10307125</v>
+        <v>10316242</v>
       </c>
       <c r="F249" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G249" s="15" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H249" s="15" t="s">
-        <v>260</v>
+        <v>107</v>
       </c>
       <c r="I249" s="20"/>
       <c r="J249" s="19"/>
@@ -16831,13 +16874,13 @@
       <c r="A252" s="9">
         <v>0.625</v>
       </c>
-      <c r="B252" s="23"/>
-      <c r="C252" s="23"/>
-      <c r="D252" s="23"/>
-      <c r="E252" s="24"/>
-      <c r="F252" s="23"/>
-      <c r="G252" s="23"/>
-      <c r="H252" s="23"/>
+      <c r="B252" s="26"/>
+      <c r="C252" s="26"/>
+      <c r="D252" s="26"/>
+      <c r="E252" s="27"/>
+      <c r="F252" s="26"/>
+      <c r="G252" s="26"/>
+      <c r="H252" s="26"/>
       <c r="I252" s="20"/>
       <c r="J252" s="19"/>
       <c r="K252" s="18"/>
@@ -17328,7 +17371,7 @@
     </row>
     <row r="263" ht="43.5" customHeight="1" spans="1:33">
       <c r="A263" s="6"/>
-      <c r="B263" s="25" t="s">
+      <c r="B263" s="28" t="s">
         <v>272</v>
       </c>
       <c r="C263" s="14">
@@ -18476,10 +18519,10 @@
         <v>1</v>
       </c>
       <c r="D288" s="15">
-        <v>1016228319</v>
+        <v>1152380728</v>
       </c>
       <c r="E288" s="16">
-        <v>10342917</v>
+        <v>10346564</v>
       </c>
       <c r="F288" s="15" t="s">
         <v>298</v>
@@ -18518,27 +18561,13 @@
     </row>
     <row r="289" ht="43.5" customHeight="1" spans="1:33">
       <c r="A289" s="6"/>
-      <c r="B289" s="14">
-        <v>0.625</v>
-      </c>
-      <c r="C289" s="14">
-        <v>1</v>
-      </c>
-      <c r="D289" s="15">
-        <v>1152380728</v>
-      </c>
-      <c r="E289" s="16">
-        <v>10346564</v>
-      </c>
-      <c r="F289" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="G289" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H289" s="15" t="s">
-        <v>132</v>
-      </c>
+      <c r="B289" s="14"/>
+      <c r="C289" s="14"/>
+      <c r="D289" s="15"/>
+      <c r="E289" s="16"/>
+      <c r="F289" s="15"/>
+      <c r="G289" s="15"/>
+      <c r="H289" s="15"/>
       <c r="I289" s="20"/>
       <c r="J289" s="19"/>
       <c r="K289" s="18"/>
@@ -18567,13 +18596,27 @@
     </row>
     <row r="290" ht="43.5" customHeight="1" spans="1:33">
       <c r="A290" s="6"/>
-      <c r="B290" s="14"/>
-      <c r="C290" s="14"/>
-      <c r="D290" s="15"/>
-      <c r="E290" s="16"/>
-      <c r="F290" s="15"/>
-      <c r="G290" s="15"/>
-      <c r="H290" s="15"/>
+      <c r="B290" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C290" s="14">
+        <v>0</v>
+      </c>
+      <c r="D290" s="15">
+        <v>0</v>
+      </c>
+      <c r="E290" s="16">
+        <v>10337895</v>
+      </c>
+      <c r="F290" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="G290" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H290" s="15" t="s">
+        <v>185</v>
+      </c>
       <c r="I290" s="20"/>
       <c r="J290" s="19"/>
       <c r="K290" s="18"/>
@@ -18609,10 +18652,10 @@
         <v>0</v>
       </c>
       <c r="D291" s="15">
-        <v>0</v>
+        <v>1276419181</v>
       </c>
       <c r="E291" s="16">
-        <v>10337895</v>
+        <v>10340032</v>
       </c>
       <c r="F291" s="15" t="s">
         <v>300</v>
@@ -18658,10 +18701,10 @@
         <v>0</v>
       </c>
       <c r="D292" s="15">
-        <v>1276419181</v>
+        <v>1093376062</v>
       </c>
       <c r="E292" s="16">
-        <v>10340032</v>
+        <v>10340038</v>
       </c>
       <c r="F292" s="15" t="s">
         <v>301</v>
@@ -18670,7 +18713,7 @@
         <v>85</v>
       </c>
       <c r="H292" s="15" t="s">
-        <v>185</v>
+        <v>302</v>
       </c>
       <c r="I292" s="20"/>
       <c r="J292" s="19"/>
@@ -18704,22 +18747,22 @@
         <v>0.625</v>
       </c>
       <c r="C293" s="14">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="D293" s="15">
-        <v>1093376062</v>
+        <v>1115409972</v>
       </c>
       <c r="E293" s="16">
-        <v>10340038</v>
+        <v>10281227</v>
       </c>
       <c r="F293" s="15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G293" s="15" t="s">
         <v>85</v>
       </c>
       <c r="H293" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I293" s="20"/>
       <c r="J293" s="19"/>
@@ -18753,22 +18796,22 @@
         <v>0.625</v>
       </c>
       <c r="C294" s="14">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="D294" s="15">
-        <v>1115409972</v>
+        <v>1287010193</v>
       </c>
       <c r="E294" s="16">
-        <v>10281227</v>
+        <v>10348552</v>
       </c>
       <c r="F294" s="15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G294" s="15" t="s">
         <v>85</v>
       </c>
       <c r="H294" s="15" t="s">
-        <v>305</v>
+        <v>185</v>
       </c>
       <c r="I294" s="20"/>
       <c r="J294" s="19"/>
@@ -18798,27 +18841,13 @@
     </row>
     <row r="295" ht="43.5" customHeight="1" spans="1:33">
       <c r="A295" s="6"/>
-      <c r="B295" s="14">
-        <v>0.625</v>
-      </c>
-      <c r="C295" s="14">
-        <v>1</v>
-      </c>
-      <c r="D295" s="15">
-        <v>1287010193</v>
-      </c>
-      <c r="E295" s="16">
-        <v>10348552</v>
-      </c>
-      <c r="F295" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="G295" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H295" s="15" t="s">
-        <v>185</v>
-      </c>
+      <c r="B295" s="14"/>
+      <c r="C295" s="14"/>
+      <c r="D295" s="15"/>
+      <c r="E295" s="16"/>
+      <c r="F295" s="15"/>
+      <c r="G295" s="15"/>
+      <c r="H295" s="15"/>
       <c r="I295" s="20"/>
       <c r="J295" s="19"/>
       <c r="K295" s="18"/>
@@ -18847,13 +18876,27 @@
     </row>
     <row r="296" ht="43.5" customHeight="1" spans="1:33">
       <c r="A296" s="6"/>
-      <c r="B296" s="14"/>
-      <c r="C296" s="14"/>
-      <c r="D296" s="15"/>
-      <c r="E296" s="16"/>
-      <c r="F296" s="15"/>
-      <c r="G296" s="15"/>
-      <c r="H296" s="15"/>
+      <c r="B296" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C296" s="14">
+        <v>0</v>
+      </c>
+      <c r="D296" s="15">
+        <v>1063373593</v>
+      </c>
+      <c r="E296" s="16">
+        <v>10338960</v>
+      </c>
+      <c r="F296" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="G296" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H296" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="I296" s="20"/>
       <c r="J296" s="19"/>
       <c r="K296" s="18"/>
@@ -18889,10 +18932,10 @@
         <v>0</v>
       </c>
       <c r="D297" s="15">
-        <v>1063373593</v>
+        <v>1127251029</v>
       </c>
       <c r="E297" s="16">
-        <v>10338960</v>
+        <v>10342593</v>
       </c>
       <c r="F297" s="15" t="s">
         <v>307</v>
@@ -18901,7 +18944,7 @@
         <v>93</v>
       </c>
       <c r="H297" s="15" t="s">
-        <v>96</v>
+        <v>308</v>
       </c>
       <c r="I297" s="20"/>
       <c r="J297" s="19"/>
@@ -18938,19 +18981,19 @@
         <v>0</v>
       </c>
       <c r="D298" s="15">
-        <v>1127251029</v>
+        <v>1006463109</v>
       </c>
       <c r="E298" s="16">
-        <v>10342593</v>
+        <v>10337764</v>
       </c>
       <c r="F298" s="15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G298" s="15" t="s">
         <v>93</v>
       </c>
       <c r="H298" s="15" t="s">
-        <v>309</v>
+        <v>192</v>
       </c>
       <c r="I298" s="20"/>
       <c r="J298" s="19"/>
@@ -18987,10 +19030,10 @@
         <v>0</v>
       </c>
       <c r="D299" s="15">
-        <v>1006463109</v>
+        <v>1129608136</v>
       </c>
       <c r="E299" s="16">
-        <v>10337764</v>
+        <v>10340040</v>
       </c>
       <c r="F299" s="15" t="s">
         <v>310</v>
@@ -18999,7 +19042,7 @@
         <v>93</v>
       </c>
       <c r="H299" s="15" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="I299" s="20"/>
       <c r="J299" s="19"/>
@@ -19036,10 +19079,10 @@
         <v>0</v>
       </c>
       <c r="D300" s="15">
-        <v>1129608136</v>
+        <v>1148278594</v>
       </c>
       <c r="E300" s="16">
-        <v>10340040</v>
+        <v>10337744</v>
       </c>
       <c r="F300" s="15" t="s">
         <v>311</v>
@@ -19048,7 +19091,7 @@
         <v>93</v>
       </c>
       <c r="H300" s="15" t="s">
-        <v>138</v>
+        <v>312</v>
       </c>
       <c r="I300" s="20"/>
       <c r="J300" s="19"/>
@@ -19085,19 +19128,19 @@
         <v>0</v>
       </c>
       <c r="D301" s="15">
-        <v>1148278594</v>
+        <v>1152621423</v>
       </c>
       <c r="E301" s="16">
-        <v>10337744</v>
+        <v>10322712</v>
       </c>
       <c r="F301" s="15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G301" s="15" t="s">
         <v>93</v>
       </c>
       <c r="H301" s="15" t="s">
-        <v>313</v>
+        <v>96</v>
       </c>
       <c r="I301" s="20"/>
       <c r="J301" s="19"/>
@@ -19134,10 +19177,10 @@
         <v>0</v>
       </c>
       <c r="D302" s="15">
-        <v>1152621423</v>
+        <v>1117915599</v>
       </c>
       <c r="E302" s="16">
-        <v>10322712</v>
+        <v>10333947</v>
       </c>
       <c r="F302" s="15" t="s">
         <v>314</v>
@@ -19146,7 +19189,7 @@
         <v>93</v>
       </c>
       <c r="H302" s="15" t="s">
-        <v>96</v>
+        <v>312</v>
       </c>
       <c r="I302" s="20"/>
       <c r="J302" s="19"/>
@@ -19176,27 +19219,13 @@
     </row>
     <row r="303" ht="43.5" customHeight="1" spans="1:33">
       <c r="A303" s="6"/>
-      <c r="B303" s="14">
-        <v>0.625</v>
-      </c>
-      <c r="C303" s="14">
-        <v>0</v>
-      </c>
-      <c r="D303" s="15">
-        <v>1117915599</v>
-      </c>
-      <c r="E303" s="16">
-        <v>10333947</v>
-      </c>
-      <c r="F303" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="G303" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H303" s="15" t="s">
-        <v>313</v>
-      </c>
+      <c r="B303" s="14"/>
+      <c r="C303" s="14"/>
+      <c r="D303" s="15"/>
+      <c r="E303" s="16"/>
+      <c r="F303" s="15"/>
+      <c r="G303" s="15"/>
+      <c r="H303" s="15"/>
       <c r="I303" s="20"/>
       <c r="J303" s="19"/>
       <c r="K303" s="18"/>
@@ -19225,13 +19254,27 @@
     </row>
     <row r="304" ht="43.5" customHeight="1" spans="1:33">
       <c r="A304" s="6"/>
-      <c r="B304" s="14"/>
-      <c r="C304" s="14"/>
-      <c r="D304" s="15"/>
-      <c r="E304" s="16"/>
-      <c r="F304" s="15"/>
-      <c r="G304" s="15"/>
-      <c r="H304" s="15"/>
+      <c r="B304" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C304" s="14">
+        <v>1</v>
+      </c>
+      <c r="D304" s="15">
+        <v>1050915746</v>
+      </c>
+      <c r="E304" s="16">
+        <v>10341047</v>
+      </c>
+      <c r="F304" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="G304" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H304" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="I304" s="20"/>
       <c r="J304" s="19"/>
       <c r="K304" s="18"/>
@@ -19258,7 +19301,7 @@
       <c r="AF304" s="18"/>
       <c r="AG304" s="18"/>
     </row>
-    <row r="305" ht="43.5" customHeight="1" spans="1:33">
+    <row r="305" ht="47.25" customHeight="1" spans="1:33">
       <c r="A305" s="6"/>
       <c r="B305" s="14">
         <v>0.625</v>
@@ -19267,10 +19310,10 @@
         <v>1</v>
       </c>
       <c r="D305" s="15">
-        <v>1050915746</v>
+        <v>1555693374</v>
       </c>
       <c r="E305" s="16">
-        <v>10341047</v>
+        <v>10347601</v>
       </c>
       <c r="F305" s="15" t="s">
         <v>316</v>
@@ -19278,11 +19321,13 @@
       <c r="G305" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H305" s="15" t="s">
-        <v>100</v>
+      <c r="H305" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="I305" s="20"/>
-      <c r="J305" s="19"/>
+      <c r="J305" s="19" t="s">
+        <v>257</v>
+      </c>
       <c r="K305" s="18"/>
       <c r="L305" s="18"/>
       <c r="M305" s="18"/>
@@ -20305,13 +20350,13 @@
     </row>
     <row r="328" ht="48.75" customHeight="1" spans="1:33">
       <c r="A328" s="6"/>
-      <c r="B328" s="26"/>
-      <c r="C328" s="26"/>
-      <c r="D328" s="27"/>
+      <c r="B328" s="24"/>
+      <c r="C328" s="24"/>
+      <c r="D328" s="25"/>
       <c r="E328" s="16"/>
-      <c r="F328" s="27"/>
-      <c r="G328" s="27"/>
-      <c r="H328" s="27"/>
+      <c r="F328" s="25"/>
+      <c r="G328" s="25"/>
+      <c r="H328" s="25"/>
       <c r="I328" s="20"/>
       <c r="J328" s="19"/>
       <c r="K328" s="18"/>
@@ -20340,25 +20385,25 @@
     </row>
     <row r="329" ht="48.75" customHeight="1" spans="1:33">
       <c r="A329" s="6"/>
-      <c r="B329" s="26">
+      <c r="B329" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C329" s="26">
+      <c r="C329" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D329" s="27">
+      <c r="D329" s="25">
         <v>1204716664</v>
       </c>
       <c r="E329" s="16">
         <v>10334828</v>
       </c>
-      <c r="F329" s="27" t="s">
+      <c r="F329" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="G329" s="27" t="s">
+      <c r="G329" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H329" s="27" t="s">
+      <c r="H329" s="25" t="s">
         <v>21</v>
       </c>
       <c r="I329" s="20"/>
@@ -20389,25 +20434,25 @@
     </row>
     <row r="330" ht="48.75" customHeight="1" spans="1:33">
       <c r="A330" s="6"/>
-      <c r="B330" s="26">
+      <c r="B330" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C330" s="26">
+      <c r="C330" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D330" s="27">
+      <c r="D330" s="25">
         <v>1110081480</v>
       </c>
       <c r="E330" s="16">
         <v>10335056</v>
       </c>
-      <c r="F330" s="27" t="s">
+      <c r="F330" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="G330" s="27" t="s">
+      <c r="G330" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H330" s="27" t="s">
+      <c r="H330" s="25" t="s">
         <v>21</v>
       </c>
       <c r="I330" s="20"/>
@@ -20438,13 +20483,13 @@
     </row>
     <row r="331" ht="48.75" customHeight="1" spans="1:33">
       <c r="A331" s="6"/>
-      <c r="B331" s="26"/>
-      <c r="C331" s="26"/>
-      <c r="D331" s="27"/>
+      <c r="B331" s="24"/>
+      <c r="C331" s="24"/>
+      <c r="D331" s="25"/>
       <c r="E331" s="16"/>
-      <c r="F331" s="27"/>
-      <c r="G331" s="27"/>
-      <c r="H331" s="27"/>
+      <c r="F331" s="25"/>
+      <c r="G331" s="25"/>
+      <c r="H331" s="25"/>
       <c r="I331" s="20"/>
       <c r="J331" s="19"/>
       <c r="K331" s="18"/>
@@ -20473,25 +20518,25 @@
     </row>
     <row r="332" ht="48.75" customHeight="1" spans="1:33">
       <c r="A332" s="6"/>
-      <c r="B332" s="26">
+      <c r="B332" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C332" s="26">
+      <c r="C332" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D332" s="27">
+      <c r="D332" s="25">
         <v>1093218929</v>
       </c>
       <c r="E332" s="16">
         <v>10331785</v>
       </c>
-      <c r="F332" s="27" t="s">
+      <c r="F332" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="G332" s="27" t="s">
+      <c r="G332" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H332" s="27" t="s">
+      <c r="H332" s="25" t="s">
         <v>26</v>
       </c>
       <c r="I332" s="20"/>
@@ -20522,25 +20567,25 @@
     </row>
     <row r="333" ht="48.75" customHeight="1" spans="1:33">
       <c r="A333" s="6"/>
-      <c r="B333" s="26">
+      <c r="B333" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C333" s="26">
+      <c r="C333" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D333" s="27">
+      <c r="D333" s="25">
         <v>1112246872</v>
       </c>
       <c r="E333" s="16">
         <v>10334449</v>
       </c>
-      <c r="F333" s="27" t="s">
+      <c r="F333" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="G333" s="27" t="s">
+      <c r="G333" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H333" s="27" t="s">
+      <c r="H333" s="25" t="s">
         <v>26</v>
       </c>
       <c r="I333" s="20"/>
@@ -20571,13 +20616,13 @@
     </row>
     <row r="334" ht="48.75" customHeight="1" spans="1:33">
       <c r="A334" s="6"/>
-      <c r="B334" s="26"/>
-      <c r="C334" s="26"/>
-      <c r="D334" s="27"/>
+      <c r="B334" s="24"/>
+      <c r="C334" s="24"/>
+      <c r="D334" s="25"/>
       <c r="E334" s="16"/>
-      <c r="F334" s="27"/>
-      <c r="G334" s="27"/>
-      <c r="H334" s="27"/>
+      <c r="F334" s="25"/>
+      <c r="G334" s="25"/>
+      <c r="H334" s="25"/>
       <c r="I334" s="20"/>
       <c r="J334" s="19"/>
       <c r="K334" s="18"/>
@@ -20606,25 +20651,25 @@
     </row>
     <row r="335" ht="48.75" customHeight="1" spans="1:33">
       <c r="A335" s="6"/>
-      <c r="B335" s="26">
+      <c r="B335" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C335" s="26">
+      <c r="C335" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D335" s="27">
+      <c r="D335" s="25">
         <v>1277779066</v>
       </c>
       <c r="E335" s="16">
         <v>10282876</v>
       </c>
-      <c r="F335" s="27" t="s">
+      <c r="F335" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="G335" s="27" t="s">
+      <c r="G335" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="H335" s="27" t="s">
+      <c r="H335" s="25" t="s">
         <v>344</v>
       </c>
       <c r="I335" s="20"/>
@@ -20655,13 +20700,13 @@
     </row>
     <row r="336" ht="48.75" customHeight="1" spans="1:33">
       <c r="A336" s="6"/>
-      <c r="B336" s="26"/>
-      <c r="C336" s="26"/>
-      <c r="D336" s="27"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24"/>
+      <c r="D336" s="25"/>
       <c r="E336" s="16"/>
-      <c r="F336" s="27"/>
-      <c r="G336" s="27"/>
-      <c r="H336" s="27"/>
+      <c r="F336" s="25"/>
+      <c r="G336" s="25"/>
+      <c r="H336" s="25"/>
       <c r="I336" s="20"/>
       <c r="J336" s="19"/>
       <c r="K336" s="18"/>
@@ -20690,25 +20735,25 @@
     </row>
     <row r="337" ht="48.75" customHeight="1" spans="1:33">
       <c r="A337" s="6"/>
-      <c r="B337" s="26">
+      <c r="B337" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C337" s="26">
+      <c r="C337" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D337" s="27">
+      <c r="D337" s="25">
         <v>1097762201</v>
       </c>
       <c r="E337" s="16">
         <v>10326498</v>
       </c>
-      <c r="F337" s="27" t="s">
+      <c r="F337" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="G337" s="27" t="s">
+      <c r="G337" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="H337" s="27" t="s">
+      <c r="H337" s="25" t="s">
         <v>288</v>
       </c>
       <c r="I337" s="20"/>
@@ -20739,13 +20784,13 @@
     </row>
     <row r="338" ht="48.75" customHeight="1" spans="1:33">
       <c r="A338" s="6"/>
-      <c r="B338" s="26"/>
-      <c r="C338" s="26"/>
-      <c r="D338" s="27"/>
+      <c r="B338" s="24"/>
+      <c r="C338" s="24"/>
+      <c r="D338" s="25"/>
       <c r="E338" s="16"/>
-      <c r="F338" s="27"/>
-      <c r="G338" s="27"/>
-      <c r="H338" s="27"/>
+      <c r="F338" s="25"/>
+      <c r="G338" s="25"/>
+      <c r="H338" s="25"/>
       <c r="I338" s="20"/>
       <c r="J338" s="19"/>
       <c r="K338" s="18"/>
@@ -20774,25 +20819,25 @@
     </row>
     <row r="339" ht="48.75" customHeight="1" spans="1:33">
       <c r="A339" s="6"/>
-      <c r="B339" s="26">
+      <c r="B339" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C339" s="26">
+      <c r="C339" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D339" s="27">
+      <c r="D339" s="25">
         <v>1148677126</v>
       </c>
       <c r="E339" s="16">
         <v>10320448</v>
       </c>
-      <c r="F339" s="27" t="s">
+      <c r="F339" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="G339" s="27" t="s">
+      <c r="G339" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H339" s="27" t="s">
+      <c r="H339" s="25" t="s">
         <v>182</v>
       </c>
       <c r="I339" s="20"/>
@@ -20821,17 +20866,33 @@
       <c r="AF339" s="18"/>
       <c r="AG339" s="18"/>
     </row>
-    <row r="340" ht="48.75" customHeight="1" spans="1:33">
+    <row r="340" ht="43.5" customHeight="1" spans="1:33">
       <c r="A340" s="6"/>
-      <c r="B340" s="26"/>
-      <c r="C340" s="26"/>
-      <c r="D340" s="27"/>
-      <c r="E340" s="16"/>
-      <c r="F340" s="27"/>
-      <c r="G340" s="27"/>
-      <c r="H340" s="27"/>
+      <c r="B340" s="14">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C340" s="29">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D340" s="15">
+        <v>1016228319</v>
+      </c>
+      <c r="E340" s="16">
+        <v>10342917</v>
+      </c>
+      <c r="F340" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="G340" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H340" s="23" t="s">
+        <v>132</v>
+      </c>
       <c r="I340" s="20"/>
-      <c r="J340" s="19"/>
+      <c r="J340" s="19" t="s">
+        <v>348</v>
+      </c>
       <c r="K340" s="18"/>
       <c r="L340" s="18"/>
       <c r="M340" s="18"/>
@@ -20858,27 +20919,13 @@
     </row>
     <row r="341" ht="48.75" customHeight="1" spans="1:33">
       <c r="A341" s="6"/>
-      <c r="B341" s="26">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C341" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="D341" s="27">
-        <v>1002894384</v>
-      </c>
-      <c r="E341" s="16">
-        <v>10347165</v>
-      </c>
-      <c r="F341" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="G341" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="H341" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="B341" s="24"/>
+      <c r="C341" s="24"/>
+      <c r="D341" s="25"/>
+      <c r="E341" s="16"/>
+      <c r="F341" s="25"/>
+      <c r="G341" s="25"/>
+      <c r="H341" s="25"/>
       <c r="I341" s="20"/>
       <c r="J341" s="19"/>
       <c r="K341" s="18"/>
@@ -20907,13 +20954,27 @@
     </row>
     <row r="342" ht="48.75" customHeight="1" spans="1:33">
       <c r="A342" s="6"/>
-      <c r="B342" s="26"/>
-      <c r="C342" s="26"/>
-      <c r="D342" s="27"/>
-      <c r="E342" s="16"/>
-      <c r="F342" s="27"/>
-      <c r="G342" s="27"/>
-      <c r="H342" s="27"/>
+      <c r="B342" s="24">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C342" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="D342" s="25">
+        <v>1002894384</v>
+      </c>
+      <c r="E342" s="16">
+        <v>10347165</v>
+      </c>
+      <c r="F342" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="G342" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H342" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="I342" s="20"/>
       <c r="J342" s="19"/>
       <c r="K342" s="18"/>
@@ -20942,27 +21003,13 @@
     </row>
     <row r="343" ht="48.75" customHeight="1" spans="1:33">
       <c r="A343" s="6"/>
-      <c r="B343" s="26">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C343" s="26">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="D343" s="27">
-        <v>1127552530</v>
-      </c>
-      <c r="E343" s="16">
-        <v>10314763</v>
-      </c>
-      <c r="F343" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="G343" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="H343" s="27" t="s">
-        <v>138</v>
-      </c>
+      <c r="B343" s="24"/>
+      <c r="C343" s="24"/>
+      <c r="D343" s="25"/>
+      <c r="E343" s="16"/>
+      <c r="F343" s="25"/>
+      <c r="G343" s="25"/>
+      <c r="H343" s="25"/>
       <c r="I343" s="20"/>
       <c r="J343" s="19"/>
       <c r="K343" s="18"/>
@@ -20991,25 +21038,25 @@
     </row>
     <row r="344" ht="48.75" customHeight="1" spans="1:33">
       <c r="A344" s="6"/>
-      <c r="B344" s="26">
+      <c r="B344" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C344" s="26">
+      <c r="C344" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D344" s="27">
-        <v>1551707019</v>
+      <c r="D344" s="25">
+        <v>1127552530</v>
       </c>
       <c r="E344" s="16">
-        <v>10331829</v>
-      </c>
-      <c r="F344" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="G344" s="27" t="s">
+        <v>10314763</v>
+      </c>
+      <c r="F344" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="G344" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="H344" s="27" t="s">
+      <c r="H344" s="25" t="s">
         <v>138</v>
       </c>
       <c r="I344" s="20"/>
@@ -21040,25 +21087,25 @@
     </row>
     <row r="345" ht="48.75" customHeight="1" spans="1:33">
       <c r="A345" s="6"/>
-      <c r="B345" s="26">
+      <c r="B345" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C345" s="26">
+      <c r="C345" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D345" s="27">
-        <v>1283104485</v>
+      <c r="D345" s="25">
+        <v>1551707019</v>
       </c>
       <c r="E345" s="16">
-        <v>10332548</v>
-      </c>
-      <c r="F345" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="G345" s="27" t="s">
+        <v>10331829</v>
+      </c>
+      <c r="F345" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="G345" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="H345" s="27" t="s">
+      <c r="H345" s="25" t="s">
         <v>138</v>
       </c>
       <c r="I345" s="20"/>
@@ -21089,13 +21136,27 @@
     </row>
     <row r="346" ht="48.75" customHeight="1" spans="1:33">
       <c r="A346" s="6"/>
-      <c r="B346" s="26"/>
-      <c r="C346" s="26"/>
-      <c r="D346" s="27"/>
-      <c r="E346" s="16"/>
-      <c r="F346" s="27"/>
-      <c r="G346" s="27"/>
-      <c r="H346" s="27"/>
+      <c r="B346" s="24">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C346" s="24">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="D346" s="25">
+        <v>1283104485</v>
+      </c>
+      <c r="E346" s="16">
+        <v>10332548</v>
+      </c>
+      <c r="F346" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="G346" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H346" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="I346" s="20"/>
       <c r="J346" s="19"/>
       <c r="K346" s="18"/>
@@ -21124,27 +21185,13 @@
     </row>
     <row r="347" ht="48.75" customHeight="1" spans="1:33">
       <c r="A347" s="6"/>
-      <c r="B347" s="26">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C347" s="26">
-        <v>1.20833333333333</v>
-      </c>
-      <c r="D347" s="27">
-        <v>1148646797</v>
-      </c>
-      <c r="E347" s="16">
-        <v>10338474</v>
-      </c>
-      <c r="F347" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="G347" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H347" s="27" t="s">
-        <v>100</v>
-      </c>
+      <c r="B347" s="24"/>
+      <c r="C347" s="24"/>
+      <c r="D347" s="25"/>
+      <c r="E347" s="16"/>
+      <c r="F347" s="25"/>
+      <c r="G347" s="25"/>
+      <c r="H347" s="25"/>
       <c r="I347" s="20"/>
       <c r="J347" s="19"/>
       <c r="K347" s="18"/>
@@ -21173,26 +21220,26 @@
     </row>
     <row r="348" ht="48.75" customHeight="1" spans="1:33">
       <c r="A348" s="6"/>
-      <c r="B348" s="26">
+      <c r="B348" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C348" s="26">
-        <v>1.16666666666667</v>
-      </c>
-      <c r="D348" s="27">
-        <v>1090598043</v>
+      <c r="C348" s="24">
+        <v>1.20833333333333</v>
+      </c>
+      <c r="D348" s="25">
+        <v>1148646797</v>
       </c>
       <c r="E348" s="16">
-        <v>10344902</v>
-      </c>
-      <c r="F348" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="G348" s="27" t="s">
+        <v>10338474</v>
+      </c>
+      <c r="F348" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="G348" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H348" s="27" t="s">
-        <v>55</v>
+      <c r="H348" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="I348" s="20"/>
       <c r="J348" s="19"/>
@@ -21222,26 +21269,26 @@
     </row>
     <row r="349" ht="48.75" customHeight="1" spans="1:33">
       <c r="A349" s="6"/>
-      <c r="B349" s="26">
+      <c r="B349" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C349" s="26">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="D349" s="27">
-        <v>1117228732</v>
+      <c r="C349" s="24">
+        <v>1.16666666666667</v>
+      </c>
+      <c r="D349" s="25">
+        <v>1090598043</v>
       </c>
       <c r="E349" s="16">
-        <v>10285481</v>
-      </c>
-      <c r="F349" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="G349" s="27" t="s">
+        <v>10344902</v>
+      </c>
+      <c r="F349" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="G349" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H349" s="27" t="s">
-        <v>100</v>
+      <c r="H349" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="I349" s="20"/>
       <c r="J349" s="19"/>
@@ -21271,25 +21318,25 @@
     </row>
     <row r="350" ht="48.75" customHeight="1" spans="1:33">
       <c r="A350" s="6"/>
-      <c r="B350" s="26">
+      <c r="B350" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C350" s="26">
+      <c r="C350" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D350" s="27">
-        <v>1115946198</v>
+      <c r="D350" s="25">
+        <v>1117228732</v>
       </c>
       <c r="E350" s="16">
-        <v>10326484</v>
-      </c>
-      <c r="F350" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="G350" s="27" t="s">
+        <v>10285481</v>
+      </c>
+      <c r="F350" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="G350" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H350" s="27" t="s">
+      <c r="H350" s="25" t="s">
         <v>100</v>
       </c>
       <c r="I350" s="20"/>
@@ -21320,26 +21367,26 @@
     </row>
     <row r="351" ht="48.75" customHeight="1" spans="1:33">
       <c r="A351" s="6"/>
-      <c r="B351" s="26">
+      <c r="B351" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C351" s="26">
+      <c r="C351" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D351" s="27">
-        <v>1017405291</v>
+      <c r="D351" s="25">
+        <v>1115946198</v>
       </c>
       <c r="E351" s="16">
-        <v>10335052</v>
-      </c>
-      <c r="F351" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="G351" s="27" t="s">
+        <v>10326484</v>
+      </c>
+      <c r="F351" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="G351" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H351" s="27" t="s">
-        <v>141</v>
+      <c r="H351" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="I351" s="20"/>
       <c r="J351" s="19"/>
@@ -21369,13 +21416,27 @@
     </row>
     <row r="352" ht="48.75" customHeight="1" spans="1:33">
       <c r="A352" s="6"/>
-      <c r="B352" s="26"/>
-      <c r="C352" s="26"/>
-      <c r="D352" s="27"/>
-      <c r="E352" s="16"/>
-      <c r="F352" s="27"/>
-      <c r="G352" s="27"/>
-      <c r="H352" s="27"/>
+      <c r="B352" s="24">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C352" s="24">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="D352" s="25">
+        <v>1017405291</v>
+      </c>
+      <c r="E352" s="16">
+        <v>10335052</v>
+      </c>
+      <c r="F352" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="G352" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H352" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="I352" s="20"/>
       <c r="J352" s="19"/>
       <c r="K352" s="18"/>
@@ -21404,27 +21465,13 @@
     </row>
     <row r="353" ht="48.75" customHeight="1" spans="1:33">
       <c r="A353" s="6"/>
-      <c r="B353" s="26">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C353" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="D353" s="27">
-        <v>1009533599</v>
-      </c>
-      <c r="E353" s="16">
-        <v>10271468</v>
-      </c>
-      <c r="F353" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="G353" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="H353" s="27" t="s">
-        <v>148</v>
-      </c>
+      <c r="B353" s="24"/>
+      <c r="C353" s="24"/>
+      <c r="D353" s="25"/>
+      <c r="E353" s="16"/>
+      <c r="F353" s="25"/>
+      <c r="G353" s="25"/>
+      <c r="H353" s="25"/>
       <c r="I353" s="20"/>
       <c r="J353" s="19"/>
       <c r="K353" s="18"/>
@@ -21453,13 +21500,27 @@
     </row>
     <row r="354" ht="48.75" customHeight="1" spans="1:33">
       <c r="A354" s="6"/>
-      <c r="B354" s="26"/>
-      <c r="C354" s="26"/>
-      <c r="D354" s="27"/>
-      <c r="E354" s="16"/>
-      <c r="F354" s="27"/>
-      <c r="G354" s="27"/>
-      <c r="H354" s="27"/>
+      <c r="B354" s="24">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C354" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="D354" s="25">
+        <v>1009533599</v>
+      </c>
+      <c r="E354" s="16">
+        <v>10271468</v>
+      </c>
+      <c r="F354" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="G354" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H354" s="25" t="s">
+        <v>148</v>
+      </c>
       <c r="I354" s="20"/>
       <c r="J354" s="19"/>
       <c r="K354" s="18"/>
@@ -21488,27 +21549,13 @@
     </row>
     <row r="355" ht="48.75" customHeight="1" spans="1:33">
       <c r="A355" s="6"/>
-      <c r="B355" s="26">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C355" s="26">
-        <v>1.04166666666667</v>
-      </c>
-      <c r="D355" s="27">
-        <v>1551687375</v>
-      </c>
-      <c r="E355" s="16">
-        <v>10335881</v>
-      </c>
-      <c r="F355" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="G355" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H355" s="27" t="s">
-        <v>209</v>
-      </c>
+      <c r="B355" s="24"/>
+      <c r="C355" s="24"/>
+      <c r="D355" s="25"/>
+      <c r="E355" s="16"/>
+      <c r="F355" s="25"/>
+      <c r="G355" s="25"/>
+      <c r="H355" s="25"/>
       <c r="I355" s="20"/>
       <c r="J355" s="19"/>
       <c r="K355" s="18"/>
@@ -21537,26 +21584,26 @@
     </row>
     <row r="356" ht="48.75" customHeight="1" spans="1:33">
       <c r="A356" s="6"/>
-      <c r="B356" s="26">
+      <c r="B356" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C356" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="D356" s="27">
-        <v>0</v>
+      <c r="C356" s="24">
+        <v>1.04166666666667</v>
+      </c>
+      <c r="D356" s="25">
+        <v>1551687375</v>
       </c>
       <c r="E356" s="16">
-        <v>10341599</v>
-      </c>
-      <c r="F356" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="G356" s="27" t="s">
+        <v>10335881</v>
+      </c>
+      <c r="F356" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="G356" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H356" s="27" t="s">
-        <v>49</v>
+      <c r="H356" s="25" t="s">
+        <v>209</v>
       </c>
       <c r="I356" s="20"/>
       <c r="J356" s="19"/>
@@ -21586,25 +21633,25 @@
     </row>
     <row r="357" ht="48.75" customHeight="1" spans="1:33">
       <c r="A357" s="6"/>
-      <c r="B357" s="26">
+      <c r="B357" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C357" s="26">
+      <c r="C357" s="24">
         <v>1.16666666666667</v>
       </c>
-      <c r="D357" s="27">
+      <c r="D357" s="25">
         <v>0</v>
       </c>
       <c r="E357" s="16">
         <v>10337109</v>
       </c>
-      <c r="F357" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="G357" s="27" t="s">
+      <c r="F357" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="G357" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H357" s="27" t="s">
+      <c r="H357" s="25" t="s">
         <v>42</v>
       </c>
       <c r="I357" s="20"/>
@@ -21635,26 +21682,26 @@
     </row>
     <row r="358" ht="48.75" customHeight="1" spans="1:33">
       <c r="A358" s="6"/>
-      <c r="B358" s="26">
+      <c r="B358" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C358" s="26">
+      <c r="C358" s="29">
         <v>1.04166666666667</v>
       </c>
-      <c r="D358" s="27">
-        <v>1080445221</v>
+      <c r="D358" s="25">
+        <v>1123321087</v>
       </c>
       <c r="E358" s="16">
-        <v>10342331</v>
-      </c>
-      <c r="F358" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="G358" s="27" t="s">
+        <v>10342330</v>
+      </c>
+      <c r="F358" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="G358" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H358" s="27" t="s">
-        <v>150</v>
+      <c r="H358" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="I358" s="20"/>
       <c r="J358" s="19"/>
@@ -21684,27 +21731,13 @@
     </row>
     <row r="359" ht="48.75" customHeight="1" spans="1:33">
       <c r="A359" s="6"/>
-      <c r="B359" s="26">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C359" s="26">
-        <v>1.16666666666667</v>
-      </c>
-      <c r="D359" s="27">
-        <v>1123321087</v>
-      </c>
-      <c r="E359" s="16">
-        <v>10342330</v>
-      </c>
-      <c r="F359" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="G359" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H359" s="27" t="s">
-        <v>49</v>
-      </c>
+      <c r="B359" s="24"/>
+      <c r="C359" s="24"/>
+      <c r="D359" s="25"/>
+      <c r="E359" s="16"/>
+      <c r="F359" s="25"/>
+      <c r="G359" s="25"/>
+      <c r="H359" s="25"/>
       <c r="I359" s="20"/>
       <c r="J359" s="19"/>
       <c r="K359" s="18"/>
@@ -21733,13 +21766,27 @@
     </row>
     <row r="360" ht="48.75" customHeight="1" spans="1:33">
       <c r="A360" s="6"/>
-      <c r="B360" s="26"/>
-      <c r="C360" s="26"/>
-      <c r="D360" s="27"/>
-      <c r="E360" s="16"/>
-      <c r="F360" s="27"/>
-      <c r="G360" s="27"/>
-      <c r="H360" s="27"/>
+      <c r="B360" s="24">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C360" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="D360" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="E360" s="16">
+        <v>10347261</v>
+      </c>
+      <c r="F360" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="G360" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H360" s="25" t="s">
+        <v>13</v>
+      </c>
       <c r="I360" s="20"/>
       <c r="J360" s="19"/>
       <c r="K360" s="18"/>
@@ -21768,25 +21815,25 @@
     </row>
     <row r="361" ht="48.75" customHeight="1" spans="1:33">
       <c r="A361" s="6"/>
-      <c r="B361" s="26">
+      <c r="B361" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C361" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="D361" s="27" t="s">
-        <v>362</v>
+      <c r="C361" s="24">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="D361" s="25">
+        <v>1553989783</v>
       </c>
       <c r="E361" s="16">
-        <v>10347261</v>
-      </c>
-      <c r="F361" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="G361" s="27" t="s">
+        <v>10335120</v>
+      </c>
+      <c r="F361" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="G361" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H361" s="27" t="s">
+      <c r="H361" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I361" s="20"/>
@@ -21817,25 +21864,25 @@
     </row>
     <row r="362" ht="48.75" customHeight="1" spans="1:33">
       <c r="A362" s="6"/>
-      <c r="B362" s="26">
+      <c r="B362" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C362" s="26">
+      <c r="C362" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D362" s="27">
-        <v>1553989783</v>
+      <c r="D362" s="25">
+        <v>1016789685</v>
       </c>
       <c r="E362" s="16">
-        <v>10335120</v>
-      </c>
-      <c r="F362" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="G362" s="27" t="s">
+        <v>10335024</v>
+      </c>
+      <c r="F362" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="G362" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H362" s="27" t="s">
+      <c r="H362" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I362" s="20"/>
@@ -21864,31 +21911,33 @@
       <c r="AF362" s="18"/>
       <c r="AG362" s="18"/>
     </row>
-    <row r="363" ht="48.75" customHeight="1" spans="1:33">
+    <row r="363" ht="42" customHeight="1" spans="1:33">
       <c r="A363" s="6"/>
-      <c r="B363" s="26">
+      <c r="B363" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="C363" s="26">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="D363" s="27">
-        <v>1016789685</v>
+      <c r="C363" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D363" s="15" t="s">
+        <v>366</v>
       </c>
       <c r="E363" s="16">
-        <v>10335024</v>
-      </c>
-      <c r="F363" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="G363" s="27" t="s">
+        <v>10307125</v>
+      </c>
+      <c r="F363" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="G363" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H363" s="27" t="s">
-        <v>13</v>
+      <c r="H363" s="23" t="s">
+        <v>368</v>
       </c>
       <c r="I363" s="20"/>
-      <c r="J363" s="19"/>
+      <c r="J363" s="19" t="s">
+        <v>369</v>
+      </c>
       <c r="K363" s="18"/>
       <c r="L363" s="18"/>
       <c r="M363" s="18"/>
@@ -21915,13 +21964,13 @@
     </row>
     <row r="364" ht="48.75" customHeight="1" spans="1:33">
       <c r="A364" s="6"/>
-      <c r="B364" s="26"/>
-      <c r="C364" s="26"/>
-      <c r="D364" s="27"/>
+      <c r="B364" s="24"/>
+      <c r="C364" s="24"/>
+      <c r="D364" s="25"/>
       <c r="E364" s="16"/>
-      <c r="F364" s="27"/>
-      <c r="G364" s="27"/>
-      <c r="H364" s="27"/>
+      <c r="F364" s="25"/>
+      <c r="G364" s="25"/>
+      <c r="H364" s="25"/>
       <c r="I364" s="20"/>
       <c r="J364" s="19"/>
       <c r="K364" s="18"/>
@@ -21950,25 +21999,25 @@
     </row>
     <row r="365" ht="48.75" customHeight="1" spans="1:33">
       <c r="A365" s="6"/>
-      <c r="B365" s="26">
+      <c r="B365" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C365" s="26">
+      <c r="C365" s="24">
         <v>1.16666666666667</v>
       </c>
-      <c r="D365" s="27">
+      <c r="D365" s="25">
         <v>1117675614</v>
       </c>
       <c r="E365" s="16">
         <v>10342471</v>
       </c>
-      <c r="F365" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="G365" s="27" t="s">
+      <c r="F365" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="G365" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="H365" s="27" t="s">
+      <c r="H365" s="25" t="s">
         <v>53</v>
       </c>
       <c r="I365" s="20"/>
@@ -21999,13 +22048,13 @@
     </row>
     <row r="366" ht="48.75" customHeight="1" spans="1:33">
       <c r="A366" s="6"/>
-      <c r="B366" s="26"/>
-      <c r="C366" s="26"/>
-      <c r="D366" s="27"/>
+      <c r="B366" s="24"/>
+      <c r="C366" s="24"/>
+      <c r="D366" s="25"/>
       <c r="E366" s="16"/>
-      <c r="F366" s="27"/>
-      <c r="G366" s="27"/>
-      <c r="H366" s="27"/>
+      <c r="F366" s="25"/>
+      <c r="G366" s="25"/>
+      <c r="H366" s="25"/>
       <c r="I366" s="20"/>
       <c r="J366" s="19"/>
       <c r="K366" s="18"/>
@@ -22034,25 +22083,25 @@
     </row>
     <row r="367" ht="48.75" customHeight="1" spans="1:33">
       <c r="A367" s="6"/>
-      <c r="B367" s="26">
+      <c r="B367" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C367" s="26">
+      <c r="C367" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D367" s="27">
+      <c r="D367" s="25">
         <v>1553553976</v>
       </c>
       <c r="E367" s="16">
         <v>10334395</v>
       </c>
-      <c r="F367" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="G367" s="27" t="s">
+      <c r="F367" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="G367" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="H367" s="27" t="s">
+      <c r="H367" s="25" t="s">
         <v>337</v>
       </c>
       <c r="I367" s="20"/>
@@ -22083,25 +22132,25 @@
     </row>
     <row r="368" ht="48.75" customHeight="1" spans="1:33">
       <c r="A368" s="6"/>
-      <c r="B368" s="26">
+      <c r="B368" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="C368" s="26">
+      <c r="C368" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D368" s="27">
+      <c r="D368" s="25">
         <v>0</v>
       </c>
       <c r="E368" s="16">
         <v>10334214</v>
       </c>
-      <c r="F368" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="G368" s="27" t="s">
+      <c r="F368" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="G368" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="H368" s="27" t="s">
+      <c r="H368" s="25" t="s">
         <v>337</v>
       </c>
       <c r="I368" s="20"/>
@@ -22132,13 +22181,13 @@
     </row>
     <row r="369" ht="48.75" customHeight="1" spans="1:33">
       <c r="A369" s="6"/>
-      <c r="B369" s="26"/>
-      <c r="C369" s="26"/>
-      <c r="D369" s="27"/>
+      <c r="B369" s="24"/>
+      <c r="C369" s="24"/>
+      <c r="D369" s="25"/>
       <c r="E369" s="16"/>
-      <c r="F369" s="27"/>
-      <c r="G369" s="27"/>
-      <c r="H369" s="27"/>
+      <c r="F369" s="25"/>
+      <c r="G369" s="25"/>
+      <c r="H369" s="25"/>
       <c r="I369" s="20"/>
       <c r="J369" s="19"/>
       <c r="K369" s="18"/>
@@ -22301,7 +22350,7 @@
         <v>7</v>
       </c>
       <c r="F373" s="15" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G373" s="15" t="s">
         <v>20</v>
@@ -22344,13 +22393,13 @@
         <v>1.08333333333333</v>
       </c>
       <c r="D374" s="15" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E374" s="16">
         <v>10344169</v>
       </c>
       <c r="F374" s="15" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G374" s="15" t="s">
         <v>20</v>
@@ -22428,13 +22477,13 @@
         <v>1.29166666666667</v>
       </c>
       <c r="D376" s="15" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E376" s="16">
         <v>10340369</v>
       </c>
       <c r="F376" s="15" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G376" s="15" t="s">
         <v>33</v>
@@ -22518,13 +22567,13 @@
         <v>10337518</v>
       </c>
       <c r="F378" s="15" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G378" s="15" t="s">
         <v>85</v>
       </c>
       <c r="H378" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I378" s="20"/>
       <c r="J378" s="19"/>
@@ -22596,13 +22645,13 @@
         <v>1.08333333333333</v>
       </c>
       <c r="D380" s="15" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E380" s="16">
         <v>10333168</v>
       </c>
       <c r="F380" s="15" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G380" s="15" t="s">
         <v>15</v>
@@ -22651,7 +22700,7 @@
         <v>10344170</v>
       </c>
       <c r="F381" s="15" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G381" s="15" t="s">
         <v>15</v>
@@ -22685,17 +22734,33 @@
       <c r="AF381" s="18"/>
       <c r="AG381" s="18"/>
     </row>
-    <row r="382" ht="43.15" customHeight="1" spans="1:33">
+    <row r="382" ht="43.5" customHeight="1" spans="1:33">
       <c r="A382" s="6"/>
-      <c r="B382" s="14"/>
-      <c r="C382" s="14"/>
-      <c r="D382" s="15"/>
-      <c r="E382" s="16"/>
-      <c r="F382" s="15"/>
-      <c r="G382" s="15"/>
-      <c r="H382" s="15"/>
+      <c r="B382" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C382" s="14">
+        <v>1.08333333333333</v>
+      </c>
+      <c r="D382" s="15">
+        <v>1153235087</v>
+      </c>
+      <c r="E382" s="16">
+        <v>10341020</v>
+      </c>
+      <c r="F382" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="G382" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H382" s="23" t="s">
+        <v>209</v>
+      </c>
       <c r="I382" s="20"/>
-      <c r="J382" s="19"/>
+      <c r="J382" s="19" t="s">
+        <v>383</v>
+      </c>
       <c r="K382" s="18"/>
       <c r="L382" s="18"/>
       <c r="M382" s="18"/>
@@ -22722,27 +22787,13 @@
     </row>
     <row r="383" ht="43.15" customHeight="1" spans="1:33">
       <c r="A383" s="6"/>
-      <c r="B383" s="14">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C383" s="14">
-        <v>1.08333333333333</v>
-      </c>
-      <c r="D383" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="E383" s="16">
-        <v>10346798</v>
-      </c>
-      <c r="F383" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="G383" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H383" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="B383" s="14"/>
+      <c r="C383" s="14"/>
+      <c r="D383" s="15"/>
+      <c r="E383" s="16"/>
+      <c r="F383" s="15"/>
+      <c r="G383" s="15"/>
+      <c r="H383" s="15"/>
       <c r="I383" s="20"/>
       <c r="J383" s="19"/>
       <c r="K383" s="18"/>
@@ -22771,13 +22822,27 @@
     </row>
     <row r="384" ht="43.15" customHeight="1" spans="1:33">
       <c r="A384" s="6"/>
-      <c r="B384" s="14"/>
-      <c r="C384" s="14"/>
-      <c r="D384" s="15"/>
-      <c r="E384" s="16"/>
-      <c r="F384" s="15"/>
-      <c r="G384" s="15"/>
-      <c r="H384" s="15"/>
+      <c r="B384" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C384" s="14">
+        <v>1.08333333333333</v>
+      </c>
+      <c r="D384" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="E384" s="16">
+        <v>10346798</v>
+      </c>
+      <c r="F384" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="G384" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H384" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="I384" s="20"/>
       <c r="J384" s="19"/>
       <c r="K384" s="18"/>
@@ -22806,27 +22871,13 @@
     </row>
     <row r="385" ht="43.15" customHeight="1" spans="1:33">
       <c r="A385" s="6"/>
-      <c r="B385" s="14">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C385" s="14">
-        <v>1.08333333333333</v>
-      </c>
-      <c r="D385" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="E385" s="16">
-        <v>10331220</v>
-      </c>
-      <c r="F385" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="G385" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="H385" s="15" t="s">
-        <v>155</v>
-      </c>
+      <c r="B385" s="14"/>
+      <c r="C385" s="14"/>
+      <c r="D385" s="15"/>
+      <c r="E385" s="16"/>
+      <c r="F385" s="15"/>
+      <c r="G385" s="15"/>
+      <c r="H385" s="15"/>
       <c r="I385" s="20"/>
       <c r="J385" s="19"/>
       <c r="K385" s="18"/>
@@ -22855,13 +22906,27 @@
     </row>
     <row r="386" ht="43.15" customHeight="1" spans="1:33">
       <c r="A386" s="6"/>
-      <c r="B386" s="14"/>
-      <c r="C386" s="14"/>
-      <c r="D386" s="15"/>
-      <c r="E386" s="16"/>
-      <c r="F386" s="15"/>
-      <c r="G386" s="15"/>
-      <c r="H386" s="15"/>
+      <c r="B386" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C386" s="14">
+        <v>1.08333333333333</v>
+      </c>
+      <c r="D386" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="E386" s="16">
+        <v>10331220</v>
+      </c>
+      <c r="F386" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="G386" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="H386" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="I386" s="20"/>
       <c r="J386" s="19"/>
       <c r="K386" s="18"/>
@@ -22890,27 +22955,13 @@
     </row>
     <row r="387" ht="43.15" customHeight="1" spans="1:33">
       <c r="A387" s="6"/>
-      <c r="B387" s="14">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C387" s="14">
-        <v>1.08333333333333</v>
-      </c>
-      <c r="D387" s="15">
-        <v>1555773066</v>
-      </c>
-      <c r="E387" s="16">
-        <v>10335909</v>
-      </c>
-      <c r="F387" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="G387" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="H387" s="15" t="s">
-        <v>337</v>
-      </c>
+      <c r="B387" s="14"/>
+      <c r="C387" s="14"/>
+      <c r="D387" s="15"/>
+      <c r="E387" s="16"/>
+      <c r="F387" s="15"/>
+      <c r="G387" s="15"/>
+      <c r="H387" s="15"/>
       <c r="I387" s="20"/>
       <c r="J387" s="19"/>
       <c r="K387" s="18"/>
@@ -22937,15 +22988,17 @@
       <c r="AF387" s="18"/>
       <c r="AG387" s="18"/>
     </row>
-    <row r="388" ht="43.15" customHeight="1" spans="1:33">
-      <c r="A388" s="6"/>
-      <c r="B388" s="14"/>
-      <c r="C388" s="14"/>
-      <c r="D388" s="15"/>
-      <c r="E388" s="16"/>
-      <c r="F388" s="15"/>
-      <c r="G388" s="15"/>
-      <c r="H388" s="15"/>
+    <row r="388" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A388" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="B388" s="10"/>
+      <c r="C388" s="10"/>
+      <c r="D388" s="10"/>
+      <c r="E388" s="11"/>
+      <c r="F388" s="10"/>
+      <c r="G388" s="10"/>
+      <c r="H388" s="10"/>
       <c r="I388" s="20"/>
       <c r="J388" s="19"/>
       <c r="K388" s="18"/>
@@ -22972,17 +23025,29 @@
       <c r="AF388" s="18"/>
       <c r="AG388" s="18"/>
     </row>
-    <row r="389" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A389" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="B389" s="10"/>
-      <c r="C389" s="10"/>
-      <c r="D389" s="10"/>
-      <c r="E389" s="11"/>
-      <c r="F389" s="10"/>
-      <c r="G389" s="10"/>
-      <c r="H389" s="10"/>
+    <row r="389" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A389" s="12"/>
+      <c r="B389" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D389" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E389" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F389" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G389" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H389" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I389" s="20"/>
       <c r="J389" s="19"/>
       <c r="K389" s="18"/>
@@ -23009,29 +23074,15 @@
       <c r="AF389" s="18"/>
       <c r="AG389" s="18"/>
     </row>
-    <row r="390" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A390" s="12"/>
-      <c r="B390" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C390" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D390" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E390" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F390" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G390" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H390" s="8" t="s">
-        <v>6</v>
-      </c>
+    <row r="390" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A390" s="6"/>
+      <c r="B390" s="14"/>
+      <c r="C390" s="14"/>
+      <c r="D390" s="15"/>
+      <c r="E390" s="16"/>
+      <c r="F390" s="15"/>
+      <c r="G390" s="15"/>
+      <c r="H390" s="15"/>
       <c r="I390" s="20"/>
       <c r="J390" s="19"/>
       <c r="K390" s="18"/>
@@ -23058,15 +23109,29 @@
       <c r="AF390" s="18"/>
       <c r="AG390" s="18"/>
     </row>
-    <row r="391" ht="43.5" customHeight="1" spans="1:33">
+    <row r="391" ht="47.25" customHeight="1" spans="1:33">
       <c r="A391" s="6"/>
-      <c r="B391" s="26"/>
-      <c r="C391" s="26"/>
-      <c r="D391" s="27"/>
-      <c r="E391" s="16"/>
-      <c r="F391" s="27"/>
-      <c r="G391" s="27"/>
-      <c r="H391" s="27"/>
+      <c r="B391" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="C391" s="14">
+        <v>1.33333333333333</v>
+      </c>
+      <c r="D391" s="15">
+        <v>0</v>
+      </c>
+      <c r="E391" s="16">
+        <v>10347347</v>
+      </c>
+      <c r="F391" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G391" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H391" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="I391" s="20"/>
       <c r="J391" s="19"/>
       <c r="K391" s="18"/>
@@ -23095,27 +23160,13 @@
     </row>
     <row r="392" ht="43.5" customHeight="1" spans="1:33">
       <c r="A392" s="6"/>
-      <c r="B392" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="C392" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="D392" s="27">
-        <v>1017467206</v>
-      </c>
-      <c r="E392" s="16">
-        <v>10270497</v>
-      </c>
-      <c r="F392" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="G392" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="H392" s="27" t="s">
-        <v>263</v>
-      </c>
+      <c r="B392" s="24"/>
+      <c r="C392" s="24"/>
+      <c r="D392" s="25"/>
+      <c r="E392" s="16"/>
+      <c r="F392" s="25"/>
+      <c r="G392" s="25"/>
+      <c r="H392" s="25"/>
       <c r="I392" s="20"/>
       <c r="J392" s="19"/>
       <c r="K392" s="18"/>
@@ -23144,13 +23195,27 @@
     </row>
     <row r="393" ht="43.5" customHeight="1" spans="1:33">
       <c r="A393" s="6"/>
-      <c r="B393" s="26"/>
-      <c r="C393" s="26"/>
-      <c r="D393" s="27"/>
-      <c r="E393" s="16"/>
-      <c r="F393" s="27"/>
-      <c r="G393" s="27"/>
-      <c r="H393" s="27"/>
+      <c r="B393" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="C393" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="D393" s="25">
+        <v>1017467206</v>
+      </c>
+      <c r="E393" s="16">
+        <v>10270497</v>
+      </c>
+      <c r="F393" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="G393" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="H393" s="25" t="s">
+        <v>263</v>
+      </c>
       <c r="I393" s="20"/>
       <c r="J393" s="19"/>
       <c r="K393" s="18"/>
@@ -23179,27 +23244,13 @@
     </row>
     <row r="394" ht="43.5" customHeight="1" spans="1:33">
       <c r="A394" s="6"/>
-      <c r="B394" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="C394" s="26">
-        <v>1.125</v>
-      </c>
-      <c r="D394" s="27">
-        <v>1008135243</v>
-      </c>
-      <c r="E394" s="16">
-        <v>10340418</v>
-      </c>
-      <c r="F394" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="G394" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H394" s="27" t="s">
-        <v>114</v>
-      </c>
+      <c r="B394" s="24"/>
+      <c r="C394" s="24"/>
+      <c r="D394" s="25"/>
+      <c r="E394" s="16"/>
+      <c r="F394" s="25"/>
+      <c r="G394" s="25"/>
+      <c r="H394" s="25"/>
       <c r="I394" s="20"/>
       <c r="J394" s="19"/>
       <c r="K394" s="18"/>
@@ -23228,26 +23279,26 @@
     </row>
     <row r="395" ht="43.5" customHeight="1" spans="1:33">
       <c r="A395" s="6"/>
-      <c r="B395" s="26">
+      <c r="B395" s="24">
         <v>0.75</v>
       </c>
-      <c r="C395" s="26">
-        <v>0.125</v>
-      </c>
-      <c r="D395" s="27">
-        <v>1121378981</v>
+      <c r="C395" s="24">
+        <v>1.125</v>
+      </c>
+      <c r="D395" s="25">
+        <v>1008135243</v>
       </c>
       <c r="E395" s="16">
-        <v>10308019</v>
-      </c>
-      <c r="F395" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="G395" s="27" t="s">
+        <v>10340418</v>
+      </c>
+      <c r="F395" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="G395" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H395" s="27" t="s">
-        <v>58</v>
+      <c r="H395" s="25" t="s">
+        <v>114</v>
       </c>
       <c r="I395" s="20"/>
       <c r="J395" s="19"/>
@@ -23277,13 +23328,27 @@
     </row>
     <row r="396" ht="43.5" customHeight="1" spans="1:33">
       <c r="A396" s="6"/>
-      <c r="B396" s="26"/>
-      <c r="C396" s="26"/>
-      <c r="D396" s="27"/>
-      <c r="E396" s="16"/>
-      <c r="F396" s="27"/>
-      <c r="G396" s="27"/>
-      <c r="H396" s="27"/>
+      <c r="B396" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="C396" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="D396" s="25">
+        <v>1121378981</v>
+      </c>
+      <c r="E396" s="16">
+        <v>10308019</v>
+      </c>
+      <c r="F396" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="G396" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H396" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="I396" s="20"/>
       <c r="J396" s="19"/>
       <c r="K396" s="18"/>
@@ -23312,27 +23377,13 @@
     </row>
     <row r="397" ht="43.5" customHeight="1" spans="1:33">
       <c r="A397" s="6"/>
-      <c r="B397" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="C397" s="26">
-        <v>0.125</v>
-      </c>
-      <c r="D397" s="27">
-        <v>1012348684</v>
-      </c>
-      <c r="E397" s="16">
-        <v>10335050</v>
-      </c>
-      <c r="F397" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="G397" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="H397" s="27" t="s">
-        <v>68</v>
-      </c>
+      <c r="B397" s="24"/>
+      <c r="C397" s="24"/>
+      <c r="D397" s="25"/>
+      <c r="E397" s="16"/>
+      <c r="F397" s="25"/>
+      <c r="G397" s="25"/>
+      <c r="H397" s="25"/>
       <c r="I397" s="20"/>
       <c r="J397" s="19"/>
       <c r="K397" s="18"/>
@@ -23361,13 +23412,27 @@
     </row>
     <row r="398" ht="43.5" customHeight="1" spans="1:33">
       <c r="A398" s="6"/>
-      <c r="B398" s="26"/>
-      <c r="C398" s="26"/>
-      <c r="D398" s="27"/>
-      <c r="E398" s="16"/>
-      <c r="F398" s="27"/>
-      <c r="G398" s="27"/>
-      <c r="H398" s="27"/>
+      <c r="B398" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="C398" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="D398" s="25">
+        <v>1012348684</v>
+      </c>
+      <c r="E398" s="16">
+        <v>10335050</v>
+      </c>
+      <c r="F398" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="G398" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H398" s="25" t="s">
+        <v>68</v>
+      </c>
       <c r="I398" s="20"/>
       <c r="J398" s="19"/>
       <c r="K398" s="18"/>
@@ -23396,27 +23461,13 @@
     </row>
     <row r="399" ht="43.5" customHeight="1" spans="1:33">
       <c r="A399" s="6"/>
-      <c r="B399" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="C399" s="26">
-        <v>0.125</v>
-      </c>
-      <c r="D399" s="27">
-        <v>0</v>
-      </c>
-      <c r="E399" s="16">
-        <v>10324552</v>
-      </c>
-      <c r="F399" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="G399" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="H399" s="27" t="s">
-        <v>389</v>
-      </c>
+      <c r="B399" s="24"/>
+      <c r="C399" s="24"/>
+      <c r="D399" s="25"/>
+      <c r="E399" s="16"/>
+      <c r="F399" s="25"/>
+      <c r="G399" s="25"/>
+      <c r="H399" s="25"/>
       <c r="I399" s="20"/>
       <c r="J399" s="19"/>
       <c r="K399" s="18"/>
@@ -23445,13 +23496,27 @@
     </row>
     <row r="400" ht="43.5" customHeight="1" spans="1:33">
       <c r="A400" s="6"/>
-      <c r="B400" s="26"/>
-      <c r="C400" s="26"/>
-      <c r="D400" s="27"/>
-      <c r="E400" s="16"/>
-      <c r="F400" s="27"/>
-      <c r="G400" s="27"/>
-      <c r="H400" s="27"/>
+      <c r="B400" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="C400" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="D400" s="25">
+        <v>0</v>
+      </c>
+      <c r="E400" s="16">
+        <v>10324552</v>
+      </c>
+      <c r="F400" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="G400" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="H400" s="25" t="s">
+        <v>395</v>
+      </c>
       <c r="I400" s="20"/>
       <c r="J400" s="19"/>
       <c r="K400" s="18"/>
@@ -23480,27 +23545,13 @@
     </row>
     <row r="401" ht="43.5" customHeight="1" spans="1:33">
       <c r="A401" s="6"/>
-      <c r="B401" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="C401" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="D401" s="27">
-        <v>1032492021</v>
-      </c>
-      <c r="E401" s="16">
-        <v>10341611</v>
-      </c>
-      <c r="F401" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="G401" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H401" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="B401" s="24"/>
+      <c r="C401" s="24"/>
+      <c r="D401" s="25"/>
+      <c r="E401" s="16"/>
+      <c r="F401" s="25"/>
+      <c r="G401" s="25"/>
+      <c r="H401" s="25"/>
       <c r="I401" s="20"/>
       <c r="J401" s="19"/>
       <c r="K401" s="18"/>
@@ -23529,26 +23580,26 @@
     </row>
     <row r="402" ht="43.5" customHeight="1" spans="1:33">
       <c r="A402" s="6"/>
-      <c r="B402" s="26">
+      <c r="B402" s="24">
         <v>0.75</v>
       </c>
-      <c r="C402" s="26">
-        <v>0.125</v>
-      </c>
-      <c r="D402" s="27">
-        <v>1284234931</v>
+      <c r="C402" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="D402" s="25">
+        <v>1032492021</v>
       </c>
       <c r="E402" s="16">
-        <v>10344274</v>
-      </c>
-      <c r="F402" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="G402" s="27" t="s">
+        <v>10341611</v>
+      </c>
+      <c r="F402" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="G402" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H402" s="27" t="s">
-        <v>132</v>
+      <c r="H402" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="I402" s="20"/>
       <c r="J402" s="19"/>
@@ -23578,13 +23629,27 @@
     </row>
     <row r="403" ht="43.5" customHeight="1" spans="1:33">
       <c r="A403" s="6"/>
-      <c r="B403" s="26"/>
-      <c r="C403" s="26"/>
-      <c r="D403" s="27"/>
-      <c r="E403" s="16"/>
-      <c r="F403" s="27"/>
-      <c r="G403" s="27"/>
-      <c r="H403" s="27"/>
+      <c r="B403" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="C403" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="D403" s="25">
+        <v>1284234931</v>
+      </c>
+      <c r="E403" s="16">
+        <v>10344274</v>
+      </c>
+      <c r="F403" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="G403" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H403" s="25" t="s">
+        <v>132</v>
+      </c>
       <c r="I403" s="20"/>
       <c r="J403" s="19"/>
       <c r="K403" s="18"/>
@@ -23613,27 +23678,13 @@
     </row>
     <row r="404" ht="43.5" customHeight="1" spans="1:33">
       <c r="A404" s="6"/>
-      <c r="B404" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="C404" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="D404" s="27">
-        <v>1091061813</v>
-      </c>
-      <c r="E404" s="16">
-        <v>10323448</v>
-      </c>
-      <c r="F404" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="G404" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H404" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="B404" s="24"/>
+      <c r="C404" s="24"/>
+      <c r="D404" s="25"/>
+      <c r="E404" s="16"/>
+      <c r="F404" s="25"/>
+      <c r="G404" s="25"/>
+      <c r="H404" s="25"/>
       <c r="I404" s="20"/>
       <c r="J404" s="19"/>
       <c r="K404" s="18"/>
@@ -23662,25 +23713,25 @@
     </row>
     <row r="405" ht="43.5" customHeight="1" spans="1:33">
       <c r="A405" s="6"/>
-      <c r="B405" s="26">
+      <c r="B405" s="24">
         <v>0.75</v>
       </c>
-      <c r="C405" s="26">
+      <c r="C405" s="24">
         <v>1.25</v>
       </c>
-      <c r="D405" s="27">
-        <v>1044822349</v>
+      <c r="D405" s="25">
+        <v>1091061813</v>
       </c>
       <c r="E405" s="16">
-        <v>10341595</v>
-      </c>
-      <c r="F405" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="G405" s="27" t="s">
+        <v>10323448</v>
+      </c>
+      <c r="F405" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="G405" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H405" s="27" t="s">
+      <c r="H405" s="25" t="s">
         <v>55</v>
       </c>
       <c r="I405" s="20"/>
@@ -23711,26 +23762,26 @@
     </row>
     <row r="406" ht="43.5" customHeight="1" spans="1:33">
       <c r="A406" s="6"/>
-      <c r="B406" s="26">
+      <c r="B406" s="24">
         <v>0.75</v>
       </c>
-      <c r="C406" s="26">
-        <v>1.29166666666667</v>
-      </c>
-      <c r="D406" s="27">
-        <v>1095204998</v>
+      <c r="C406" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="D406" s="25">
+        <v>1044822349</v>
       </c>
       <c r="E406" s="16">
-        <v>10344242</v>
-      </c>
-      <c r="F406" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="G406" s="27" t="s">
+        <v>10341595</v>
+      </c>
+      <c r="F406" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="G406" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H406" s="27" t="s">
-        <v>141</v>
+      <c r="H406" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="I406" s="20"/>
       <c r="J406" s="19"/>
@@ -23760,25 +23811,25 @@
     </row>
     <row r="407" ht="43.5" customHeight="1" spans="1:33">
       <c r="A407" s="6"/>
-      <c r="B407" s="26">
+      <c r="B407" s="24">
         <v>0.75</v>
       </c>
-      <c r="C407" s="26">
+      <c r="C407" s="24">
         <v>1.125</v>
       </c>
-      <c r="D407" s="27">
+      <c r="D407" s="25">
         <v>1004911039</v>
       </c>
       <c r="E407" s="16">
         <v>10344279</v>
       </c>
-      <c r="F407" s="27" t="s">
+      <c r="F407" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="G407" s="27" t="s">
+      <c r="G407" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H407" s="27" t="s">
+      <c r="H407" s="25" t="s">
         <v>143</v>
       </c>
       <c r="I407" s="20"/>
@@ -23809,25 +23860,25 @@
     </row>
     <row r="408" ht="43.5" customHeight="1" spans="1:33">
       <c r="A408" s="6"/>
-      <c r="B408" s="26">
+      <c r="B408" s="24">
         <v>0.75</v>
       </c>
-      <c r="C408" s="26">
+      <c r="C408" s="24">
         <v>1.25</v>
       </c>
-      <c r="D408" s="27">
+      <c r="D408" s="25">
         <v>1099884506</v>
       </c>
       <c r="E408" s="16">
         <v>10346886</v>
       </c>
-      <c r="F408" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="G408" s="27" t="s">
+      <c r="F408" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="G408" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H408" s="27" t="s">
+      <c r="H408" s="25" t="s">
         <v>141</v>
       </c>
       <c r="I408" s="20"/>
@@ -23858,27 +23909,13 @@
     </row>
     <row r="409" ht="43.5" customHeight="1" spans="1:33">
       <c r="A409" s="6"/>
-      <c r="B409" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="C409" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D409" s="27">
-        <v>1155829737</v>
-      </c>
-      <c r="E409" s="16">
-        <v>10347259</v>
-      </c>
-      <c r="F409" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="G409" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H409" s="27" t="s">
-        <v>141</v>
-      </c>
+      <c r="B409" s="24"/>
+      <c r="C409" s="24"/>
+      <c r="D409" s="25"/>
+      <c r="E409" s="16"/>
+      <c r="F409" s="25"/>
+      <c r="G409" s="25"/>
+      <c r="H409" s="25"/>
       <c r="I409" s="20"/>
       <c r="J409" s="19"/>
       <c r="K409" s="18"/>
@@ -23907,13 +23944,27 @@
     </row>
     <row r="410" ht="43.5" customHeight="1" spans="1:33">
       <c r="A410" s="6"/>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
-      <c r="D410" s="27"/>
-      <c r="E410" s="16"/>
-      <c r="F410" s="27"/>
-      <c r="G410" s="27"/>
-      <c r="H410" s="27"/>
+      <c r="B410" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="C410" s="24">
+        <v>1.125</v>
+      </c>
+      <c r="D410" s="25">
+        <v>1555073993</v>
+      </c>
+      <c r="E410" s="16">
+        <v>10339759</v>
+      </c>
+      <c r="F410" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="G410" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H410" s="25" t="s">
+        <v>148</v>
+      </c>
       <c r="I410" s="20"/>
       <c r="J410" s="19"/>
       <c r="K410" s="18"/>
@@ -23942,27 +23993,13 @@
     </row>
     <row r="411" ht="43.5" customHeight="1" spans="1:33">
       <c r="A411" s="6"/>
-      <c r="B411" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="C411" s="26">
-        <v>1.125</v>
-      </c>
-      <c r="D411" s="27">
-        <v>1555073993</v>
-      </c>
-      <c r="E411" s="16">
-        <v>10339759</v>
-      </c>
-      <c r="F411" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="G411" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="H411" s="27" t="s">
-        <v>148</v>
-      </c>
+      <c r="B411" s="24"/>
+      <c r="C411" s="24"/>
+      <c r="D411" s="25"/>
+      <c r="E411" s="16"/>
+      <c r="F411" s="25"/>
+      <c r="G411" s="25"/>
+      <c r="H411" s="25"/>
       <c r="I411" s="20"/>
       <c r="J411" s="19"/>
       <c r="K411" s="18"/>
@@ -23991,13 +24028,27 @@
     </row>
     <row r="412" ht="43.5" customHeight="1" spans="1:33">
       <c r="A412" s="6"/>
-      <c r="B412" s="26"/>
-      <c r="C412" s="26"/>
-      <c r="D412" s="27"/>
-      <c r="E412" s="16"/>
-      <c r="F412" s="27"/>
-      <c r="G412" s="27"/>
-      <c r="H412" s="27"/>
+      <c r="B412" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="C412" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="D412" s="25">
+        <v>1555036873</v>
+      </c>
+      <c r="E412" s="16">
+        <v>10317235</v>
+      </c>
+      <c r="F412" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="G412" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H412" s="25" t="s">
+        <v>150</v>
+      </c>
       <c r="I412" s="20"/>
       <c r="J412" s="19"/>
       <c r="K412" s="18"/>
@@ -24026,26 +24077,26 @@
     </row>
     <row r="413" ht="43.5" customHeight="1" spans="1:33">
       <c r="A413" s="6"/>
-      <c r="B413" s="26">
+      <c r="B413" s="24">
         <v>0.75</v>
       </c>
-      <c r="C413" s="26">
+      <c r="C413" s="24">
         <v>1.25</v>
       </c>
-      <c r="D413" s="27">
-        <v>1555036873</v>
+      <c r="D413" s="25">
+        <v>1145149773</v>
       </c>
       <c r="E413" s="16">
-        <v>10317235</v>
-      </c>
-      <c r="F413" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="G413" s="27" t="s">
+        <v>10344235</v>
+      </c>
+      <c r="F413" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="G413" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H413" s="27" t="s">
-        <v>150</v>
+      <c r="H413" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="I413" s="20"/>
       <c r="J413" s="19"/>
@@ -24075,25 +24126,25 @@
     </row>
     <row r="414" ht="43.5" customHeight="1" spans="1:33">
       <c r="A414" s="6"/>
-      <c r="B414" s="26">
+      <c r="B414" s="24">
         <v>0.75</v>
       </c>
-      <c r="C414" s="26">
+      <c r="C414" s="24">
         <v>1.25</v>
       </c>
-      <c r="D414" s="27">
-        <v>1145149773</v>
+      <c r="D414" s="25">
+        <v>1551584488</v>
       </c>
       <c r="E414" s="16">
-        <v>10344235</v>
-      </c>
-      <c r="F414" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="G414" s="27" t="s">
+        <v>10344250</v>
+      </c>
+      <c r="F414" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="G414" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H414" s="27" t="s">
+      <c r="H414" s="25" t="s">
         <v>49</v>
       </c>
       <c r="I414" s="20"/>
@@ -24124,29 +24175,31 @@
     </row>
     <row r="415" ht="43.5" customHeight="1" spans="1:33">
       <c r="A415" s="6"/>
-      <c r="B415" s="26">
+      <c r="B415" s="14">
         <v>0.75</v>
       </c>
-      <c r="C415" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="D415" s="27">
-        <v>1551584488</v>
+      <c r="C415" s="14">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D415" s="15">
+        <v>1094190472</v>
       </c>
       <c r="E415" s="16">
-        <v>10344250</v>
-      </c>
-      <c r="F415" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="G415" s="27" t="s">
+        <v>10345545</v>
+      </c>
+      <c r="F415" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="G415" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H415" s="27" t="s">
-        <v>49</v>
+      <c r="H415" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="I415" s="20"/>
-      <c r="J415" s="19"/>
+      <c r="J415" s="19" t="s">
+        <v>383</v>
+      </c>
       <c r="K415" s="18"/>
       <c r="L415" s="18"/>
       <c r="M415" s="18"/>
@@ -24173,13 +24226,13 @@
     </row>
     <row r="416" ht="43.5" customHeight="1" spans="1:33">
       <c r="A416" s="6"/>
-      <c r="B416" s="26"/>
-      <c r="C416" s="26"/>
-      <c r="D416" s="27"/>
+      <c r="B416" s="24"/>
+      <c r="C416" s="24"/>
+      <c r="D416" s="25"/>
       <c r="E416" s="16"/>
-      <c r="F416" s="27"/>
-      <c r="G416" s="27"/>
-      <c r="H416" s="27"/>
+      <c r="F416" s="25"/>
+      <c r="G416" s="25"/>
+      <c r="H416" s="25"/>
       <c r="I416" s="20"/>
       <c r="J416" s="19"/>
       <c r="K416" s="18"/>
@@ -24208,25 +24261,25 @@
     </row>
     <row r="417" ht="43.5" customHeight="1" spans="1:33">
       <c r="A417" s="6"/>
-      <c r="B417" s="26">
+      <c r="B417" s="24">
         <v>0.75</v>
       </c>
-      <c r="C417" s="26">
+      <c r="C417" s="24">
         <v>0.125</v>
       </c>
-      <c r="D417" s="27">
+      <c r="D417" s="25">
         <v>1065421169</v>
       </c>
       <c r="E417" s="16">
         <v>10331020</v>
       </c>
-      <c r="F417" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="G417" s="27" t="s">
+      <c r="F417" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="G417" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="H417" s="27" t="s">
+      <c r="H417" s="25" t="s">
         <v>107</v>
       </c>
       <c r="I417" s="20"/>
@@ -24257,25 +24310,25 @@
     </row>
     <row r="418" ht="43.5" customHeight="1" spans="1:33">
       <c r="A418" s="6"/>
-      <c r="B418" s="26">
+      <c r="B418" s="24">
         <v>0.75</v>
       </c>
-      <c r="C418" s="26">
+      <c r="C418" s="24">
         <v>1.125</v>
       </c>
-      <c r="D418" s="27">
+      <c r="D418" s="25">
         <v>1123084929</v>
       </c>
       <c r="E418" s="16">
         <v>10331204</v>
       </c>
-      <c r="F418" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="G418" s="27" t="s">
+      <c r="F418" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="G418" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H418" s="27" t="s">
+      <c r="H418" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I418" s="20"/>
@@ -24306,13 +24359,13 @@
     </row>
     <row r="419" ht="43.5" customHeight="1" spans="1:33">
       <c r="A419" s="6"/>
-      <c r="B419" s="26"/>
-      <c r="C419" s="26"/>
-      <c r="D419" s="27"/>
+      <c r="B419" s="24"/>
+      <c r="C419" s="24"/>
+      <c r="D419" s="25"/>
       <c r="E419" s="16"/>
-      <c r="F419" s="27"/>
-      <c r="G419" s="27"/>
-      <c r="H419" s="27"/>
+      <c r="F419" s="25"/>
+      <c r="G419" s="25"/>
+      <c r="H419" s="25"/>
       <c r="I419" s="20"/>
       <c r="J419" s="19"/>
       <c r="K419" s="18"/>
@@ -24475,7 +24528,7 @@
         <v>10333398</v>
       </c>
       <c r="F423" s="15" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="G423" s="15" t="s">
         <v>67</v>
@@ -24550,22 +24603,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C425" s="14">
-        <v>1.29166666666667</v>
-      </c>
-      <c r="D425" s="15">
-        <v>1285622455</v>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D425" s="15" t="s">
+        <v>409</v>
       </c>
       <c r="E425" s="16">
-        <v>10344307</v>
+        <v>10320240</v>
       </c>
       <c r="F425" s="15" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="G425" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H425" s="15" t="s">
-        <v>134</v>
+        <v>73</v>
+      </c>
+      <c r="H425" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="I425" s="20"/>
       <c r="J425" s="19"/>
@@ -24637,19 +24690,19 @@
         <v>1.29166666666667</v>
       </c>
       <c r="D427" s="15">
-        <v>1270864338</v>
+        <v>1285622455</v>
       </c>
       <c r="E427" s="16">
-        <v>10347997</v>
+        <v>10344307</v>
       </c>
       <c r="F427" s="15" t="s">
-        <v>278</v>
+        <v>411</v>
       </c>
       <c r="G427" s="15" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H427" s="15" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="I427" s="20"/>
       <c r="J427" s="19"/>
@@ -24721,19 +24774,19 @@
         <v>1.29166666666667</v>
       </c>
       <c r="D429" s="15">
-        <v>1024271525</v>
+        <v>1270864338</v>
       </c>
       <c r="E429" s="16">
-        <v>10347004</v>
+        <v>10347997</v>
       </c>
       <c r="F429" s="15" t="s">
-        <v>405</v>
+        <v>278</v>
       </c>
       <c r="G429" s="15" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H429" s="15" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="I429" s="20"/>
       <c r="J429" s="19"/>
@@ -24796,17 +24849,29 @@
       <c r="AF430" s="18"/>
       <c r="AG430" s="18"/>
     </row>
-    <row r="431" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A431" s="9">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="B431" s="10"/>
-      <c r="C431" s="10"/>
-      <c r="D431" s="10"/>
-      <c r="E431" s="11"/>
-      <c r="F431" s="10"/>
-      <c r="G431" s="10"/>
-      <c r="H431" s="10"/>
+    <row r="431" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A431" s="6"/>
+      <c r="B431" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C431" s="14">
+        <v>1.29166666666667</v>
+      </c>
+      <c r="D431" s="15">
+        <v>1024271525</v>
+      </c>
+      <c r="E431" s="16">
+        <v>10347004</v>
+      </c>
+      <c r="F431" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="G431" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H431" s="15" t="s">
+        <v>112</v>
+      </c>
       <c r="I431" s="20"/>
       <c r="J431" s="19"/>
       <c r="K431" s="18"/>
@@ -24834,28 +24899,14 @@
       <c r="AG431" s="18"/>
     </row>
     <row r="432" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A432" s="12"/>
-      <c r="B432" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C432" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D432" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E432" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F432" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G432" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H432" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="A432" s="6"/>
+      <c r="B432" s="14"/>
+      <c r="C432" s="14"/>
+      <c r="D432" s="15"/>
+      <c r="E432" s="16"/>
+      <c r="F432" s="15"/>
+      <c r="G432" s="15"/>
+      <c r="H432" s="15"/>
       <c r="I432" s="20"/>
       <c r="J432" s="19"/>
       <c r="K432" s="18"/>
@@ -24882,15 +24933,17 @@
       <c r="AF432" s="18"/>
       <c r="AG432" s="18"/>
     </row>
-    <row r="433" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A433" s="6"/>
-      <c r="B433" s="14"/>
-      <c r="C433" s="14"/>
-      <c r="D433" s="15"/>
-      <c r="E433" s="16"/>
-      <c r="F433" s="15"/>
-      <c r="G433" s="15"/>
-      <c r="H433" s="15"/>
+    <row r="433" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A433" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="B433" s="10"/>
+      <c r="C433" s="10"/>
+      <c r="D433" s="10"/>
+      <c r="E433" s="11"/>
+      <c r="F433" s="10"/>
+      <c r="G433" s="10"/>
+      <c r="H433" s="10"/>
       <c r="I433" s="20"/>
       <c r="J433" s="19"/>
       <c r="K433" s="18"/>
@@ -24917,28 +24970,28 @@
       <c r="AF433" s="18"/>
       <c r="AG433" s="18"/>
     </row>
-    <row r="434" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A434" s="6"/>
-      <c r="B434" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C434" s="14">
-        <v>1.20833333333333</v>
-      </c>
-      <c r="D434" s="15">
-        <v>1004402706</v>
-      </c>
-      <c r="E434" s="16">
-        <v>10344755</v>
-      </c>
-      <c r="F434" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="G434" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H434" s="15" t="s">
-        <v>114</v>
+    <row r="434" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A434" s="12"/>
+      <c r="B434" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C434" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D434" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E434" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F434" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G434" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H434" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="I434" s="20"/>
       <c r="J434" s="19"/>
@@ -24968,27 +25021,13 @@
     </row>
     <row r="435" ht="47.25" customHeight="1" spans="1:33">
       <c r="A435" s="6"/>
-      <c r="B435" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C435" s="14">
-        <v>1.20833333333333</v>
-      </c>
-      <c r="D435" s="15">
-        <v>1277749159</v>
-      </c>
-      <c r="E435" s="16">
-        <v>10346382</v>
-      </c>
-      <c r="F435" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="G435" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H435" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="B435" s="14"/>
+      <c r="C435" s="14"/>
+      <c r="D435" s="15"/>
+      <c r="E435" s="16"/>
+      <c r="F435" s="15"/>
+      <c r="G435" s="15"/>
+      <c r="H435" s="15"/>
       <c r="I435" s="20"/>
       <c r="J435" s="19"/>
       <c r="K435" s="18"/>
@@ -25017,13 +25056,27 @@
     </row>
     <row r="436" ht="47.25" customHeight="1" spans="1:33">
       <c r="A436" s="6"/>
-      <c r="B436" s="14"/>
-      <c r="C436" s="14"/>
-      <c r="D436" s="15"/>
-      <c r="E436" s="16"/>
-      <c r="F436" s="15"/>
-      <c r="G436" s="15"/>
-      <c r="H436" s="15"/>
+      <c r="B436" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C436" s="14">
+        <v>1.20833333333333</v>
+      </c>
+      <c r="D436" s="15">
+        <v>1004402706</v>
+      </c>
+      <c r="E436" s="16">
+        <v>10344755</v>
+      </c>
+      <c r="F436" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G436" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H436" s="15" t="s">
+        <v>114</v>
+      </c>
       <c r="I436" s="20"/>
       <c r="J436" s="19"/>
       <c r="K436" s="18"/>
@@ -25056,22 +25109,22 @@
         <v>0.833333333333333</v>
       </c>
       <c r="C437" s="14">
-        <v>0.208333333333333</v>
+        <v>1.20833333333333</v>
       </c>
       <c r="D437" s="15">
-        <v>1001519732</v>
+        <v>1277749159</v>
       </c>
       <c r="E437" s="16">
-        <v>10326463</v>
+        <v>10346382</v>
       </c>
       <c r="F437" s="15" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="G437" s="15" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H437" s="15" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I437" s="20"/>
       <c r="J437" s="19"/>
@@ -25140,22 +25193,22 @@
         <v>0.833333333333333</v>
       </c>
       <c r="C439" s="14">
-        <v>1.20833333333333</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="D439" s="15">
-        <v>1098356001</v>
+        <v>1001519732</v>
       </c>
       <c r="E439" s="16">
-        <v>10347015</v>
+        <v>10326463</v>
       </c>
       <c r="F439" s="15" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G439" s="15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H439" s="15" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="I439" s="20"/>
       <c r="J439" s="19"/>
@@ -25185,27 +25238,13 @@
     </row>
     <row r="440" ht="47.25" customHeight="1" spans="1:33">
       <c r="A440" s="6"/>
-      <c r="B440" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C440" s="14">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="D440" s="15">
-        <v>1033206100</v>
-      </c>
-      <c r="E440" s="16">
-        <v>10322714</v>
-      </c>
-      <c r="F440" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="G440" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H440" s="15" t="s">
-        <v>241</v>
-      </c>
+      <c r="B440" s="14"/>
+      <c r="C440" s="14"/>
+      <c r="D440" s="15"/>
+      <c r="E440" s="16"/>
+      <c r="F440" s="15"/>
+      <c r="G440" s="15"/>
+      <c r="H440" s="15"/>
       <c r="I440" s="20"/>
       <c r="J440" s="19"/>
       <c r="K440" s="18"/>
@@ -25234,13 +25273,27 @@
     </row>
     <row r="441" ht="47.25" customHeight="1" spans="1:33">
       <c r="A441" s="6"/>
-      <c r="B441" s="14"/>
-      <c r="C441" s="14"/>
-      <c r="D441" s="15"/>
-      <c r="E441" s="16"/>
-      <c r="F441" s="15"/>
-      <c r="G441" s="15"/>
-      <c r="H441" s="15"/>
+      <c r="B441" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C441" s="14">
+        <v>1.20833333333333</v>
+      </c>
+      <c r="D441" s="15">
+        <v>1098356001</v>
+      </c>
+      <c r="E441" s="16">
+        <v>10347015</v>
+      </c>
+      <c r="F441" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="G441" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H441" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="I441" s="20"/>
       <c r="J441" s="19"/>
       <c r="K441" s="18"/>
@@ -25273,22 +25326,22 @@
         <v>0.833333333333333</v>
       </c>
       <c r="C442" s="14">
-        <v>1.20833333333333</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="D442" s="15">
-        <v>1091324859</v>
+        <v>1033206100</v>
       </c>
       <c r="E442" s="16">
-        <v>10347007</v>
+        <v>10322714</v>
       </c>
       <c r="F442" s="15" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="G442" s="15" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H442" s="15" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="I442" s="20"/>
       <c r="J442" s="19"/>
@@ -25318,27 +25371,13 @@
     </row>
     <row r="443" ht="47.25" customHeight="1" spans="1:33">
       <c r="A443" s="6"/>
-      <c r="B443" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C443" s="14">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="D443" s="15">
-        <v>1110689559</v>
-      </c>
-      <c r="E443" s="16">
-        <v>10316740</v>
-      </c>
-      <c r="F443" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="G443" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H443" s="15" t="s">
-        <v>150</v>
-      </c>
+      <c r="B443" s="14"/>
+      <c r="C443" s="14"/>
+      <c r="D443" s="15"/>
+      <c r="E443" s="16"/>
+      <c r="F443" s="15"/>
+      <c r="G443" s="15"/>
+      <c r="H443" s="15"/>
       <c r="I443" s="20"/>
       <c r="J443" s="19"/>
       <c r="K443" s="18"/>
@@ -25371,22 +25410,22 @@
         <v>0.833333333333333</v>
       </c>
       <c r="C444" s="14">
-        <v>0.208333333333333</v>
+        <v>1.20833333333333</v>
       </c>
       <c r="D444" s="15">
-        <v>1102766064</v>
+        <v>1091324859</v>
       </c>
       <c r="E444" s="16">
-        <v>10327950</v>
+        <v>10347007</v>
       </c>
       <c r="F444" s="15" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="G444" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H444" s="15" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I444" s="20"/>
       <c r="J444" s="19"/>
@@ -25416,13 +25455,27 @@
     </row>
     <row r="445" ht="47.25" customHeight="1" spans="1:33">
       <c r="A445" s="6"/>
-      <c r="B445" s="14"/>
-      <c r="C445" s="14"/>
-      <c r="D445" s="15"/>
-      <c r="E445" s="16"/>
-      <c r="F445" s="15"/>
-      <c r="G445" s="15"/>
-      <c r="H445" s="15"/>
+      <c r="B445" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C445" s="14">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="D445" s="15">
+        <v>1110689559</v>
+      </c>
+      <c r="E445" s="16">
+        <v>10316740</v>
+      </c>
+      <c r="F445" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="G445" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H445" s="15" t="s">
+        <v>150</v>
+      </c>
       <c r="I445" s="20"/>
       <c r="J445" s="19"/>
       <c r="K445" s="18"/>
@@ -25455,22 +25508,22 @@
         <v>0.833333333333333</v>
       </c>
       <c r="C446" s="14">
-        <v>0.333333333333333</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="D446" s="15">
-        <v>1287028152</v>
+        <v>1102766064</v>
       </c>
       <c r="E446" s="16">
-        <v>10316787</v>
+        <v>10327950</v>
       </c>
       <c r="F446" s="15" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="G446" s="15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H446" s="15" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="I446" s="20"/>
       <c r="J446" s="19"/>
@@ -25533,17 +25586,29 @@
       <c r="AF447" s="18"/>
       <c r="AG447" s="18"/>
     </row>
-    <row r="448" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A448" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="B448" s="10"/>
-      <c r="C448" s="10"/>
-      <c r="D448" s="10"/>
-      <c r="E448" s="11"/>
-      <c r="F448" s="10"/>
-      <c r="G448" s="10"/>
-      <c r="H448" s="10"/>
+    <row r="448" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A448" s="6"/>
+      <c r="B448" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C448" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D448" s="15">
+        <v>1287028152</v>
+      </c>
+      <c r="E448" s="16">
+        <v>10316787</v>
+      </c>
+      <c r="F448" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="G448" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H448" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="I448" s="20"/>
       <c r="J448" s="19"/>
       <c r="K448" s="18"/>
@@ -25570,29 +25635,15 @@
       <c r="AF448" s="18"/>
       <c r="AG448" s="18"/>
     </row>
-    <row r="449" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A449" s="9"/>
-      <c r="B449" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C449" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D449" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E449" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F449" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G449" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H449" s="8" t="s">
-        <v>6</v>
-      </c>
+    <row r="449" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A449" s="6"/>
+      <c r="B449" s="14"/>
+      <c r="C449" s="14"/>
+      <c r="D449" s="15"/>
+      <c r="E449" s="16"/>
+      <c r="F449" s="15"/>
+      <c r="G449" s="15"/>
+      <c r="H449" s="15"/>
       <c r="I449" s="20"/>
       <c r="J449" s="19"/>
       <c r="K449" s="18"/>
@@ -25619,15 +25670,17 @@
       <c r="AF449" s="18"/>
       <c r="AG449" s="18"/>
     </row>
-    <row r="450" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A450" s="6"/>
-      <c r="B450" s="14"/>
-      <c r="C450" s="14"/>
-      <c r="D450" s="15"/>
-      <c r="E450" s="16"/>
-      <c r="F450" s="15"/>
-      <c r="G450" s="15"/>
-      <c r="H450" s="15"/>
+    <row r="450" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A450" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="B450" s="10"/>
+      <c r="C450" s="10"/>
+      <c r="D450" s="10"/>
+      <c r="E450" s="11"/>
+      <c r="F450" s="10"/>
+      <c r="G450" s="10"/>
+      <c r="H450" s="10"/>
       <c r="I450" s="20"/>
       <c r="J450" s="19"/>
       <c r="K450" s="18"/>
@@ -25654,28 +25707,28 @@
       <c r="AF450" s="18"/>
       <c r="AG450" s="18"/>
     </row>
-    <row r="451" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A451" s="6"/>
-      <c r="B451" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C451" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D451" s="15">
-        <v>1091172333</v>
-      </c>
-      <c r="E451" s="16">
-        <v>10347609</v>
-      </c>
-      <c r="F451" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="G451" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H451" s="15" t="s">
-        <v>116</v>
+    <row r="451" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A451" s="9"/>
+      <c r="B451" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C451" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D451" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E451" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F451" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G451" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H451" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="I451" s="20"/>
       <c r="J451" s="19"/>
@@ -25705,27 +25758,13 @@
     </row>
     <row r="452" ht="47.25" customHeight="1" spans="1:33">
       <c r="A452" s="6"/>
-      <c r="B452" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C452" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D452" s="15">
-        <v>1020340671</v>
-      </c>
-      <c r="E452" s="16">
-        <v>10347646</v>
-      </c>
-      <c r="F452" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="G452" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H452" s="15" t="s">
-        <v>58</v>
-      </c>
+      <c r="B452" s="14"/>
+      <c r="C452" s="14"/>
+      <c r="D452" s="15"/>
+      <c r="E452" s="16"/>
+      <c r="F452" s="15"/>
+      <c r="G452" s="15"/>
+      <c r="H452" s="15"/>
       <c r="I452" s="20"/>
       <c r="J452" s="19"/>
       <c r="K452" s="18"/>
@@ -25754,13 +25793,27 @@
     </row>
     <row r="453" ht="47.25" customHeight="1" spans="1:33">
       <c r="A453" s="6"/>
-      <c r="B453" s="14"/>
-      <c r="C453" s="14"/>
-      <c r="D453" s="15"/>
-      <c r="E453" s="16"/>
-      <c r="F453" s="15"/>
-      <c r="G453" s="15"/>
-      <c r="H453" s="15"/>
+      <c r="B453" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C453" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D453" s="15">
+        <v>1091172333</v>
+      </c>
+      <c r="E453" s="16">
+        <v>10347609</v>
+      </c>
+      <c r="F453" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="G453" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H453" s="15" t="s">
+        <v>116</v>
+      </c>
       <c r="I453" s="20"/>
       <c r="J453" s="19"/>
       <c r="K453" s="18"/>
@@ -25793,22 +25846,22 @@
         <v>0.875</v>
       </c>
       <c r="C454" s="14">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="D454" s="15">
-        <v>1104380295</v>
+        <v>1020340671</v>
       </c>
       <c r="E454" s="16">
-        <v>10347991</v>
+        <v>10347646</v>
       </c>
       <c r="F454" s="15" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="G454" s="15" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H454" s="15" t="s">
-        <v>418</v>
+        <v>58</v>
       </c>
       <c r="I454" s="20"/>
       <c r="J454" s="19"/>
@@ -25877,22 +25930,22 @@
         <v>0.875</v>
       </c>
       <c r="C456" s="14">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="D456" s="15">
-        <v>1004919775</v>
+        <v>1104380295</v>
       </c>
       <c r="E456" s="16">
-        <v>10347219</v>
+        <v>10347991</v>
       </c>
       <c r="F456" s="15" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="G456" s="15" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="H456" s="15" t="s">
-        <v>55</v>
+        <v>425</v>
       </c>
       <c r="I456" s="20"/>
       <c r="J456" s="19"/>
@@ -25922,27 +25975,13 @@
     </row>
     <row r="457" ht="47.25" customHeight="1" spans="1:33">
       <c r="A457" s="6"/>
-      <c r="B457" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C457" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D457" s="15">
-        <v>1555693374</v>
-      </c>
-      <c r="E457" s="16">
-        <v>10347601</v>
-      </c>
-      <c r="F457" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="G457" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H457" s="15" t="s">
-        <v>141</v>
-      </c>
+      <c r="B457" s="14"/>
+      <c r="C457" s="14"/>
+      <c r="D457" s="15"/>
+      <c r="E457" s="16"/>
+      <c r="F457" s="15"/>
+      <c r="G457" s="15"/>
+      <c r="H457" s="15"/>
       <c r="I457" s="20"/>
       <c r="J457" s="19"/>
       <c r="K457" s="18"/>
@@ -25978,13 +26017,13 @@
         <v>1.25</v>
       </c>
       <c r="D458" s="15">
-        <v>1093300936</v>
+        <v>1004919775</v>
       </c>
       <c r="E458" s="16">
-        <v>10347607</v>
+        <v>10347219</v>
       </c>
       <c r="F458" s="15" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="G458" s="15" t="s">
         <v>37</v>
@@ -26027,19 +26066,19 @@
         <v>1.25</v>
       </c>
       <c r="D459" s="15">
-        <v>1013996057</v>
+        <v>1093300936</v>
       </c>
       <c r="E459" s="16">
-        <v>10347993</v>
+        <v>10347607</v>
       </c>
       <c r="F459" s="15" t="s">
-        <v>57</v>
+        <v>427</v>
       </c>
       <c r="G459" s="15" t="s">
         <v>37</v>
       </c>
       <c r="H459" s="15" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="I459" s="20"/>
       <c r="J459" s="19"/>
@@ -26076,19 +26115,19 @@
         <v>1.25</v>
       </c>
       <c r="D460" s="15">
-        <v>11567115272</v>
+        <v>1013996057</v>
       </c>
       <c r="E460" s="16">
-        <v>10348227</v>
+        <v>10347993</v>
       </c>
       <c r="F460" s="15" t="s">
-        <v>422</v>
+        <v>57</v>
       </c>
       <c r="G460" s="15" t="s">
         <v>37</v>
       </c>
       <c r="H460" s="15" t="s">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="I460" s="20"/>
       <c r="J460" s="19"/>
@@ -26118,13 +26157,27 @@
     </row>
     <row r="461" ht="47.25" customHeight="1" spans="1:33">
       <c r="A461" s="6"/>
-      <c r="B461" s="14"/>
-      <c r="C461" s="14"/>
-      <c r="D461" s="15"/>
-      <c r="E461" s="16"/>
-      <c r="F461" s="15"/>
-      <c r="G461" s="15"/>
-      <c r="H461" s="15"/>
+      <c r="B461" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C461" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D461" s="15">
+        <v>11567115272</v>
+      </c>
+      <c r="E461" s="16">
+        <v>10348227</v>
+      </c>
+      <c r="F461" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="G461" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H461" s="15" t="s">
+        <v>241</v>
+      </c>
       <c r="I461" s="20"/>
       <c r="J461" s="19"/>
       <c r="K461" s="18"/>
@@ -26153,27 +26206,13 @@
     </row>
     <row r="462" ht="47.25" customHeight="1" spans="1:33">
       <c r="A462" s="6"/>
-      <c r="B462" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C462" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D462" s="15">
-        <v>1222696146</v>
-      </c>
-      <c r="E462" s="16">
-        <v>10347605</v>
-      </c>
-      <c r="F462" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="G462" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H462" s="15" t="s">
-        <v>209</v>
-      </c>
+      <c r="B462" s="14"/>
+      <c r="C462" s="14"/>
+      <c r="D462" s="15"/>
+      <c r="E462" s="16"/>
+      <c r="F462" s="15"/>
+      <c r="G462" s="15"/>
+      <c r="H462" s="15"/>
       <c r="I462" s="20"/>
       <c r="J462" s="19"/>
       <c r="K462" s="18"/>
@@ -26209,13 +26248,13 @@
         <v>1.25</v>
       </c>
       <c r="D463" s="15">
-        <v>1228798735</v>
+        <v>1222696146</v>
       </c>
       <c r="E463" s="16">
-        <v>10347758</v>
+        <v>10347605</v>
       </c>
       <c r="F463" s="15" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="G463" s="15" t="s">
         <v>15</v>
@@ -26264,13 +26303,13 @@
         <v>10348054</v>
       </c>
       <c r="F464" s="15" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="G464" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H464" s="15" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="I464" s="20"/>
       <c r="J464" s="19"/>
@@ -26298,17 +26337,33 @@
       <c r="AF464" s="18"/>
       <c r="AG464" s="18"/>
     </row>
-    <row r="465" ht="47.25" customHeight="1" spans="1:33">
+    <row r="465" ht="42" customHeight="1" spans="1:33">
       <c r="A465" s="6"/>
-      <c r="B465" s="14"/>
-      <c r="C465" s="14"/>
-      <c r="D465" s="15"/>
-      <c r="E465" s="16"/>
-      <c r="F465" s="15"/>
-      <c r="G465" s="15"/>
-      <c r="H465" s="15"/>
+      <c r="B465" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C465" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D465" s="15">
+        <v>1050623708</v>
+      </c>
+      <c r="E465" s="16">
+        <v>10306605</v>
+      </c>
+      <c r="F465" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="G465" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H465" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="I465" s="20"/>
-      <c r="J465" s="19"/>
+      <c r="J465" s="19" t="s">
+        <v>369</v>
+      </c>
       <c r="K465" s="18"/>
       <c r="L465" s="18"/>
       <c r="M465" s="18"/>
@@ -26335,27 +26390,13 @@
     </row>
     <row r="466" ht="47.25" customHeight="1" spans="1:33">
       <c r="A466" s="6"/>
-      <c r="B466" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C466" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D466" s="15">
-        <v>1096062793</v>
-      </c>
-      <c r="E466" s="16">
-        <v>10347754</v>
-      </c>
-      <c r="F466" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="G466" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H466" s="15" t="s">
-        <v>107</v>
-      </c>
+      <c r="B466" s="14"/>
+      <c r="C466" s="14"/>
+      <c r="D466" s="15"/>
+      <c r="E466" s="16"/>
+      <c r="F466" s="15"/>
+      <c r="G466" s="15"/>
+      <c r="H466" s="15"/>
       <c r="I466" s="20"/>
       <c r="J466" s="19"/>
       <c r="K466" s="18"/>
@@ -26390,20 +26431,20 @@
       <c r="C467" s="14">
         <v>1.25</v>
       </c>
-      <c r="D467" s="15" t="s">
-        <v>428</v>
+      <c r="D467" s="15">
+        <v>1096062793</v>
       </c>
       <c r="E467" s="16">
-        <v>10348008</v>
+        <v>10347754</v>
       </c>
       <c r="F467" s="15" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G467" s="15" t="s">
         <v>106</v>
       </c>
       <c r="H467" s="15" t="s">
-        <v>327</v>
+        <v>107</v>
       </c>
       <c r="I467" s="20"/>
       <c r="J467" s="19"/>
@@ -26437,16 +26478,16 @@
         <v>0.875</v>
       </c>
       <c r="C468" s="14">
-        <v>1.20833333333333</v>
-      </c>
-      <c r="D468" s="15">
-        <v>1007614330</v>
+        <v>1.25</v>
+      </c>
+      <c r="D468" s="15" t="s">
+        <v>434</v>
       </c>
       <c r="E468" s="16">
-        <v>10348293</v>
+        <v>10348008</v>
       </c>
       <c r="F468" s="15" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G468" s="15" t="s">
         <v>106</v>
@@ -26486,22 +26527,22 @@
         <v>0.875</v>
       </c>
       <c r="C469" s="14">
-        <v>0.25</v>
+        <v>1.20833333333333</v>
       </c>
       <c r="D469" s="15">
-        <v>1153727814</v>
+        <v>1007614330</v>
       </c>
       <c r="E469" s="16">
-        <v>10292490</v>
+        <v>10348293</v>
       </c>
       <c r="F469" s="15" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="G469" s="15" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H469" s="15" t="s">
-        <v>13</v>
+        <v>327</v>
       </c>
       <c r="I469" s="20"/>
       <c r="J469" s="19"/>
@@ -26531,13 +26572,27 @@
     </row>
     <row r="470" ht="47.25" customHeight="1" spans="1:33">
       <c r="A470" s="6"/>
-      <c r="B470" s="14"/>
-      <c r="C470" s="14"/>
-      <c r="D470" s="15"/>
-      <c r="E470" s="16"/>
-      <c r="F470" s="15"/>
-      <c r="G470" s="15"/>
-      <c r="H470" s="15"/>
+      <c r="B470" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C470" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="D470" s="15">
+        <v>1153727814</v>
+      </c>
+      <c r="E470" s="16">
+        <v>10292490</v>
+      </c>
+      <c r="F470" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="G470" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H470" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="I470" s="20"/>
       <c r="J470" s="19"/>
       <c r="K470" s="18"/>
@@ -26564,17 +26619,15 @@
       <c r="AF470" s="18"/>
       <c r="AG470" s="18"/>
     </row>
-    <row r="471" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A471" s="9">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="B471" s="10"/>
-      <c r="C471" s="10"/>
-      <c r="D471" s="10"/>
-      <c r="E471" s="11"/>
-      <c r="F471" s="10"/>
-      <c r="G471" s="10"/>
-      <c r="H471" s="10"/>
+    <row r="471" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A471" s="6"/>
+      <c r="B471" s="14"/>
+      <c r="C471" s="14"/>
+      <c r="D471" s="15"/>
+      <c r="E471" s="16"/>
+      <c r="F471" s="15"/>
+      <c r="G471" s="15"/>
+      <c r="H471" s="15"/>
       <c r="I471" s="20"/>
       <c r="J471" s="19"/>
       <c r="K471" s="18"/>
@@ -26601,31 +26654,33 @@
       <c r="AF471" s="18"/>
       <c r="AG471" s="18"/>
     </row>
-    <row r="472" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A472" s="9"/>
-      <c r="B472" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C472" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D472" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E472" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F472" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G472" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H472" s="8" t="s">
-        <v>6</v>
+    <row r="472" ht="43.15" customHeight="1" spans="1:33">
+      <c r="A472" s="6"/>
+      <c r="B472" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C472" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="D472" s="15">
+        <v>1555773066</v>
+      </c>
+      <c r="E472" s="16">
+        <v>10335909</v>
+      </c>
+      <c r="F472" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="G472" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="H472" s="23" t="s">
+        <v>337</v>
       </c>
       <c r="I472" s="20"/>
-      <c r="J472" s="19"/>
+      <c r="J472" s="19" t="s">
+        <v>439</v>
+      </c>
       <c r="K472" s="18"/>
       <c r="L472" s="18"/>
       <c r="M472" s="18"/>
@@ -26685,29 +26740,17 @@
       <c r="AF473" s="18"/>
       <c r="AG473" s="18"/>
     </row>
-    <row r="474" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A474" s="6"/>
-      <c r="B474" s="14">
+    <row r="474" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A474" s="9">
         <v>0.916666666666667</v>
       </c>
-      <c r="C474" s="14">
-        <v>1.29166666666667</v>
-      </c>
-      <c r="D474" s="15">
-        <v>0</v>
-      </c>
-      <c r="E474" s="16">
-        <v>10347347</v>
-      </c>
-      <c r="F474" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="G474" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H474" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="B474" s="10"/>
+      <c r="C474" s="10"/>
+      <c r="D474" s="10"/>
+      <c r="E474" s="11"/>
+      <c r="F474" s="10"/>
+      <c r="G474" s="10"/>
+      <c r="H474" s="10"/>
       <c r="I474" s="20"/>
       <c r="J474" s="19"/>
       <c r="K474" s="18"/>
@@ -26734,15 +26777,29 @@
       <c r="AF474" s="18"/>
       <c r="AG474" s="18"/>
     </row>
-    <row r="475" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A475" s="6"/>
-      <c r="B475" s="14"/>
-      <c r="C475" s="14"/>
-      <c r="D475" s="15"/>
-      <c r="E475" s="16"/>
-      <c r="F475" s="15"/>
-      <c r="G475" s="15"/>
-      <c r="H475" s="15"/>
+    <row r="475" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A475" s="9"/>
+      <c r="B475" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C475" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D475" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E475" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F475" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G475" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H475" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I475" s="20"/>
       <c r="J475" s="19"/>
       <c r="K475" s="18"/>
@@ -26771,27 +26828,13 @@
     </row>
     <row r="476" ht="47.25" customHeight="1" spans="1:33">
       <c r="A476" s="6"/>
-      <c r="B476" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C476" s="14">
-        <v>1.29166666666667</v>
-      </c>
-      <c r="D476" s="15">
-        <v>1281239426</v>
-      </c>
-      <c r="E476" s="16">
-        <v>10347530</v>
-      </c>
-      <c r="F476" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="G476" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H476" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="B476" s="14"/>
+      <c r="C476" s="14"/>
+      <c r="D476" s="15"/>
+      <c r="E476" s="16"/>
+      <c r="F476" s="15"/>
+      <c r="G476" s="15"/>
+      <c r="H476" s="15"/>
       <c r="I476" s="20"/>
       <c r="J476" s="19"/>
       <c r="K476" s="18"/>
@@ -26820,13 +26863,27 @@
     </row>
     <row r="477" ht="47.25" customHeight="1" spans="1:33">
       <c r="A477" s="6"/>
-      <c r="B477" s="14"/>
-      <c r="C477" s="14"/>
-      <c r="D477" s="15"/>
-      <c r="E477" s="16"/>
-      <c r="F477" s="15"/>
-      <c r="G477" s="15"/>
-      <c r="H477" s="15"/>
+      <c r="B477" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C477" s="14">
+        <v>1.29166666666667</v>
+      </c>
+      <c r="D477" s="15">
+        <v>1281239426</v>
+      </c>
+      <c r="E477" s="16">
+        <v>10347530</v>
+      </c>
+      <c r="F477" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="G477" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H477" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="I477" s="20"/>
       <c r="J477" s="19"/>
       <c r="K477" s="18"/>
@@ -26855,27 +26912,13 @@
     </row>
     <row r="478" ht="47.25" customHeight="1" spans="1:33">
       <c r="A478" s="6"/>
-      <c r="B478" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C478" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D478" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="E478" s="16">
-        <v>10325077</v>
-      </c>
-      <c r="F478" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="G478" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H478" s="15" t="s">
-        <v>127</v>
-      </c>
+      <c r="B478" s="14"/>
+      <c r="C478" s="14"/>
+      <c r="D478" s="15"/>
+      <c r="E478" s="16"/>
+      <c r="F478" s="15"/>
+      <c r="G478" s="15"/>
+      <c r="H478" s="15"/>
       <c r="I478" s="20"/>
       <c r="J478" s="19"/>
       <c r="K478" s="18"/>
@@ -26910,20 +26953,20 @@
       <c r="C479" s="14">
         <v>0.291666666666667</v>
       </c>
-      <c r="D479" s="15">
-        <v>1068770533</v>
+      <c r="D479" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="E479" s="16">
-        <v>10313883</v>
+        <v>10325077</v>
       </c>
       <c r="F479" s="15" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="G479" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H479" s="15" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="I479" s="20"/>
       <c r="J479" s="19"/>
@@ -26953,13 +26996,27 @@
     </row>
     <row r="480" ht="47.25" customHeight="1" spans="1:33">
       <c r="A480" s="6"/>
-      <c r="B480" s="14"/>
-      <c r="C480" s="14"/>
-      <c r="D480" s="15"/>
-      <c r="E480" s="16"/>
-      <c r="F480" s="15"/>
-      <c r="G480" s="15"/>
-      <c r="H480" s="15"/>
+      <c r="B480" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C480" s="14">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D480" s="15">
+        <v>1068770533</v>
+      </c>
+      <c r="E480" s="16">
+        <v>10313883</v>
+      </c>
+      <c r="F480" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="G480" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H480" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="I480" s="20"/>
       <c r="J480" s="19"/>
       <c r="K480" s="18"/>
@@ -26988,27 +27045,13 @@
     </row>
     <row r="481" ht="47.25" customHeight="1" spans="1:33">
       <c r="A481" s="6"/>
-      <c r="B481" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C481" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D481" s="15">
-        <v>0</v>
-      </c>
-      <c r="E481" s="16">
-        <v>10303751</v>
-      </c>
-      <c r="F481" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="G481" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H481" s="15" t="s">
-        <v>34</v>
-      </c>
+      <c r="B481" s="14"/>
+      <c r="C481" s="14"/>
+      <c r="D481" s="15"/>
+      <c r="E481" s="16"/>
+      <c r="F481" s="15"/>
+      <c r="G481" s="15"/>
+      <c r="H481" s="15"/>
       <c r="I481" s="20"/>
       <c r="J481" s="19"/>
       <c r="K481" s="18"/>
@@ -27037,13 +27080,27 @@
     </row>
     <row r="482" ht="47.25" customHeight="1" spans="1:33">
       <c r="A482" s="6"/>
-      <c r="B482" s="14"/>
-      <c r="C482" s="14"/>
-      <c r="D482" s="15"/>
-      <c r="E482" s="16"/>
-      <c r="F482" s="15"/>
-      <c r="G482" s="15"/>
-      <c r="H482" s="15"/>
+      <c r="B482" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C482" s="14">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D482" s="15">
+        <v>0</v>
+      </c>
+      <c r="E482" s="16">
+        <v>10303751</v>
+      </c>
+      <c r="F482" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="G482" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H482" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="I482" s="20"/>
       <c r="J482" s="19"/>
       <c r="K482" s="18"/>
@@ -27072,27 +27129,13 @@
     </row>
     <row r="483" ht="47.25" customHeight="1" spans="1:33">
       <c r="A483" s="6"/>
-      <c r="B483" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C483" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D483" s="15">
-        <v>1070869955</v>
-      </c>
-      <c r="E483" s="16">
-        <v>10334381</v>
-      </c>
-      <c r="F483" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="G483" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H483" s="15" t="s">
-        <v>185</v>
-      </c>
+      <c r="B483" s="14"/>
+      <c r="C483" s="14"/>
+      <c r="D483" s="15"/>
+      <c r="E483" s="16"/>
+      <c r="F483" s="15"/>
+      <c r="G483" s="15"/>
+      <c r="H483" s="15"/>
       <c r="I483" s="20"/>
       <c r="J483" s="19"/>
       <c r="K483" s="18"/>
@@ -27121,13 +27164,27 @@
     </row>
     <row r="484" ht="47.25" customHeight="1" spans="1:33">
       <c r="A484" s="6"/>
-      <c r="B484" s="14"/>
-      <c r="C484" s="14"/>
-      <c r="D484" s="15"/>
-      <c r="E484" s="16"/>
-      <c r="F484" s="15"/>
-      <c r="G484" s="15"/>
-      <c r="H484" s="15"/>
+      <c r="B484" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C484" s="14">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D484" s="15">
+        <v>1070869955</v>
+      </c>
+      <c r="E484" s="16">
+        <v>10334381</v>
+      </c>
+      <c r="F484" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="G484" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H484" s="15" t="s">
+        <v>185</v>
+      </c>
       <c r="I484" s="20"/>
       <c r="J484" s="19"/>
       <c r="K484" s="18"/>
@@ -27156,27 +27213,13 @@
     </row>
     <row r="485" ht="47.25" customHeight="1" spans="1:33">
       <c r="A485" s="6"/>
-      <c r="B485" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C485" s="14">
-        <v>1.29166666666667</v>
-      </c>
-      <c r="D485" s="15">
-        <v>1144811677</v>
-      </c>
-      <c r="E485" s="16">
-        <v>10337070</v>
-      </c>
-      <c r="F485" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="G485" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H485" s="15" t="s">
-        <v>241</v>
-      </c>
+      <c r="B485" s="14"/>
+      <c r="C485" s="14"/>
+      <c r="D485" s="15"/>
+      <c r="E485" s="16"/>
+      <c r="F485" s="15"/>
+      <c r="G485" s="15"/>
+      <c r="H485" s="15"/>
       <c r="I485" s="20"/>
       <c r="J485" s="19"/>
       <c r="K485" s="18"/>
@@ -27205,13 +27248,27 @@
     </row>
     <row r="486" ht="47.25" customHeight="1" spans="1:33">
       <c r="A486" s="6"/>
-      <c r="B486" s="14"/>
-      <c r="C486" s="14"/>
-      <c r="D486" s="15"/>
-      <c r="E486" s="16"/>
-      <c r="F486" s="15"/>
-      <c r="G486" s="15"/>
-      <c r="H486" s="15"/>
+      <c r="B486" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C486" s="14">
+        <v>1.29166666666667</v>
+      </c>
+      <c r="D486" s="15">
+        <v>1144811677</v>
+      </c>
+      <c r="E486" s="16">
+        <v>10337070</v>
+      </c>
+      <c r="F486" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="G486" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H486" s="15" t="s">
+        <v>241</v>
+      </c>
       <c r="I486" s="20"/>
       <c r="J486" s="19"/>
       <c r="K486" s="18"/>
@@ -27238,31 +27295,33 @@
       <c r="AF486" s="18"/>
       <c r="AG486" s="18"/>
     </row>
-    <row r="487" ht="47.25" customHeight="1" spans="1:33">
+    <row r="487" ht="43.5" customHeight="1" spans="1:33">
       <c r="A487" s="6"/>
-      <c r="B487" s="14">
+      <c r="B487" s="24">
         <v>0.916666666666667</v>
       </c>
-      <c r="C487" s="14">
+      <c r="C487" s="24">
         <v>1.29166666666667</v>
       </c>
-      <c r="D487" s="15">
-        <v>1031695970</v>
+      <c r="D487" s="25">
+        <v>1155829737</v>
       </c>
       <c r="E487" s="16">
-        <v>10347183</v>
-      </c>
-      <c r="F487" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="G487" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H487" s="15" t="s">
-        <v>107</v>
+        <v>10347259</v>
+      </c>
+      <c r="F487" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="G487" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H487" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="I487" s="20"/>
-      <c r="J487" s="19"/>
+      <c r="J487" s="19" t="s">
+        <v>448</v>
+      </c>
       <c r="K487" s="18"/>
       <c r="L487" s="18"/>
       <c r="M487" s="18"/>
@@ -27289,27 +27348,13 @@
     </row>
     <row r="488" ht="47.25" customHeight="1" spans="1:33">
       <c r="A488" s="6"/>
-      <c r="B488" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C488" s="14">
-        <v>1.29166666666667</v>
-      </c>
-      <c r="D488" s="15">
-        <v>1146188508</v>
-      </c>
-      <c r="E488" s="16">
-        <v>10347234</v>
-      </c>
-      <c r="F488" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="G488" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H488" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="B488" s="14"/>
+      <c r="C488" s="14"/>
+      <c r="D488" s="15"/>
+      <c r="E488" s="16"/>
+      <c r="F488" s="15"/>
+      <c r="G488" s="15"/>
+      <c r="H488" s="15"/>
       <c r="I488" s="20"/>
       <c r="J488" s="19"/>
       <c r="K488" s="18"/>
@@ -27345,19 +27390,19 @@
         <v>1.29166666666667</v>
       </c>
       <c r="D489" s="15">
-        <v>1129422164</v>
+        <v>1031695970</v>
       </c>
       <c r="E489" s="16">
-        <v>10347324</v>
+        <v>10347183</v>
       </c>
       <c r="F489" s="15" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="G489" s="15" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H489" s="15" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="I489" s="20"/>
       <c r="J489" s="19"/>
@@ -27387,13 +27432,27 @@
     </row>
     <row r="490" ht="47.25" customHeight="1" spans="1:33">
       <c r="A490" s="6"/>
-      <c r="B490" s="14"/>
-      <c r="C490" s="14"/>
-      <c r="D490" s="15"/>
-      <c r="E490" s="16"/>
-      <c r="F490" s="15"/>
-      <c r="G490" s="15"/>
-      <c r="H490" s="15"/>
+      <c r="B490" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C490" s="14">
+        <v>1.29166666666667</v>
+      </c>
+      <c r="D490" s="15">
+        <v>1146188508</v>
+      </c>
+      <c r="E490" s="16">
+        <v>10347234</v>
+      </c>
+      <c r="F490" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="G490" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H490" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="I490" s="20"/>
       <c r="J490" s="19"/>
       <c r="K490" s="18"/>
@@ -27420,17 +27479,29 @@
       <c r="AF490" s="18"/>
       <c r="AG490" s="18"/>
     </row>
-    <row r="491" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A491" s="9">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="B491" s="10"/>
-      <c r="C491" s="10"/>
-      <c r="D491" s="10"/>
-      <c r="E491" s="11"/>
-      <c r="F491" s="10"/>
-      <c r="G491" s="10"/>
-      <c r="H491" s="10"/>
+    <row r="491" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A491" s="6"/>
+      <c r="B491" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C491" s="14">
+        <v>1.29166666666667</v>
+      </c>
+      <c r="D491" s="15">
+        <v>1129422164</v>
+      </c>
+      <c r="E491" s="16">
+        <v>10347324</v>
+      </c>
+      <c r="F491" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="G491" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H491" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="I491" s="20"/>
       <c r="J491" s="19"/>
       <c r="K491" s="18"/>
@@ -27457,29 +27528,15 @@
       <c r="AF491" s="18"/>
       <c r="AG491" s="18"/>
     </row>
-    <row r="492" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A492" s="12"/>
-      <c r="B492" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C492" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D492" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E492" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F492" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G492" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H492" s="8" t="s">
-        <v>6</v>
-      </c>
+    <row r="492" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A492" s="6"/>
+      <c r="B492" s="14"/>
+      <c r="C492" s="14"/>
+      <c r="D492" s="15"/>
+      <c r="E492" s="16"/>
+      <c r="F492" s="15"/>
+      <c r="G492" s="15"/>
+      <c r="H492" s="15"/>
       <c r="I492" s="20"/>
       <c r="J492" s="19"/>
       <c r="K492" s="18"/>
@@ -27506,15 +27563,17 @@
       <c r="AF492" s="18"/>
       <c r="AG492" s="18"/>
     </row>
-    <row r="493" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A493" s="6"/>
-      <c r="B493" s="14"/>
-      <c r="C493" s="14"/>
-      <c r="D493" s="15"/>
-      <c r="E493" s="16"/>
-      <c r="F493" s="15"/>
-      <c r="G493" s="15"/>
-      <c r="H493" s="15"/>
+    <row r="493" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A493" s="9">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="B493" s="10"/>
+      <c r="C493" s="10"/>
+      <c r="D493" s="10"/>
+      <c r="E493" s="11"/>
+      <c r="F493" s="10"/>
+      <c r="G493" s="10"/>
+      <c r="H493" s="10"/>
       <c r="I493" s="20"/>
       <c r="J493" s="19"/>
       <c r="K493" s="18"/>
@@ -27542,27 +27601,27 @@
       <c r="AG493" s="18"/>
     </row>
     <row r="494" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A494" s="6"/>
-      <c r="B494" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C494" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D494" s="15">
-        <v>1005018561</v>
-      </c>
-      <c r="E494" s="16">
-        <v>10347014</v>
-      </c>
-      <c r="F494" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="G494" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H494" s="15" t="s">
-        <v>18</v>
+      <c r="A494" s="12"/>
+      <c r="B494" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C494" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D494" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E494" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F494" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G494" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H494" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="I494" s="20"/>
       <c r="J494" s="19"/>
@@ -27592,27 +27651,13 @@
     </row>
     <row r="495" ht="43.5" customHeight="1" spans="1:33">
       <c r="A495" s="6"/>
-      <c r="B495" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C495" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D495" s="15">
-        <v>1092831999</v>
-      </c>
-      <c r="E495" s="16">
-        <v>10344167</v>
-      </c>
-      <c r="F495" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="G495" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="H495" s="15" t="s">
-        <v>445</v>
-      </c>
+      <c r="B495" s="14"/>
+      <c r="C495" s="14"/>
+      <c r="D495" s="15"/>
+      <c r="E495" s="16"/>
+      <c r="F495" s="15"/>
+      <c r="G495" s="15"/>
+      <c r="H495" s="15"/>
       <c r="I495" s="20"/>
       <c r="J495" s="19"/>
       <c r="K495" s="18"/>
@@ -27641,13 +27686,27 @@
     </row>
     <row r="496" ht="43.5" customHeight="1" spans="1:33">
       <c r="A496" s="6"/>
-      <c r="B496" s="14"/>
-      <c r="C496" s="14"/>
-      <c r="D496" s="15"/>
-      <c r="E496" s="16"/>
-      <c r="F496" s="15"/>
-      <c r="G496" s="15"/>
-      <c r="H496" s="15"/>
+      <c r="B496" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C496" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D496" s="15">
+        <v>1005018561</v>
+      </c>
+      <c r="E496" s="16">
+        <v>10347014</v>
+      </c>
+      <c r="F496" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="G496" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H496" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="I496" s="20"/>
       <c r="J496" s="19"/>
       <c r="K496" s="18"/>
@@ -27682,20 +27741,20 @@
       <c r="C497" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D497" s="15" t="s">
-        <v>446</v>
+      <c r="D497" s="15">
+        <v>1092831999</v>
       </c>
       <c r="E497" s="16">
-        <v>10346150</v>
+        <v>10344167</v>
       </c>
       <c r="F497" s="15" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="G497" s="15" t="s">
-        <v>20</v>
+        <v>454</v>
       </c>
       <c r="H497" s="15" t="s">
-        <v>58</v>
+        <v>454</v>
       </c>
       <c r="I497" s="20"/>
       <c r="J497" s="19"/>
@@ -27725,27 +27784,13 @@
     </row>
     <row r="498" ht="43.5" customHeight="1" spans="1:33">
       <c r="A498" s="6"/>
-      <c r="B498" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C498" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D498" s="15">
-        <v>1280325265</v>
-      </c>
-      <c r="E498" s="16">
-        <v>10346556</v>
-      </c>
-      <c r="F498" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="G498" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H498" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="B498" s="14"/>
+      <c r="C498" s="14"/>
+      <c r="D498" s="15"/>
+      <c r="E498" s="16"/>
+      <c r="F498" s="15"/>
+      <c r="G498" s="15"/>
+      <c r="H498" s="15"/>
       <c r="I498" s="20"/>
       <c r="J498" s="19"/>
       <c r="K498" s="18"/>
@@ -27774,13 +27819,27 @@
     </row>
     <row r="499" ht="43.5" customHeight="1" spans="1:33">
       <c r="A499" s="6"/>
-      <c r="B499" s="14"/>
-      <c r="C499" s="14"/>
-      <c r="D499" s="15"/>
-      <c r="E499" s="16"/>
-      <c r="F499" s="15"/>
-      <c r="G499" s="15"/>
-      <c r="H499" s="15"/>
+      <c r="B499" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C499" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D499" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="E499" s="16">
+        <v>10346150</v>
+      </c>
+      <c r="F499" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="G499" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H499" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="I499" s="20"/>
       <c r="J499" s="19"/>
       <c r="K499" s="18"/>
@@ -27816,19 +27875,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D500" s="15">
-        <v>1070874137</v>
+        <v>1280325265</v>
       </c>
       <c r="E500" s="16">
-        <v>10334215</v>
+        <v>10346556</v>
       </c>
       <c r="F500" s="15" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="G500" s="15" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H500" s="15" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="I500" s="20"/>
       <c r="J500" s="19"/>
@@ -27899,20 +27958,20 @@
       <c r="C502" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D502" s="15" t="s">
-        <v>450</v>
+      <c r="D502" s="15">
+        <v>1070874137</v>
       </c>
       <c r="E502" s="16">
-        <v>10323972</v>
+        <v>10334215</v>
       </c>
       <c r="F502" s="15" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="G502" s="15" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="H502" s="15" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="I502" s="20"/>
       <c r="J502" s="19"/>
@@ -27942,27 +28001,13 @@
     </row>
     <row r="503" ht="43.5" customHeight="1" spans="1:33">
       <c r="A503" s="6"/>
-      <c r="B503" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C503" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D503" s="15">
-        <v>1122755871</v>
-      </c>
-      <c r="E503" s="16">
-        <v>10336453</v>
-      </c>
-      <c r="F503" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="G503" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H503" s="15" t="s">
-        <v>34</v>
-      </c>
+      <c r="B503" s="14"/>
+      <c r="C503" s="14"/>
+      <c r="D503" s="15"/>
+      <c r="E503" s="16"/>
+      <c r="F503" s="15"/>
+      <c r="G503" s="15"/>
+      <c r="H503" s="15"/>
       <c r="I503" s="20"/>
       <c r="J503" s="19"/>
       <c r="K503" s="18"/>
@@ -27997,20 +28042,20 @@
       <c r="C504" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D504" s="15">
-        <v>1122706070</v>
+      <c r="D504" s="15" t="s">
+        <v>459</v>
       </c>
       <c r="E504" s="16">
-        <v>10344863</v>
+        <v>10323972</v>
       </c>
       <c r="F504" s="15" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="G504" s="15" t="s">
         <v>33</v>
       </c>
       <c r="H504" s="15" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I504" s="20"/>
       <c r="J504" s="19"/>
@@ -28047,19 +28092,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D505" s="15">
-        <v>1021293302</v>
+        <v>1122755871</v>
       </c>
       <c r="E505" s="16">
-        <v>10344866</v>
+        <v>10336453</v>
       </c>
       <c r="F505" s="15" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="G505" s="15" t="s">
         <v>33</v>
       </c>
       <c r="H505" s="15" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="I505" s="20"/>
       <c r="J505" s="19"/>
@@ -28089,13 +28134,27 @@
     </row>
     <row r="506" ht="43.5" customHeight="1" spans="1:33">
       <c r="A506" s="6"/>
-      <c r="B506" s="14"/>
-      <c r="C506" s="14"/>
-      <c r="D506" s="15"/>
-      <c r="E506" s="16"/>
-      <c r="F506" s="15"/>
-      <c r="G506" s="15"/>
-      <c r="H506" s="15"/>
+      <c r="B506" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C506" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D506" s="15">
+        <v>1122706070</v>
+      </c>
+      <c r="E506" s="16">
+        <v>10344863</v>
+      </c>
+      <c r="F506" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="G506" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H506" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="I506" s="20"/>
       <c r="J506" s="19"/>
       <c r="K506" s="18"/>
@@ -28131,19 +28190,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D507" s="15">
-        <v>1556037177</v>
+        <v>1021293302</v>
       </c>
       <c r="E507" s="16">
-        <v>10331012</v>
+        <v>10344866</v>
       </c>
       <c r="F507" s="15" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="G507" s="15" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="H507" s="15" t="s">
-        <v>455</v>
+        <v>134</v>
       </c>
       <c r="I507" s="20"/>
       <c r="J507" s="19"/>
@@ -28215,19 +28274,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D509" s="15">
-        <v>1552456793</v>
+        <v>1556037177</v>
       </c>
       <c r="E509" s="16">
-        <v>10344749</v>
+        <v>10331012</v>
       </c>
       <c r="F509" s="15" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="G509" s="15" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="H509" s="15" t="s">
-        <v>143</v>
+        <v>464</v>
       </c>
       <c r="I509" s="20"/>
       <c r="J509" s="19"/>
@@ -28257,27 +28316,13 @@
     </row>
     <row r="510" ht="43.5" customHeight="1" spans="1:33">
       <c r="A510" s="6"/>
-      <c r="B510" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C510" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D510" s="15">
-        <v>1093443771</v>
-      </c>
-      <c r="E510" s="16">
-        <v>10344757</v>
-      </c>
-      <c r="F510" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="G510" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H510" s="15" t="s">
-        <v>206</v>
-      </c>
+      <c r="B510" s="14"/>
+      <c r="C510" s="14"/>
+      <c r="D510" s="15"/>
+      <c r="E510" s="16"/>
+      <c r="F510" s="15"/>
+      <c r="G510" s="15"/>
+      <c r="H510" s="15"/>
       <c r="I510" s="20"/>
       <c r="J510" s="19"/>
       <c r="K510" s="18"/>
@@ -28313,19 +28358,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D511" s="15">
-        <v>1044237280</v>
+        <v>1552456793</v>
       </c>
       <c r="E511" s="16">
-        <v>10346789</v>
+        <v>10344749</v>
       </c>
       <c r="F511" s="15" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G511" s="15" t="s">
         <v>37</v>
       </c>
       <c r="H511" s="15" t="s">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="I511" s="20"/>
       <c r="J511" s="19"/>
@@ -28355,13 +28400,27 @@
     </row>
     <row r="512" ht="43.5" customHeight="1" spans="1:33">
       <c r="A512" s="6"/>
-      <c r="B512" s="14"/>
-      <c r="C512" s="14"/>
-      <c r="D512" s="15"/>
-      <c r="E512" s="16"/>
-      <c r="F512" s="15"/>
-      <c r="G512" s="15"/>
-      <c r="H512" s="15"/>
+      <c r="B512" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C512" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D512" s="15">
+        <v>1093443771</v>
+      </c>
+      <c r="E512" s="16">
+        <v>10344757</v>
+      </c>
+      <c r="F512" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="G512" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H512" s="15" t="s">
+        <v>206</v>
+      </c>
       <c r="I512" s="20"/>
       <c r="J512" s="19"/>
       <c r="K512" s="18"/>
@@ -28397,19 +28456,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D513" s="15">
-        <v>1001035542</v>
+        <v>1044237280</v>
       </c>
       <c r="E513" s="16">
-        <v>10331761</v>
+        <v>10346789</v>
       </c>
       <c r="F513" s="15" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="G513" s="15" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H513" s="15" t="s">
-        <v>460</v>
+        <v>241</v>
       </c>
       <c r="I513" s="20"/>
       <c r="J513" s="19"/>
@@ -28439,29 +28498,31 @@
     </row>
     <row r="514" ht="43.5" customHeight="1" spans="1:33">
       <c r="A514" s="6"/>
-      <c r="B514" s="14">
+      <c r="B514" s="24">
         <v>0.958333333333333</v>
       </c>
-      <c r="C514" s="14">
+      <c r="C514" s="24">
         <v>0.333333333333333</v>
       </c>
-      <c r="D514" s="15">
-        <v>1205409714</v>
+      <c r="D514" s="25">
+        <v>1095204998</v>
       </c>
       <c r="E514" s="16">
-        <v>10341007</v>
-      </c>
-      <c r="F514" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="G514" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H514" s="15" t="s">
-        <v>209</v>
+        <v>10344242</v>
+      </c>
+      <c r="F514" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="G514" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H514" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="I514" s="20"/>
-      <c r="J514" s="19"/>
+      <c r="J514" s="19" t="s">
+        <v>448</v>
+      </c>
       <c r="K514" s="18"/>
       <c r="L514" s="18"/>
       <c r="M514" s="18"/>
@@ -28488,27 +28549,13 @@
     </row>
     <row r="515" ht="43.5" customHeight="1" spans="1:33">
       <c r="A515" s="6"/>
-      <c r="B515" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C515" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D515" s="15">
-        <v>1153235087</v>
-      </c>
-      <c r="E515" s="16">
-        <v>10341020</v>
-      </c>
-      <c r="F515" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="G515" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H515" s="15" t="s">
-        <v>209</v>
-      </c>
+      <c r="B515" s="14"/>
+      <c r="C515" s="14"/>
+      <c r="D515" s="15"/>
+      <c r="E515" s="16"/>
+      <c r="F515" s="15"/>
+      <c r="G515" s="15"/>
+      <c r="H515" s="15"/>
       <c r="I515" s="20"/>
       <c r="J515" s="19"/>
       <c r="K515" s="18"/>
@@ -28544,19 +28591,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D516" s="15">
-        <v>1094190472</v>
+        <v>1001035542</v>
       </c>
       <c r="E516" s="16">
-        <v>10345545</v>
+        <v>10331761</v>
       </c>
       <c r="F516" s="15" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="G516" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H516" s="15" t="s">
-        <v>42</v>
+        <v>470</v>
       </c>
       <c r="I516" s="20"/>
       <c r="J516" s="19"/>
@@ -28593,19 +28640,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D517" s="15">
-        <v>1281887573</v>
+        <v>1205409714</v>
       </c>
       <c r="E517" s="16">
-        <v>10346088</v>
+        <v>10341007</v>
       </c>
       <c r="F517" s="15" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="G517" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H517" s="15" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="I517" s="20"/>
       <c r="J517" s="19"/>
@@ -28641,20 +28688,20 @@
       <c r="C518" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D518" s="15" t="s">
-        <v>465</v>
+      <c r="D518" s="15">
+        <v>1281887573</v>
       </c>
       <c r="E518" s="16">
-        <v>10331002</v>
+        <v>10346088</v>
       </c>
       <c r="F518" s="15" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G518" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H518" s="15" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="I518" s="20"/>
       <c r="J518" s="19"/>
@@ -28684,13 +28731,27 @@
     </row>
     <row r="519" ht="43.5" customHeight="1" spans="1:33">
       <c r="A519" s="6"/>
-      <c r="B519" s="14"/>
-      <c r="C519" s="14"/>
-      <c r="D519" s="15"/>
-      <c r="E519" s="16"/>
-      <c r="F519" s="15"/>
-      <c r="G519" s="15"/>
-      <c r="H519" s="15"/>
+      <c r="B519" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C519" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D519" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E519" s="16">
+        <v>10331002</v>
+      </c>
+      <c r="F519" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="G519" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H519" s="15" t="s">
+        <v>150</v>
+      </c>
       <c r="I519" s="20"/>
       <c r="J519" s="19"/>
       <c r="K519" s="18"/>
@@ -28717,31 +28778,33 @@
       <c r="AF519" s="18"/>
       <c r="AG519" s="18"/>
     </row>
-    <row r="520" ht="43.5" customHeight="1" spans="1:33">
+    <row r="520" ht="48.75" customHeight="1" spans="1:33">
       <c r="A520" s="6"/>
-      <c r="B520" s="14">
+      <c r="B520" s="24">
         <v>0.958333333333333</v>
       </c>
-      <c r="C520" s="14">
+      <c r="C520" s="24">
         <v>0.333333333333333</v>
       </c>
-      <c r="D520" s="15">
-        <v>1115460558</v>
+      <c r="D520" s="25">
+        <v>1080445221</v>
       </c>
       <c r="E520" s="16">
-        <v>10338462</v>
-      </c>
-      <c r="F520" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="G520" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H520" s="15" t="s">
-        <v>327</v>
+        <v>10342331</v>
+      </c>
+      <c r="F520" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="G520" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H520" s="23" t="s">
+        <v>150</v>
       </c>
       <c r="I520" s="20"/>
-      <c r="J520" s="19"/>
+      <c r="J520" s="19" t="s">
+        <v>259</v>
+      </c>
       <c r="K520" s="18"/>
       <c r="L520" s="18"/>
       <c r="M520" s="18"/>
@@ -28768,27 +28831,13 @@
     </row>
     <row r="521" ht="43.5" customHeight="1" spans="1:33">
       <c r="A521" s="6"/>
-      <c r="B521" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C521" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D521" s="15">
-        <v>1559633455</v>
-      </c>
-      <c r="E521" s="16">
-        <v>10343475</v>
-      </c>
-      <c r="F521" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="G521" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H521" s="15" t="s">
-        <v>327</v>
-      </c>
+      <c r="B521" s="14"/>
+      <c r="C521" s="14"/>
+      <c r="D521" s="15"/>
+      <c r="E521" s="16"/>
+      <c r="F521" s="15"/>
+      <c r="G521" s="15"/>
+      <c r="H521" s="15"/>
       <c r="I521" s="20"/>
       <c r="J521" s="19"/>
       <c r="K521" s="18"/>
@@ -28824,19 +28873,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D522" s="15">
-        <v>1509946439</v>
+        <v>1115460558</v>
       </c>
       <c r="E522" s="16">
-        <v>10344252</v>
+        <v>10338462</v>
       </c>
       <c r="F522" s="15" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="G522" s="15" t="s">
         <v>106</v>
       </c>
       <c r="H522" s="15" t="s">
-        <v>107</v>
+        <v>327</v>
       </c>
       <c r="I522" s="20"/>
       <c r="J522" s="19"/>
@@ -28873,19 +28922,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D523" s="15">
-        <v>1090642201</v>
+        <v>1559633455</v>
       </c>
       <c r="E523" s="16">
-        <v>10344770</v>
+        <v>10343475</v>
       </c>
       <c r="F523" s="15" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="G523" s="15" t="s">
         <v>106</v>
       </c>
       <c r="H523" s="15" t="s">
-        <v>107</v>
+        <v>327</v>
       </c>
       <c r="I523" s="20"/>
       <c r="J523" s="19"/>
@@ -28922,13 +28971,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D524" s="15">
-        <v>1091643089</v>
+        <v>1509946439</v>
       </c>
       <c r="E524" s="16">
-        <v>10314789</v>
+        <v>10344252</v>
       </c>
       <c r="F524" s="15" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="G524" s="15" t="s">
         <v>106</v>
@@ -28970,20 +29019,20 @@
       <c r="C525" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D525" s="15" t="s">
-        <v>472</v>
+      <c r="D525" s="15">
+        <v>1090642201</v>
       </c>
       <c r="E525" s="16">
-        <v>10344214</v>
+        <v>10344770</v>
       </c>
       <c r="F525" s="15" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G525" s="15" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H525" s="15" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="I525" s="20"/>
       <c r="J525" s="19"/>
@@ -29019,20 +29068,20 @@
       <c r="C526" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D526" s="15" t="s">
-        <v>474</v>
+      <c r="D526" s="15">
+        <v>1091643089</v>
       </c>
       <c r="E526" s="16">
-        <v>10346285</v>
+        <v>10314789</v>
       </c>
       <c r="F526" s="15" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="G526" s="15" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H526" s="15" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="I526" s="20"/>
       <c r="J526" s="19"/>
@@ -29068,14 +29117,14 @@
       <c r="C527" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D527" s="15">
-        <v>1550567520</v>
+      <c r="D527" s="15" t="s">
+        <v>481</v>
       </c>
       <c r="E527" s="16">
-        <v>10335408</v>
+        <v>10344214</v>
       </c>
       <c r="F527" s="15" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="G527" s="15" t="s">
         <v>12</v>
@@ -29111,13 +29160,27 @@
     </row>
     <row r="528" ht="43.5" customHeight="1" spans="1:33">
       <c r="A528" s="6"/>
-      <c r="B528" s="14"/>
-      <c r="C528" s="14"/>
-      <c r="D528" s="15"/>
-      <c r="E528" s="16"/>
-      <c r="F528" s="15"/>
-      <c r="G528" s="15"/>
-      <c r="H528" s="15"/>
+      <c r="B528" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C528" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D528" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="E528" s="16">
+        <v>10346285</v>
+      </c>
+      <c r="F528" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="G528" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H528" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="I528" s="20"/>
       <c r="J528" s="19"/>
       <c r="K528" s="18"/>
@@ -29153,19 +29216,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D529" s="15">
-        <v>1140254052</v>
+        <v>1550567520</v>
       </c>
       <c r="E529" s="16">
-        <v>10344240</v>
+        <v>10335408</v>
       </c>
       <c r="F529" s="15" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="G529" s="15" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="H529" s="15" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="I529" s="20"/>
       <c r="J529" s="19"/>
@@ -29237,19 +29300,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D531" s="15">
-        <v>1203091448</v>
+        <v>1140254052</v>
       </c>
       <c r="E531" s="16">
-        <v>10344261</v>
+        <v>10344240</v>
       </c>
       <c r="F531" s="15" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="G531" s="15" t="s">
-        <v>336</v>
+        <v>52</v>
       </c>
       <c r="H531" s="15" t="s">
-        <v>337</v>
+        <v>53</v>
       </c>
       <c r="I531" s="20"/>
       <c r="J531" s="19"/>
@@ -29279,27 +29342,13 @@
     </row>
     <row r="532" ht="43.5" customHeight="1" spans="1:33">
       <c r="A532" s="6"/>
-      <c r="B532" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C532" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D532" s="15">
-        <v>1080545669</v>
-      </c>
-      <c r="E532" s="16">
-        <v>10320297</v>
-      </c>
-      <c r="F532" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="G532" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="H532" s="15" t="s">
-        <v>337</v>
-      </c>
+      <c r="B532" s="14"/>
+      <c r="C532" s="14"/>
+      <c r="D532" s="15"/>
+      <c r="E532" s="16"/>
+      <c r="F532" s="15"/>
+      <c r="G532" s="15"/>
+      <c r="H532" s="15"/>
       <c r="I532" s="20"/>
       <c r="J532" s="19"/>
       <c r="K532" s="18"/>
@@ -29328,13 +29377,27 @@
     </row>
     <row r="533" ht="43.5" customHeight="1" spans="1:33">
       <c r="A533" s="6"/>
-      <c r="B533" s="14"/>
-      <c r="C533" s="14"/>
-      <c r="D533" s="15"/>
-      <c r="E533" s="16"/>
-      <c r="F533" s="15"/>
-      <c r="G533" s="15"/>
-      <c r="H533" s="15"/>
+      <c r="B533" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C533" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D533" s="15">
+        <v>1203091448</v>
+      </c>
+      <c r="E533" s="16">
+        <v>10344261</v>
+      </c>
+      <c r="F533" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="G533" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="H533" s="15" t="s">
+        <v>337</v>
+      </c>
       <c r="I533" s="20"/>
       <c r="J533" s="19"/>
       <c r="K533" s="18"/>
@@ -29361,15 +29424,29 @@
       <c r="AF533" s="18"/>
       <c r="AG533" s="18"/>
     </row>
-    <row r="534" ht="15" customHeight="1" spans="1:33">
+    <row r="534" ht="43.5" customHeight="1" spans="1:33">
       <c r="A534" s="6"/>
-      <c r="B534" s="28"/>
-      <c r="C534" s="28"/>
-      <c r="D534" s="29"/>
-      <c r="E534" s="30"/>
-      <c r="F534" s="29"/>
-      <c r="G534" s="29"/>
-      <c r="H534" s="29"/>
+      <c r="B534" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C534" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D534" s="15">
+        <v>1080545669</v>
+      </c>
+      <c r="E534" s="16">
+        <v>10320297</v>
+      </c>
+      <c r="F534" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="G534" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="H534" s="15" t="s">
+        <v>337</v>
+      </c>
       <c r="I534" s="20"/>
       <c r="J534" s="19"/>
       <c r="K534" s="18"/>
@@ -29396,6 +29473,76 @@
       <c r="AF534" s="18"/>
       <c r="AG534" s="18"/>
     </row>
+    <row r="535" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A535" s="6"/>
+      <c r="B535" s="14"/>
+      <c r="C535" s="14"/>
+      <c r="D535" s="15"/>
+      <c r="E535" s="16"/>
+      <c r="F535" s="15"/>
+      <c r="G535" s="15"/>
+      <c r="H535" s="15"/>
+      <c r="I535" s="20"/>
+      <c r="J535" s="19"/>
+      <c r="K535" s="18"/>
+      <c r="L535" s="18"/>
+      <c r="M535" s="18"/>
+      <c r="N535" s="18"/>
+      <c r="O535" s="18"/>
+      <c r="P535" s="18"/>
+      <c r="Q535" s="18"/>
+      <c r="R535" s="18"/>
+      <c r="S535" s="18"/>
+      <c r="T535" s="18"/>
+      <c r="U535" s="18"/>
+      <c r="V535" s="18"/>
+      <c r="W535" s="18"/>
+      <c r="X535" s="18"/>
+      <c r="Y535" s="18"/>
+      <c r="Z535" s="18"/>
+      <c r="AA535" s="18"/>
+      <c r="AB535" s="18"/>
+      <c r="AC535" s="18"/>
+      <c r="AD535" s="18"/>
+      <c r="AE535" s="18"/>
+      <c r="AF535" s="18"/>
+      <c r="AG535" s="18"/>
+    </row>
+    <row r="536" ht="15" customHeight="1" spans="1:33">
+      <c r="A536" s="6"/>
+      <c r="B536" s="30"/>
+      <c r="C536" s="30"/>
+      <c r="D536" s="31"/>
+      <c r="E536" s="32"/>
+      <c r="F536" s="31"/>
+      <c r="G536" s="31"/>
+      <c r="H536" s="31"/>
+      <c r="I536" s="20"/>
+      <c r="J536" s="19"/>
+      <c r="K536" s="18"/>
+      <c r="L536" s="18"/>
+      <c r="M536" s="18"/>
+      <c r="N536" s="18"/>
+      <c r="O536" s="18"/>
+      <c r="P536" s="18"/>
+      <c r="Q536" s="18"/>
+      <c r="R536" s="18"/>
+      <c r="S536" s="18"/>
+      <c r="T536" s="18"/>
+      <c r="U536" s="18"/>
+      <c r="V536" s="18"/>
+      <c r="W536" s="18"/>
+      <c r="X536" s="18"/>
+      <c r="Y536" s="18"/>
+      <c r="Z536" s="18"/>
+      <c r="AA536" s="18"/>
+      <c r="AB536" s="18"/>
+      <c r="AC536" s="18"/>
+      <c r="AD536" s="18"/>
+      <c r="AE536" s="18"/>
+      <c r="AF536" s="18"/>
+      <c r="AG536" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="A2:A3"/>
@@ -29411,12 +29558,12 @@
     <mergeCell ref="A252:A253"/>
     <mergeCell ref="A326:A327"/>
     <mergeCell ref="A370:A371"/>
-    <mergeCell ref="A389:A390"/>
+    <mergeCell ref="A388:A389"/>
     <mergeCell ref="A420:A421"/>
-    <mergeCell ref="A431:A432"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="A471:A472"/>
-    <mergeCell ref="A491:A492"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="A450:A451"/>
+    <mergeCell ref="A474:A475"/>
+    <mergeCell ref="A493:A494"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
